--- a/2024 Reilly Connelly/data.xlsx
+++ b/2024 Reilly Connelly/data.xlsx
@@ -204,7 +204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,12 +228,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -675,7 +669,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F51"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/2024 Reilly Connelly/data.xlsx
+++ b/2024 Reilly Connelly/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2024 Reilly Connelly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5739ED85-F540-4510-A816-5E1460B3D4DF}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2CFFF2A-7262-4C56-9E2D-BF4173EC6B2B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
   </bookViews>
@@ -38,85 +38,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D783706F-83F1-4A14-8A02-54E2A1BBC874}</author>
-    <author>tc={D70D9E2F-E539-420E-9E7B-45A9852460EB}</author>
-    <author>tc={5C93EEE8-4FD0-4423-8269-9F96A6DB5B9B}</author>
-    <author>tc={9C85A981-CE88-4ED4-A4E0-854F111E20C9}</author>
-    <author>tc={ADDDF5BF-900F-4848-B0B2-67830EB0B34E}</author>
-    <author>tc={A639D650-8B82-4897-B682-C620681FE6A3}</author>
-    <author>tc={CEE65CEB-488F-462C-B475-1B6EB268096B}</author>
-    <author>tc={13780ADF-F727-407A-8A1B-7C71EBF3E845}</author>
-    <author>tc={A029E76F-5033-4E38-B040-05FB93DF23FE}</author>
-    <author>tc={85F6AFB3-0DEF-494F-B679-DCF83E545A1E}</author>
-    <author>tc={5AC69404-D9A6-4BFC-BBB4-2C98923770F5}</author>
-    <author>tc={878A1D03-7E63-4727-B571-077184C62DEA}</author>
+    <author>tc={834AEFE2-0A62-4477-B9F5-F145AEDFDBEC}</author>
+    <author>tc={7FB14CDB-253D-41B3-94AA-CE736CD13B80}</author>
+    <author>tc={11571FE7-1D94-43B5-8F33-9C56A556261E}</author>
+    <author>tc={F94B6F80-F180-4908-860B-26CD7D299751}</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{D783706F-83F1-4A14-8A02-54E2A1BBC874}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Base on google maps</t>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{D70D9E2F-E539-420E-9E7B-45A9852460EB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Base on google maps</t>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="2" shapeId="0" xr:uid="{5C93EEE8-4FD0-4423-8269-9F96A6DB5B9B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Base on google maps</t>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="3" shapeId="0" xr:uid="{9C85A981-CE88-4ED4-A4E0-854F111E20C9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Base on google maps</t>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="4" shapeId="0" xr:uid="{ADDDF5BF-900F-4848-B0B2-67830EB0B34E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Base on google maps</t>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="5" shapeId="0" xr:uid="{A639D650-8B82-4897-B682-C620681FE6A3}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Base on google maps</t>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="6" shapeId="0" xr:uid="{CEE65CEB-488F-462C-B475-1B6EB268096B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Base on google maps</t>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="7" shapeId="0" xr:uid="{13780ADF-F727-407A-8A1B-7C71EBF3E845}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Base on google maps</t>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="8" shapeId="0" xr:uid="{A029E76F-5033-4E38-B040-05FB93DF23FE}">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{834AEFE2-0A62-4477-B9F5-F145AEDFDBEC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -124,28 +52,29 @@
     I changed this value, is this correct?</t>
       </text>
     </comment>
-    <comment ref="F14" authorId="9" shapeId="0" xr:uid="{85F6AFB3-0DEF-494F-B679-DCF83E545A1E}">
+    <comment ref="D45" authorId="1" shapeId="0" xr:uid="{7FB14CDB-253D-41B3-94AA-CE736CD13B80}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Paper says 1.77 but that’s wrong?
+</t>
+      </text>
+    </comment>
+    <comment ref="D48" authorId="2" shapeId="0" xr:uid="{11571FE7-1D94-43B5-8F33-9C56A556261E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Base on google maps</t>
+    4.33</t>
       </text>
     </comment>
-    <comment ref="F15" authorId="10" shapeId="0" xr:uid="{5AC69404-D9A6-4BFC-BBB4-2C98923770F5}">
+    <comment ref="D49" authorId="3" shapeId="0" xr:uid="{F94B6F80-F180-4908-860B-26CD7D299751}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Base on google maps</t>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="11" shapeId="0" xr:uid="{878A1D03-7E63-4727-B571-077184C62DEA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Base on google maps</t>
+    2.47</t>
       </text>
     </comment>
   </commentList>
@@ -153,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="9">
   <si>
     <t>temperate</t>
   </si>
@@ -180,21 +109,6 @@
   </si>
   <si>
     <t>stream_order</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>five</t>
   </si>
 </sst>
 </file>
@@ -305,6 +219,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Pablo Esteban Gutiérrez-Fonseca (he/him)" id="{FD825D12-7496-401B-8877-16C45BED3695}" userId="S::pgutierr@uvm.edu::25bdc618-995f-415b-9b28-31563f05eb38" providerId="AD"/>
+  <person displayName="Reilly Connelly" id="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" userId="S::rbconnel@uvm.edu::7bbe1f05-ee46-4c21-802d-b1ede6324a9f" providerId="AD"/>
 </personList>
 </file>
 
@@ -625,54 +540,34 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F2" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{D783706F-83F1-4A14-8A02-54E2A1BBC874}">
-    <text>Base on google maps</text>
-  </threadedComment>
-  <threadedComment ref="F3" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{D70D9E2F-E539-420E-9E7B-45A9852460EB}">
-    <text>Base on google maps</text>
-  </threadedComment>
-  <threadedComment ref="F4" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{5C93EEE8-4FD0-4423-8269-9F96A6DB5B9B}">
-    <text>Base on google maps</text>
-  </threadedComment>
-  <threadedComment ref="F5" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9C85A981-CE88-4ED4-A4E0-854F111E20C9}">
-    <text>Base on google maps</text>
-  </threadedComment>
-  <threadedComment ref="F6" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{ADDDF5BF-900F-4848-B0B2-67830EB0B34E}">
-    <text>Base on google maps</text>
-  </threadedComment>
-  <threadedComment ref="F7" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A639D650-8B82-4897-B682-C620681FE6A3}">
-    <text>Base on google maps</text>
-  </threadedComment>
-  <threadedComment ref="F8" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{CEE65CEB-488F-462C-B475-1B6EB268096B}">
-    <text>Base on google maps</text>
-  </threadedComment>
-  <threadedComment ref="F9" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{13780ADF-F727-407A-8A1B-7C71EBF3E845}">
-    <text>Base on google maps</text>
-  </threadedComment>
-  <threadedComment ref="E10" dT="2024-10-25T00:53:16.21" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A029E76F-5033-4E38-B040-05FB93DF23FE}">
+  <threadedComment ref="E10" dT="2024-10-25T00:53:16.21" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{834AEFE2-0A62-4477-B9F5-F145AEDFDBEC}">
     <text>I changed this value, is this correct?</text>
   </threadedComment>
-  <threadedComment ref="F14" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{85F6AFB3-0DEF-494F-B679-DCF83E545A1E}">
-    <text>Base on google maps</text>
+  <threadedComment ref="D45" dT="2024-10-23T01:04:50.70" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{7FB14CDB-253D-41B3-94AA-CE736CD13B80}">
+    <text xml:space="preserve">Paper says 1.77 but that’s wrong?
+</text>
   </threadedComment>
-  <threadedComment ref="F15" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{5AC69404-D9A6-4BFC-BBB4-2C98923770F5}">
-    <text>Base on google maps</text>
+  <threadedComment ref="D48" dT="2024-10-23T01:05:57.45" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{11571FE7-1D94-43B5-8F33-9C56A556261E}">
+    <text>4.33</text>
   </threadedComment>
-  <threadedComment ref="F16" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{878A1D03-7E63-4727-B571-077184C62DEA}">
-    <text>Base on google maps</text>
+  <threadedComment ref="D49" dT="2024-10-23T01:06:08.42" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{F94B6F80-F180-4908-860B-26CD7D299751}">
+    <text>2.47</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB867A98-EA07-409A-8A8F-7AC4B2C4A731}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -710,9 +605,6 @@
       <c r="E2" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
@@ -730,9 +622,6 @@
       <c r="E3" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
@@ -750,9 +639,6 @@
       <c r="E4" s="6">
         <v>0.06</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
@@ -770,9 +656,6 @@
       <c r="E5" s="3">
         <v>0.06</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
@@ -790,28 +673,22 @@
       <c r="E6" s="3">
         <v>0.06</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
         <v>85</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>228</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>2.68</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>0.06</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -830,9 +707,6 @@
       <c r="E8" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
@@ -849,9 +723,6 @@
       </c>
       <c r="E9" s="3">
         <v>0.08</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -871,9 +742,6 @@
       <c r="E10" s="8">
         <v>0.26</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
@@ -892,9 +760,6 @@
       <c r="E11" s="8">
         <v>0.22</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
@@ -913,9 +778,6 @@
       <c r="E12" s="8">
         <v>0.19</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
@@ -934,9 +796,6 @@
       <c r="E13" s="8">
         <v>0.19</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
@@ -954,9 +813,6 @@
       <c r="E14" s="3">
         <v>0.05</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
@@ -974,9 +830,6 @@
       <c r="E15" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
@@ -994,11 +847,8 @@
       <c r="E16" s="3">
         <v>0.19</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>1</v>
       </c>
@@ -1014,11 +864,8 @@
       <c r="E17" s="8">
         <v>0.2</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>1</v>
       </c>
@@ -1034,669 +881,681 @@
       <c r="E18" s="8">
         <v>0.05</v>
       </c>
-      <c r="F18" s="13" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="9">
+        <v>15</v>
+      </c>
+      <c r="C19" s="9">
+        <v>18</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="C20" s="9">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="9">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9">
+        <v>40</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9">
+        <v>63</v>
+      </c>
+      <c r="C22" s="9">
+        <v>156</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="9">
+        <v>43</v>
+      </c>
+      <c r="C23" s="9">
+        <v>88</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9">
+        <v>38</v>
+      </c>
+      <c r="C24" s="9">
+        <v>109</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2.87</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9">
+        <v>38</v>
+      </c>
+      <c r="C25" s="9">
+        <v>81</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2.13</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="9">
+        <v>47</v>
+      </c>
+      <c r="C26" s="9">
+        <v>124</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2.64</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9">
+        <v>48</v>
+      </c>
+      <c r="C27" s="9">
+        <v>163</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="9">
+        <v>50</v>
+      </c>
+      <c r="C28" s="9">
+        <v>230</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9">
+        <v>55</v>
+      </c>
+      <c r="C29" s="9">
+        <v>193</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3.51</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="9">
+        <v>63</v>
+      </c>
+      <c r="C30" s="9">
+        <v>271</v>
+      </c>
+      <c r="D30" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="9">
+        <v>44</v>
+      </c>
+      <c r="C31" s="9">
+        <v>219</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="9">
+        <v>50</v>
+      </c>
+      <c r="C32" s="9">
+        <v>148</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2.96</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="9">
+        <v>39</v>
+      </c>
+      <c r="C33" s="9">
+        <v>165</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="9">
+        <v>63</v>
+      </c>
+      <c r="C34" s="9">
+        <v>134</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2.13</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="9">
+        <v>45</v>
+      </c>
+      <c r="C35" s="9">
+        <v>152</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3.38</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9">
+        <v>59</v>
+      </c>
+      <c r="C36" s="9">
+        <v>183</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="9">
+        <v>52</v>
+      </c>
+      <c r="C37" s="9">
+        <v>184</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3.54</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
         <v>102</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C38" s="1">
         <v>675</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D38" s="2">
         <v>6.37</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E38" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
         <v>129</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C39" s="1">
         <v>879</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D39" s="2">
         <v>7.53</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E39" s="3">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
         <v>100</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C40" s="1">
         <v>596</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D40" s="2">
         <v>5.83</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E40" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1">
         <v>131</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C41" s="1">
         <v>918</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D41" s="2">
         <v>7.01</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E41" s="3">
         <v>0.06</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
         <v>93</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C42" s="1">
         <v>544</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D42" s="2">
         <v>5.85</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E42" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="9">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="9">
         <v>126</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C43" s="9">
         <v>854</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D43" s="7">
         <v>6.78</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E43" s="8">
         <v>6.3E-2</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="9">
+        <v>31</v>
+      </c>
+      <c r="C44" s="9">
+        <v>77</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" ref="D44:D49" si="0">C44/B44</f>
+        <v>2.4838709677419355</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" ref="E44:E49" si="1">C44/(B44*B44)</f>
+        <v>8.0124869927159212E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="9">
+        <v>17</v>
+      </c>
+      <c r="C45" s="9">
+        <v>39</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2941176470588234</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" si="1"/>
+        <v>0.13494809688581316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="4">
+        <v>32</v>
+      </c>
+      <c r="C46" s="4">
+        <v>87</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="0"/>
+        <v>2.71875</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="1"/>
+        <v>8.49609375E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="9">
+        <v>24</v>
+      </c>
+      <c r="C47" s="9">
+        <v>75</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="0"/>
+        <v>3.125</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" si="1"/>
+        <v>0.13020833333333334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="9">
+        <v>33</v>
+      </c>
+      <c r="C48" s="9">
+        <v>123</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7272727272727271</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" si="1"/>
+        <v>0.11294765840220386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="9">
+        <v>22</v>
+      </c>
+      <c r="C49" s="9">
+        <v>42</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" si="1"/>
+        <v>8.6776859504132234E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B50" s="10">
         <v>39</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C50" s="10">
         <v>146</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D50" s="10">
         <v>3.74</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E50" s="10">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B51" s="10">
         <v>35</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C51" s="10">
         <v>110</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D51" s="10">
         <v>3.14</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E51" s="10">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B52" s="10">
         <v>32</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C52" s="10">
         <v>107</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D52" s="10">
         <v>3.34</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E52" s="10">
         <v>0.108</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B53" s="10">
         <v>31</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C53" s="10">
         <v>102</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D53" s="10">
         <v>3.29</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E53" s="10">
         <v>0.109</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B54" s="10">
         <v>37</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C54" s="10">
         <v>120</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D54" s="10">
         <v>3.24</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E54" s="10">
         <v>0.09</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B55" s="10">
         <v>32</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C55" s="10">
         <v>101</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D55" s="10">
         <v>3.16</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E55" s="10">
         <v>0.10199999999999999</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B56" s="10">
         <v>33</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C56" s="10">
         <v>104</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D56" s="10">
         <v>3.15</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E56" s="10">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1">
         <v>36</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C57" s="1">
         <v>152</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D57" s="2">
         <v>4.22</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E57" s="8">
         <f>152/(36*(36))</f>
         <v>0.11728395061728394</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="9">
-        <v>15</v>
-      </c>
-      <c r="C33" s="9">
-        <v>18</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="9">
-        <v>10</v>
-      </c>
-      <c r="C34" s="9">
-        <v>13</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0.43</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="9">
-        <v>21</v>
-      </c>
-      <c r="C35" s="9">
-        <v>40</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="9">
-        <v>63</v>
-      </c>
-      <c r="C36" s="9">
-        <v>156</v>
-      </c>
-      <c r="D36" s="7">
-        <v>2.48</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0.06</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="9">
-        <v>43</v>
-      </c>
-      <c r="C37" s="9">
-        <v>88</v>
-      </c>
-      <c r="D37" s="7">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="9">
-        <v>38</v>
-      </c>
-      <c r="C38" s="9">
-        <v>109</v>
-      </c>
-      <c r="D38" s="7">
-        <v>2.87</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="9">
-        <v>38</v>
-      </c>
-      <c r="C39" s="9">
-        <v>81</v>
-      </c>
-      <c r="D39" s="7">
-        <v>2.13</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="9">
-        <v>47</v>
-      </c>
-      <c r="C40" s="9">
-        <v>124</v>
-      </c>
-      <c r="D40" s="7">
-        <v>2.64</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="9">
-        <v>48</v>
-      </c>
-      <c r="C41" s="9">
-        <v>163</v>
-      </c>
-      <c r="D41" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="E41" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="9">
-        <v>50</v>
-      </c>
-      <c r="C42" s="9">
-        <v>230</v>
-      </c>
-      <c r="D42" s="7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E42" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="9">
-        <v>55</v>
-      </c>
-      <c r="C43" s="9">
-        <v>193</v>
-      </c>
-      <c r="D43" s="7">
-        <v>3.51</v>
-      </c>
-      <c r="E43" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="9">
-        <v>63</v>
-      </c>
-      <c r="C44" s="9">
-        <v>271</v>
-      </c>
-      <c r="D44" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="9">
-        <v>44</v>
-      </c>
-      <c r="C45" s="9">
-        <v>219</v>
-      </c>
-      <c r="D45" s="7">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="E45" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="9">
-        <v>50</v>
-      </c>
-      <c r="C46" s="9">
-        <v>148</v>
-      </c>
-      <c r="D46" s="7">
-        <v>2.96</v>
-      </c>
-      <c r="E46" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="9">
-        <v>39</v>
-      </c>
-      <c r="C47" s="9">
-        <v>165</v>
-      </c>
-      <c r="D47" s="7">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="E47" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="9">
-        <v>63</v>
-      </c>
-      <c r="C48" s="9">
-        <v>134</v>
-      </c>
-      <c r="D48" s="7">
-        <v>2.13</v>
-      </c>
-      <c r="E48" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="9">
-        <v>45</v>
-      </c>
-      <c r="C49" s="9">
-        <v>152</v>
-      </c>
-      <c r="D49" s="7">
-        <v>3.38</v>
-      </c>
-      <c r="E49" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="9">
-        <v>59</v>
-      </c>
-      <c r="C50" s="9">
-        <v>183</v>
-      </c>
-      <c r="D50" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="E50" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="9">
-        <v>52</v>
-      </c>
-      <c r="C51" s="9">
-        <v>184</v>
-      </c>
-      <c r="D51" s="7">
-        <v>3.54</v>
-      </c>
-      <c r="E51" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/2024 Reilly Connelly/data.xlsx
+++ b/2024 Reilly Connelly/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2024 Reilly Connelly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2CFFF2A-7262-4C56-9E2D-BF4173EC6B2B}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6866399B-D1BD-4285-9202-BBD2C0918A9F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
   </bookViews>
@@ -38,13 +38,310 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={834AEFE2-0A62-4477-B9F5-F145AEDFDBEC}</author>
-    <author>tc={7FB14CDB-253D-41B3-94AA-CE736CD13B80}</author>
-    <author>tc={11571FE7-1D94-43B5-8F33-9C56A556261E}</author>
-    <author>tc={F94B6F80-F180-4908-860B-26CD7D299751}</author>
+    <author>tc={276D6E98-6486-4909-AE1B-7B3C9CE2DD39}</author>
+    <author>tc={C6A59451-6538-4716-A3CA-153F88AE4517}</author>
+    <author>tc={B8C62B53-AAA6-443D-A7C5-F1C5A3B8D23D}</author>
+    <author>tc={5D48A8E6-8544-4E52-A9E7-9342E77DF333}</author>
+    <author>tc={0E18BB01-AF94-4153-B162-089E5A864CFA}</author>
+    <author>tc={6960F1DD-77D1-428A-A8B3-89FB476E159C}</author>
+    <author>tc={5EA9A911-B7C0-43FC-8E08-DB949E9A9C16}</author>
+    <author>tc={31601398-D165-4FA5-9FC2-A34AB4C1661B}</author>
+    <author>tc={CA56F88A-CD7F-4FBF-BC3E-46626B5DC044}</author>
+    <author>tc={9AAB5ADB-8C82-42C8-A0D6-D0EFBB078DAF}</author>
+    <author>tc={FE2E72F8-A623-4CA4-A227-8D5ABF5ABB38}</author>
+    <author>tc={9B779296-7490-436C-B5B7-7CB9AA8F553A}</author>
+    <author>tc={7D8EF433-73B4-4C86-9E69-07EB7832D784}</author>
+    <author>tc={00D581CC-3090-48BD-8068-892E53ED4BD4}</author>
+    <author>tc={59FE5842-5B14-407D-9162-8156EFBD6291}</author>
+    <author>tc={A6246BD8-A8CB-4025-BA3C-346D14A2F4F9}</author>
+    <author>tc={D4E5B00F-2953-41EB-A4BC-25CCB8BD6C65}</author>
+    <author>tc={C81E1444-F104-4972-A896-EC9B47A939A8}</author>
+    <author>tc={34420C8D-B720-4439-A381-E4C9E6725CE8}</author>
+    <author>tc={0200A85F-42FC-4437-BD94-2F95BAD48EC9}</author>
+    <author>tc={66388576-B0E5-4438-9F3E-2AAB4E8ADD69}</author>
+    <author>tc={973AB60E-FA1C-4594-820E-5DB5A7039EF8}</author>
+    <author>tc={01679BEA-6082-459D-9811-51A59007C2A6}</author>
+    <author>tc={61ED5EB0-0222-4591-86D7-E2ABBA3A8F74}</author>
+    <author>tc={F0253267-F5C1-46F4-9F0D-F34DD95468B2}</author>
+    <author>tc={BE5C36F3-2864-45CC-8C7E-FF5276CA5C94}</author>
+    <author>tc={52A3D7DA-6230-48D2-8BFF-2B14CB6FA578}</author>
+    <author>tc={FABD7C6B-535A-498C-B94A-3DC248646424}</author>
+    <author>tc={B0F27DC7-96D6-4FAF-9875-0B517384B8CF}</author>
+    <author>tc={474C5F7B-9D14-4BFC-82F4-F00C6BA7C312}</author>
+    <author>tc={89600623-F35F-4F88-A55E-574BB22287AA}</author>
+    <author>tc={DC4FBA1F-9F74-4E44-B513-C45F4074F1C1}</author>
+    <author>tc={7F93E847-E249-41C9-8A44-E6D98F889106}</author>
+    <author>tc={8F041FB6-DA34-4CB3-BD2D-8CF1E4B92FBC}</author>
+    <author>tc={DEA68CA9-5886-4684-91AC-79B7E6A32276}</author>
+    <author>tc={6C48A878-1149-4F90-9754-288F066F33A9}</author>
+    <author>tc={7BDD1E61-3F3D-4542-BFC7-23650BB1D7D2}</author>
+    <author>tc={8BF49985-3EE1-4EB5-95C5-D8651BEF6C58}</author>
+    <author>tc={77B5CC59-381B-404F-AAA6-5CFC6A44839E}</author>
+    <author>tc={936899EF-5DA8-423D-96C7-656AFA53DCD0}</author>
+    <author>tc={C8ECD62F-8A3D-49F9-B262-AB2F0547E3D4}</author>
+    <author>tc={687393A0-0518-4876-918E-A24DD2FD5AD1}</author>
+    <author>tc={2930C22B-8C4B-4CBA-9F66-12B7A5B79C3F}</author>
+    <author>tc={44B7821C-43DD-4431-A5EA-36316C3F41EA}</author>
+    <author>tc={0B6D79C7-1878-4261-B5CC-29DDF709C42A}</author>
   </authors>
   <commentList>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{834AEFE2-0A62-4477-B9F5-F145AEDFDBEC}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{276D6E98-6486-4909-AE1B-7B3C9CE2DD39}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base on google maps</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{C6A59451-6538-4716-A3CA-153F88AE4517}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base on google maps</t>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="2" shapeId="0" xr:uid="{B8C62B53-AAA6-443D-A7C5-F1C5A3B8D23D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base on google maps</t>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="3" shapeId="0" xr:uid="{5D48A8E6-8544-4E52-A9E7-9342E77DF333}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base on google maps</t>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="4" shapeId="0" xr:uid="{0E18BB01-AF94-4153-B162-089E5A864CFA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="5" shapeId="0" xr:uid="{6960F1DD-77D1-428A-A8B3-89FB476E159C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base map in the paper</t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="6" shapeId="0" xr:uid="{5EA9A911-B7C0-43FC-8E08-DB949E9A9C16}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="7" shapeId="0" xr:uid="{31601398-D165-4FA5-9FC2-A34AB4C1661B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base map in the paper</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="8" shapeId="0" xr:uid="{CA56F88A-CD7F-4FBF-BC3E-46626B5DC044}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="9" shapeId="0" xr:uid="{9AAB5ADB-8C82-42C8-A0D6-D0EFBB078DAF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base map in the paper</t>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="10" shapeId="0" xr:uid="{FE2E72F8-A623-4CA4-A227-8D5ABF5ABB38}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="11" shapeId="0" xr:uid="{9B779296-7490-436C-B5B7-7CB9AA8F553A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base map in the paper</t>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="12" shapeId="0" xr:uid="{7D8EF433-73B4-4C86-9E69-07EB7832D784}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="13" shapeId="0" xr:uid="{00D581CC-3090-48BD-8068-892E53ED4BD4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base map in the paper</t>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="14" shapeId="0" xr:uid="{59FE5842-5B14-407D-9162-8156EFBD6291}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="15" shapeId="0" xr:uid="{A6246BD8-A8CB-4025-BA3C-346D14A2F4F9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base map in the paper</t>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="16" shapeId="0" xr:uid="{D4E5B00F-2953-41EB-A4BC-25CCB8BD6C65}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="17" shapeId="0" xr:uid="{C81E1444-F104-4972-A896-EC9B47A939A8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base map in the paper</t>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="18" shapeId="0" xr:uid="{34420C8D-B720-4439-A381-E4C9E6725CE8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="19" shapeId="0" xr:uid="{0200A85F-42FC-4437-BD94-2F95BAD48EC9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base map in the paper</t>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="20" shapeId="0" xr:uid="{66388576-B0E5-4438-9F3E-2AAB4E8ADD69}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="21" shapeId="0" xr:uid="{973AB60E-FA1C-4594-820E-5DB5A7039EF8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base map in the paper</t>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="22" shapeId="0" xr:uid="{01679BEA-6082-459D-9811-51A59007C2A6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="23" shapeId="0" xr:uid="{61ED5EB0-0222-4591-86D7-E2ABBA3A8F74}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base map in the paper</t>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="24" shapeId="0" xr:uid="{F0253267-F5C1-46F4-9F0D-F34DD95468B2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="25" shapeId="0" xr:uid="{BE5C36F3-2864-45CC-8C7E-FF5276CA5C94}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base map in the paper</t>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="26" shapeId="0" xr:uid="{52A3D7DA-6230-48D2-8BFF-2B14CB6FA578}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="27" shapeId="0" xr:uid="{FABD7C6B-535A-498C-B94A-3DC248646424}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base map in the paper</t>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="28" shapeId="0" xr:uid="{B0F27DC7-96D6-4FAF-9875-0B517384B8CF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base on google maps</t>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="29" shapeId="0" xr:uid="{474C5F7B-9D14-4BFC-82F4-F00C6BA7C312}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base on google maps</t>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="30" shapeId="0" xr:uid="{89600623-F35F-4F88-A55E-574BB22287AA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base on google maps</t>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="31" shapeId="0" xr:uid="{DC4FBA1F-9F74-4E44-B513-C45F4074F1C1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base on google maps</t>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="32" shapeId="0" xr:uid="{7F93E847-E249-41C9-8A44-E6D98F889106}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +349,39 @@
     I changed this value, is this correct?</t>
       </text>
     </comment>
-    <comment ref="D45" authorId="1" shapeId="0" xr:uid="{7FB14CDB-253D-41B3-94AA-CE736CD13B80}">
+    <comment ref="F26" authorId="33" shapeId="0" xr:uid="{8F041FB6-DA34-4CB3-BD2D-8CF1E4B92FBC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base on google maps</t>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="34" shapeId="0" xr:uid="{DEA68CA9-5886-4684-91AC-79B7E6A32276}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base on google maps</t>
+      </text>
+    </comment>
+    <comment ref="F28" authorId="35" shapeId="0" xr:uid="{6C48A878-1149-4F90-9754-288F066F33A9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Base on google maps</t>
+      </text>
+    </comment>
+    <comment ref="F56" authorId="36" shapeId="0" xr:uid="{7BDD1E61-3F3D-4542-BFC7-23650BB1D7D2}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="D57" authorId="37" shapeId="0" xr:uid="{8BF49985-3EE1-4EB5-95C5-D8651BEF6C58}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,7 +390,31 @@
 </t>
       </text>
     </comment>
-    <comment ref="D48" authorId="2" shapeId="0" xr:uid="{11571FE7-1D94-43B5-8F33-9C56A556261E}">
+    <comment ref="F57" authorId="38" shapeId="0" xr:uid="{77B5CC59-381B-404F-AAA6-5CFC6A44839E}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="F58" authorId="39" shapeId="0" xr:uid="{936899EF-5DA8-423D-96C7-656AFA53DCD0}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="F59" authorId="40" shapeId="0" xr:uid="{C8ECD62F-8A3D-49F9-B262-AB2F0547E3D4}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="D60" authorId="41" shapeId="0" xr:uid="{687393A0-0518-4876-918E-A24DD2FD5AD1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -69,12 +422,28 @@
     4.33</t>
       </text>
     </comment>
-    <comment ref="D49" authorId="3" shapeId="0" xr:uid="{F94B6F80-F180-4908-860B-26CD7D299751}">
+    <comment ref="F60" authorId="42" shapeId="0" xr:uid="{2930C22B-8C4B-4CBA-9F66-12B7A5B79C3F}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="D61" authorId="43" shapeId="0" xr:uid="{44B7821C-43DD-4431-A5EA-36316C3F41EA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     2.47</t>
+      </text>
+    </comment>
+    <comment ref="F61" authorId="44" shapeId="0" xr:uid="{0B6D79C7-1878-4261-B5CC-29DDF709C42A}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
       </text>
     </comment>
   </commentList>
@@ -82,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="14">
   <si>
     <t>temperate</t>
   </si>
@@ -110,6 +479,21 @@
   <si>
     <t>stream_order</t>
   </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +502,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +525,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -166,39 +556,39 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,28 +930,151 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E10" dT="2024-10-25T00:53:16.21" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{834AEFE2-0A62-4477-B9F5-F145AEDFDBEC}">
+  <threadedComment ref="F2" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{276D6E98-6486-4909-AE1B-7B3C9CE2DD39}">
+    <text>Base on google maps</text>
+  </threadedComment>
+  <threadedComment ref="F3" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C6A59451-6538-4716-A3CA-153F88AE4517}">
+    <text>Base on google maps</text>
+  </threadedComment>
+  <threadedComment ref="F4" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{B8C62B53-AAA6-443D-A7C5-F1C5A3B8D23D}">
+    <text>Base on google maps</text>
+  </threadedComment>
+  <threadedComment ref="F5" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{5D48A8E6-8544-4E52-A9E7-9342E77DF333}">
+    <text>Base on google maps</text>
+  </threadedComment>
+  <threadedComment ref="D6" dT="2024-10-26T01:21:56.57" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0E18BB01-AF94-4153-B162-089E5A864CFA}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2024-10-26T01:32:32.14" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{6960F1DD-77D1-428A-A8B3-89FB476E159C}">
+    <text>Base map in the paper</text>
+  </threadedComment>
+  <threadedComment ref="D7" dT="2024-10-26T01:32:54.46" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{5EA9A911-B7C0-43FC-8E08-DB949E9A9C16}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F7" dT="2024-10-26T01:32:26.13" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{31601398-D165-4FA5-9FC2-A34AB4C1661B}">
+    <text>Base map in the paper</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-10-26T01:32:58.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{CA56F88A-CD7F-4FBF-BC3E-46626B5DC044}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F8" dT="2024-10-26T01:32:19.94" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9AAB5ADB-8C82-42C8-A0D6-D0EFBB078DAF}">
+    <text>Base map in the paper</text>
+  </threadedComment>
+  <threadedComment ref="D9" dT="2024-10-26T01:33:02.52" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{FE2E72F8-A623-4CA4-A227-8D5ABF5ABB38}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F9" dT="2024-10-26T01:32:15.98" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9B779296-7490-436C-B5B7-7CB9AA8F553A}">
+    <text>Base map in the paper</text>
+  </threadedComment>
+  <threadedComment ref="D10" dT="2024-10-26T01:33:06.03" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7D8EF433-73B4-4C86-9E69-07EB7832D784}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F10" dT="2024-10-26T01:32:11.84" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{00D581CC-3090-48BD-8068-892E53ED4BD4}">
+    <text>Base map in the paper</text>
+  </threadedComment>
+  <threadedComment ref="D11" dT="2024-10-26T01:33:13.81" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{59FE5842-5B14-407D-9162-8156EFBD6291}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F11" dT="2024-10-26T01:32:07.96" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A6246BD8-A8CB-4025-BA3C-346D14A2F4F9}">
+    <text>Base map in the paper</text>
+  </threadedComment>
+  <threadedComment ref="D12" dT="2024-10-26T01:33:17.37" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{D4E5B00F-2953-41EB-A4BC-25CCB8BD6C65}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F12" dT="2024-10-26T01:32:04.27" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C81E1444-F104-4972-A896-EC9B47A939A8}">
+    <text>Base map in the paper</text>
+  </threadedComment>
+  <threadedComment ref="D13" dT="2024-10-26T01:33:24.43" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{34420C8D-B720-4439-A381-E4C9E6725CE8}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F13" dT="2024-10-26T01:31:57.39" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0200A85F-42FC-4437-BD94-2F95BAD48EC9}">
+    <text>Base map in the paper</text>
+  </threadedComment>
+  <threadedComment ref="D14" dT="2024-10-26T01:33:30.59" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{66388576-B0E5-4438-9F3E-2AAB4E8ADD69}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F14" dT="2024-10-26T01:31:54.37" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{973AB60E-FA1C-4594-820E-5DB5A7039EF8}">
+    <text>Base map in the paper</text>
+  </threadedComment>
+  <threadedComment ref="D15" dT="2024-10-26T01:33:38.23" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{01679BEA-6082-459D-9811-51A59007C2A6}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F15" dT="2024-10-26T01:31:50.74" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{61ED5EB0-0222-4591-86D7-E2ABBA3A8F74}">
+    <text>Base map in the paper</text>
+  </threadedComment>
+  <threadedComment ref="D16" dT="2024-10-26T01:33:42.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F0253267-F5C1-46F4-9F0D-F34DD95468B2}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F16" dT="2024-10-26T01:31:47.23" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{BE5C36F3-2864-45CC-8C7E-FF5276CA5C94}">
+    <text>Base map in the paper</text>
+  </threadedComment>
+  <threadedComment ref="D17" dT="2024-10-26T01:33:47.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{52A3D7DA-6230-48D2-8BFF-2B14CB6FA578}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F17" dT="2024-10-26T01:31:43.69" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{FABD7C6B-535A-498C-B94A-3DC248646424}">
+    <text>Base map in the paper</text>
+  </threadedComment>
+  <threadedComment ref="F18" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{B0F27DC7-96D6-4FAF-9875-0B517384B8CF}">
+    <text>Base on google maps</text>
+  </threadedComment>
+  <threadedComment ref="F19" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{474C5F7B-9D14-4BFC-82F4-F00C6BA7C312}">
+    <text>Base on google maps</text>
+  </threadedComment>
+  <threadedComment ref="F20" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{89600623-F35F-4F88-A55E-574BB22287AA}">
+    <text>Base on google maps</text>
+  </threadedComment>
+  <threadedComment ref="F21" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{DC4FBA1F-9F74-4E44-B513-C45F4074F1C1}">
+    <text>Base on google maps</text>
+  </threadedComment>
+  <threadedComment ref="E22" dT="2024-10-25T00:53:16.21" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7F93E847-E249-41C9-8A44-E6D98F889106}">
     <text>I changed this value, is this correct?</text>
   </threadedComment>
-  <threadedComment ref="D45" dT="2024-10-23T01:04:50.70" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{7FB14CDB-253D-41B3-94AA-CE736CD13B80}">
+  <threadedComment ref="F26" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{8F041FB6-DA34-4CB3-BD2D-8CF1E4B92FBC}">
+    <text>Base on google maps</text>
+  </threadedComment>
+  <threadedComment ref="F27" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{DEA68CA9-5886-4684-91AC-79B7E6A32276}">
+    <text>Base on google maps</text>
+  </threadedComment>
+  <threadedComment ref="F28" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{6C48A878-1149-4F90-9754-288F066F33A9}">
+    <text>Base on google maps</text>
+  </threadedComment>
+  <threadedComment ref="F56" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7BDD1E61-3F3D-4542-BFC7-23650BB1D7D2}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="D57" dT="2024-10-23T01:04:50.70" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{8BF49985-3EE1-4EB5-95C5-D8651BEF6C58}">
     <text xml:space="preserve">Paper says 1.77 but that’s wrong?
 </text>
   </threadedComment>
-  <threadedComment ref="D48" dT="2024-10-23T01:05:57.45" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{11571FE7-1D94-43B5-8F33-9C56A556261E}">
+  <threadedComment ref="F57" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{77B5CC59-381B-404F-AAA6-5CFC6A44839E}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="F58" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{936899EF-5DA8-423D-96C7-656AFA53DCD0}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="F59" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C8ECD62F-8A3D-49F9-B262-AB2F0547E3D4}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="D60" dT="2024-10-23T01:05:57.45" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{687393A0-0518-4876-918E-A24DD2FD5AD1}">
     <text>4.33</text>
   </threadedComment>
-  <threadedComment ref="D49" dT="2024-10-23T01:06:08.42" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{F94B6F80-F180-4908-860B-26CD7D299751}">
+  <threadedComment ref="F60" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{2930C22B-8C4B-4CBA-9F66-12B7A5B79C3F}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="D61" dT="2024-10-23T01:06:08.42" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{44B7821C-43DD-4431-A5EA-36316C3F41EA}">
     <text>2.47</text>
+  </threadedComment>
+  <threadedComment ref="F61" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0B6D79C7-1878-4261-B5CC-29DDF709C42A}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB867A98-EA07-409A-8A8F-7AC4B2C4A731}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,972 +1103,1392 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
         <v>42</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>126</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
         <v>41</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>115</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>2.8</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
         <v>65</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>238</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>3.66</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <v>0.06</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
         <v>63</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>217</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>3.66</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>0.06</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:D17" si="0">C7/B7</f>
+        <v>1.8</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.308</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5294117647058822</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.316</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0714285714285716</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10">
+        <v>15</v>
+      </c>
+      <c r="C15" s="10">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.372</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10">
+        <v>35</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
         <v>87</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C18" s="4">
         <v>238</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D18" s="5">
         <v>2.74</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E18" s="6">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7">
         <v>85</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C19" s="7">
         <v>228</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D19" s="8">
         <v>2.68</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E19" s="9">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
         <v>88</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C20" s="4">
         <v>274</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D20" s="5">
         <v>3.11</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E20" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
         <v>78</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C21" s="4">
         <v>234</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E21" s="6">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
         <v>27.75</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C22" s="4">
         <v>95.5</v>
       </c>
-      <c r="D10" s="7">
-        <f>C10/B10</f>
+      <c r="D22" s="12">
+        <f>C22/B22</f>
         <v>3.4414414414414414</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E22" s="13">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
         <v>32.5</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C23" s="4">
         <v>114.4</v>
       </c>
-      <c r="D11" s="7">
-        <f>C11/B11</f>
+      <c r="D23" s="12">
+        <f>C23/B23</f>
         <v>3.52</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E23" s="13">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="F23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
         <v>38.75</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C24" s="4">
         <v>142.25</v>
       </c>
-      <c r="D12" s="7">
-        <f>C12/B12</f>
+      <c r="D24" s="12">
+        <f>C24/B24</f>
         <v>3.6709677419354838</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E24" s="13">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
         <v>40.5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C25" s="4">
         <v>149</v>
       </c>
-      <c r="D13" s="7">
-        <f>C13/B13</f>
+      <c r="D25" s="12">
+        <f>C25/B25</f>
         <v>3.6790123456790123</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E25" s="13">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="F25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C26" s="4">
         <v>16</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D26" s="5">
         <v>1.23</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E26" s="6">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4">
         <v>19</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C27" s="4">
         <v>51</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D27" s="5">
         <v>2.68</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E27" s="6">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4">
         <v>19</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C28" s="4">
         <v>67</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D28" s="5">
         <v>3.53</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E28" s="6">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9">
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="11">
         <v>28</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C29" s="11">
         <v>156</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D29" s="12">
         <v>5.57</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E29" s="13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="9">
+      <c r="F29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11">
         <v>117</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C30" s="11">
         <v>345</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D30" s="12">
         <v>3</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E30" s="13">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="11">
         <v>15</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C31" s="11">
         <v>18</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D31" s="12">
         <v>1.2</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E31" s="13">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="9">
-        <v>10</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="F31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="11">
+        <v>10</v>
+      </c>
+      <c r="C32" s="11">
         <v>13</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D32" s="12">
         <v>1.3</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E32" s="13">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="9">
+      <c r="F32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="11">
         <v>21</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C33" s="11">
         <v>40</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D33" s="12">
         <v>1.9</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E33" s="13">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="9">
+      <c r="F33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="11">
         <v>63</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C34" s="11">
         <v>156</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D34" s="12">
         <v>2.48</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E34" s="13">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="9">
+      <c r="F34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="11">
         <v>43</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C35" s="11">
         <v>88</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D35" s="12">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E35" s="13">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="9">
+      <c r="F35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="11">
         <v>38</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C36" s="11">
         <v>109</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D36" s="12">
         <v>2.87</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E36" s="13">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="9">
+      <c r="F36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="11">
         <v>38</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C37" s="11">
         <v>81</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D37" s="12">
         <v>2.13</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E37" s="13">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="9">
+      <c r="F37" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="11">
         <v>47</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C38" s="11">
         <v>124</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D38" s="12">
         <v>2.64</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E38" s="13">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="9">
+      <c r="F38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="11">
         <v>48</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C39" s="11">
         <v>163</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D39" s="12">
         <v>3.4</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E39" s="13">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="9">
+      <c r="F39" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="11">
         <v>50</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C40" s="11">
         <v>230</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D40" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E40" s="13">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="F40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="11">
         <v>55</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C41" s="11">
         <v>193</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D41" s="12">
         <v>3.51</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E41" s="13">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="F41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="11">
         <v>63</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C42" s="11">
         <v>271</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D42" s="12">
         <v>4.3</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E42" s="13">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="9">
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="11">
         <v>44</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C43" s="11">
         <v>219</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D43" s="12">
         <v>4.9800000000000004</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E43" s="13">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="9">
+      <c r="F43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="11">
         <v>50</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C44" s="11">
         <v>148</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D44" s="12">
         <v>2.96</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E44" s="13">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="9">
+      <c r="F44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="11">
         <v>39</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C45" s="11">
         <v>165</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D45" s="12">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E45" s="13">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="9">
+      <c r="F45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="11">
         <v>63</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C46" s="11">
         <v>134</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D46" s="12">
         <v>2.13</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E46" s="13">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="9">
+      <c r="F46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="11">
         <v>45</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C47" s="11">
         <v>152</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D47" s="12">
         <v>3.38</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E47" s="13">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="9">
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="11">
         <v>59</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C48" s="11">
         <v>183</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D48" s="12">
         <v>3.1</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E48" s="13">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="9">
+      <c r="F48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="11">
         <v>52</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C49" s="11">
         <v>184</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D49" s="12">
         <v>3.54</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E49" s="13">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="F49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4">
         <v>102</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C50" s="4">
         <v>675</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D50" s="5">
         <v>6.37</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E50" s="6">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="F50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="4">
         <v>129</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C51" s="4">
         <v>879</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D51" s="5">
         <v>7.53</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E51" s="6">
         <v>7.3999999999999996E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1">
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="4">
         <v>100</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C52" s="4">
         <v>596</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D52" s="5">
         <v>5.83</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E52" s="6">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="F52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4">
         <v>131</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C53" s="4">
         <v>918</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D53" s="5">
         <v>7.01</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E53" s="6">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="F53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="4">
         <v>93</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C54" s="4">
         <v>544</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D54" s="5">
         <v>5.85</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E54" s="6">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="9">
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="11">
         <v>126</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C55" s="11">
         <v>854</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D55" s="12">
         <v>6.78</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E55" s="13">
         <v>6.3E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="9">
+      <c r="F55" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="11">
         <v>31</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C56" s="11">
         <v>77</v>
       </c>
-      <c r="D44" s="7">
-        <f t="shared" ref="D44:D49" si="0">C44/B44</f>
+      <c r="D56" s="12">
+        <f>C56/B56</f>
         <v>2.4838709677419355</v>
       </c>
-      <c r="E44" s="8">
-        <f t="shared" ref="E44:E49" si="1">C44/(B44*B44)</f>
+      <c r="E56" s="13">
+        <f>C56/(B56*B56)</f>
         <v>8.0124869927159212E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="9">
+      <c r="F56" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="11">
         <v>17</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C57" s="11">
         <v>39</v>
       </c>
-      <c r="D45" s="7">
-        <f t="shared" si="0"/>
+      <c r="D57" s="12">
+        <f>C57/B57</f>
         <v>2.2941176470588234</v>
       </c>
-      <c r="E45" s="8">
-        <f t="shared" si="1"/>
+      <c r="E57" s="13">
+        <f>C57/(B57*B57)</f>
         <v>0.13494809688581316</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="4">
+      <c r="F57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="7">
         <v>32</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C58" s="7">
         <v>87</v>
       </c>
-      <c r="D46" s="5">
-        <f t="shared" si="0"/>
+      <c r="D58" s="8">
+        <f>C58/B58</f>
         <v>2.71875</v>
       </c>
-      <c r="E46" s="6">
-        <f t="shared" si="1"/>
+      <c r="E58" s="9">
+        <f>C58/(B58*B58)</f>
         <v>8.49609375E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="9">
+      <c r="F58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="11">
         <v>24</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C59" s="11">
         <v>75</v>
       </c>
-      <c r="D47" s="7">
-        <f t="shared" si="0"/>
+      <c r="D59" s="12">
+        <f>C59/B59</f>
         <v>3.125</v>
       </c>
-      <c r="E47" s="8">
-        <f t="shared" si="1"/>
+      <c r="E59" s="13">
+        <f>C59/(B59*B59)</f>
         <v>0.13020833333333334</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="9">
+      <c r="F59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="11">
         <v>33</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C60" s="11">
         <v>123</v>
       </c>
-      <c r="D48" s="7">
-        <f t="shared" si="0"/>
+      <c r="D60" s="12">
+        <f>C60/B60</f>
         <v>3.7272727272727271</v>
       </c>
-      <c r="E48" s="8">
-        <f t="shared" si="1"/>
+      <c r="E60" s="13">
+        <f>C60/(B60*B60)</f>
         <v>0.11294765840220386</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="9">
+      <c r="F60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="11">
         <v>22</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C61" s="11">
         <v>42</v>
       </c>
-      <c r="D49" s="7">
-        <f t="shared" si="0"/>
+      <c r="D61" s="12">
+        <f>C61/B61</f>
         <v>1.9090909090909092</v>
       </c>
-      <c r="E49" s="8">
-        <f t="shared" si="1"/>
+      <c r="E61" s="13">
+        <f>C61/(B61*B61)</f>
         <v>8.6776859504132234E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="s">
+      <c r="F61" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B62" s="10">
         <v>39</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C62" s="10">
         <v>146</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D62" s="10">
         <v>3.74</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E62" s="10">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
+      <c r="F62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B63" s="10">
         <v>35</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C63" s="10">
         <v>110</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D63" s="10">
         <v>3.14</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E63" s="10">
         <v>9.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="13" t="s">
+      <c r="F63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B64" s="10">
         <v>32</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C64" s="10">
         <v>107</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D64" s="10">
         <v>3.34</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E64" s="10">
         <v>0.108</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="13" t="s">
+      <c r="F64" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B65" s="10">
         <v>31</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C65" s="10">
         <v>102</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D65" s="10">
         <v>3.29</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E65" s="10">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="13" t="s">
+      <c r="F65" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B66" s="10">
         <v>37</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C66" s="10">
         <v>120</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D66" s="10">
         <v>3.24</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E66" s="10">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="13" t="s">
+      <c r="F66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B67" s="10">
         <v>32</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C67" s="10">
         <v>101</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D67" s="10">
         <v>3.16</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E67" s="10">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="13" t="s">
+      <c r="F67" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B68" s="10">
         <v>33</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C68" s="10">
         <v>104</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D68" s="10">
         <v>3.15</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E68" s="10">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="1">
+      <c r="F68" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="4">
         <v>36</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C69" s="4">
         <v>152</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D69" s="5">
         <v>4.22</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E69" s="13">
         <f>152/(36*(36))</f>
         <v>0.11728395061728394</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/2024 Reilly Connelly/data.xlsx
+++ b/2024 Reilly Connelly/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2024 Reilly Connelly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6866399B-D1BD-4285-9202-BBD2C0918A9F}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1404FAEA-A652-4A96-A825-D6F4470CE565}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
   </bookViews>
@@ -42,47 +42,47 @@
     <author>tc={C6A59451-6538-4716-A3CA-153F88AE4517}</author>
     <author>tc={B8C62B53-AAA6-443D-A7C5-F1C5A3B8D23D}</author>
     <author>tc={5D48A8E6-8544-4E52-A9E7-9342E77DF333}</author>
-    <author>tc={0E18BB01-AF94-4153-B162-089E5A864CFA}</author>
+    <author>tc={EF6B9843-29BF-425B-8AA1-3838D44CD1E8}</author>
     <author>tc={6960F1DD-77D1-428A-A8B3-89FB476E159C}</author>
-    <author>tc={5EA9A911-B7C0-43FC-8E08-DB949E9A9C16}</author>
+    <author>tc={7BEF110B-922A-475A-8DCA-0F2B70D02FE7}</author>
     <author>tc={31601398-D165-4FA5-9FC2-A34AB4C1661B}</author>
-    <author>tc={CA56F88A-CD7F-4FBF-BC3E-46626B5DC044}</author>
+    <author>tc={105F40F8-FE0C-4C0F-BB82-7DDF2DD7D080}</author>
     <author>tc={9AAB5ADB-8C82-42C8-A0D6-D0EFBB078DAF}</author>
-    <author>tc={FE2E72F8-A623-4CA4-A227-8D5ABF5ABB38}</author>
+    <author>tc={282DFC17-F47B-4747-A31E-5ABD9CEBAF13}</author>
     <author>tc={9B779296-7490-436C-B5B7-7CB9AA8F553A}</author>
-    <author>tc={7D8EF433-73B4-4C86-9E69-07EB7832D784}</author>
+    <author>tc={F12AE8C3-9D1D-4B8D-BFC6-E1FB429019C8}</author>
     <author>tc={00D581CC-3090-48BD-8068-892E53ED4BD4}</author>
-    <author>tc={59FE5842-5B14-407D-9162-8156EFBD6291}</author>
+    <author>tc={DCA515EC-C323-4DBD-BB17-599C1B546E7D}</author>
     <author>tc={A6246BD8-A8CB-4025-BA3C-346D14A2F4F9}</author>
-    <author>tc={D4E5B00F-2953-41EB-A4BC-25CCB8BD6C65}</author>
+    <author>tc={B837A0A6-8B20-4FC9-9F51-85C4027EBBA6}</author>
     <author>tc={C81E1444-F104-4972-A896-EC9B47A939A8}</author>
-    <author>tc={34420C8D-B720-4439-A381-E4C9E6725CE8}</author>
+    <author>tc={F072FA5E-18A0-4757-9500-2C59BAB3276E}</author>
     <author>tc={0200A85F-42FC-4437-BD94-2F95BAD48EC9}</author>
-    <author>tc={66388576-B0E5-4438-9F3E-2AAB4E8ADD69}</author>
+    <author>tc={DF81B630-B635-4368-B050-BA9AE874747F}</author>
     <author>tc={973AB60E-FA1C-4594-820E-5DB5A7039EF8}</author>
-    <author>tc={01679BEA-6082-459D-9811-51A59007C2A6}</author>
+    <author>tc={B6D16FF7-4D1E-4A68-A3A7-E79510694FA9}</author>
     <author>tc={61ED5EB0-0222-4591-86D7-E2ABBA3A8F74}</author>
-    <author>tc={F0253267-F5C1-46F4-9F0D-F34DD95468B2}</author>
+    <author>tc={3856534A-3622-4989-B62B-E5FB60F99032}</author>
     <author>tc={BE5C36F3-2864-45CC-8C7E-FF5276CA5C94}</author>
-    <author>tc={52A3D7DA-6230-48D2-8BFF-2B14CB6FA578}</author>
+    <author>tc={CE509BCD-BA57-47F5-925F-03E1C6C221A9}</author>
     <author>tc={FABD7C6B-535A-498C-B94A-3DC248646424}</author>
     <author>tc={B0F27DC7-96D6-4FAF-9875-0B517384B8CF}</author>
     <author>tc={474C5F7B-9D14-4BFC-82F4-F00C6BA7C312}</author>
     <author>tc={89600623-F35F-4F88-A55E-574BB22287AA}</author>
     <author>tc={DC4FBA1F-9F74-4E44-B513-C45F4074F1C1}</author>
-    <author>tc={7F93E847-E249-41C9-8A44-E6D98F889106}</author>
+    <author>tc={04C0AADE-FA80-495C-8A93-0EC78AAE37B6}</author>
     <author>tc={8F041FB6-DA34-4CB3-BD2D-8CF1E4B92FBC}</author>
     <author>tc={DEA68CA9-5886-4684-91AC-79B7E6A32276}</author>
     <author>tc={6C48A878-1149-4F90-9754-288F066F33A9}</author>
     <author>tc={7BDD1E61-3F3D-4542-BFC7-23650BB1D7D2}</author>
-    <author>tc={8BF49985-3EE1-4EB5-95C5-D8651BEF6C58}</author>
     <author>tc={77B5CC59-381B-404F-AAA6-5CFC6A44839E}</author>
     <author>tc={936899EF-5DA8-423D-96C7-656AFA53DCD0}</author>
     <author>tc={C8ECD62F-8A3D-49F9-B262-AB2F0547E3D4}</author>
-    <author>tc={687393A0-0518-4876-918E-A24DD2FD5AD1}</author>
     <author>tc={2930C22B-8C4B-4CBA-9F66-12B7A5B79C3F}</author>
-    <author>tc={44B7821C-43DD-4431-A5EA-36316C3F41EA}</author>
     <author>tc={0B6D79C7-1878-4261-B5CC-29DDF709C42A}</author>
+    <author>tc={BEE5056B-E6F5-4E64-B48B-68FBB7E81CB4}</author>
+    <author>tc={086445C0-100F-444F-A8D6-64874967DB02}</author>
+    <author>tc={AA555971-3267-4B86-B128-C33CE812ABB5}</author>
   </authors>
   <commentList>
     <comment ref="F2" authorId="0" shapeId="0" xr:uid="{276D6E98-6486-4909-AE1B-7B3C9CE2DD39}">
@@ -117,7 +117,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="D6" authorId="4" shapeId="0" xr:uid="{0E18BB01-AF94-4153-B162-089E5A864CFA}">
+    <comment ref="D6" authorId="4" shapeId="0" xr:uid="{EF6B9843-29BF-425B-8AA1-3838D44CD1E8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -133,7 +133,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D7" authorId="6" shapeId="0" xr:uid="{5EA9A911-B7C0-43FC-8E08-DB949E9A9C16}">
+    <comment ref="D7" authorId="6" shapeId="0" xr:uid="{7BEF110B-922A-475A-8DCA-0F2B70D02FE7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -149,7 +149,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="8" shapeId="0" xr:uid="{CA56F88A-CD7F-4FBF-BC3E-46626B5DC044}">
+    <comment ref="D8" authorId="8" shapeId="0" xr:uid="{105F40F8-FE0C-4C0F-BB82-7DDF2DD7D080}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -165,7 +165,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D9" authorId="10" shapeId="0" xr:uid="{FE2E72F8-A623-4CA4-A227-8D5ABF5ABB38}">
+    <comment ref="D9" authorId="10" shapeId="0" xr:uid="{282DFC17-F47B-4747-A31E-5ABD9CEBAF13}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -181,7 +181,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D10" authorId="12" shapeId="0" xr:uid="{7D8EF433-73B4-4C86-9E69-07EB7832D784}">
+    <comment ref="D10" authorId="12" shapeId="0" xr:uid="{F12AE8C3-9D1D-4B8D-BFC6-E1FB429019C8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -197,7 +197,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D11" authorId="14" shapeId="0" xr:uid="{59FE5842-5B14-407D-9162-8156EFBD6291}">
+    <comment ref="D11" authorId="14" shapeId="0" xr:uid="{DCA515EC-C323-4DBD-BB17-599C1B546E7D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -213,7 +213,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D12" authorId="16" shapeId="0" xr:uid="{D4E5B00F-2953-41EB-A4BC-25CCB8BD6C65}">
+    <comment ref="D12" authorId="16" shapeId="0" xr:uid="{B837A0A6-8B20-4FC9-9F51-85C4027EBBA6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -229,7 +229,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D13" authorId="18" shapeId="0" xr:uid="{34420C8D-B720-4439-A381-E4C9E6725CE8}">
+    <comment ref="D13" authorId="18" shapeId="0" xr:uid="{F072FA5E-18A0-4757-9500-2C59BAB3276E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -245,7 +245,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D14" authorId="20" shapeId="0" xr:uid="{66388576-B0E5-4438-9F3E-2AAB4E8ADD69}">
+    <comment ref="D14" authorId="20" shapeId="0" xr:uid="{DF81B630-B635-4368-B050-BA9AE874747F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -261,7 +261,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D15" authorId="22" shapeId="0" xr:uid="{01679BEA-6082-459D-9811-51A59007C2A6}">
+    <comment ref="D15" authorId="22" shapeId="0" xr:uid="{B6D16FF7-4D1E-4A68-A3A7-E79510694FA9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -277,7 +277,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D16" authorId="24" shapeId="0" xr:uid="{F0253267-F5C1-46F4-9F0D-F34DD95468B2}">
+    <comment ref="D16" authorId="24" shapeId="0" xr:uid="{3856534A-3622-4989-B62B-E5FB60F99032}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -293,7 +293,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D17" authorId="26" shapeId="0" xr:uid="{52A3D7DA-6230-48D2-8BFF-2B14CB6FA578}">
+    <comment ref="D17" authorId="26" shapeId="0" xr:uid="{CE509BCD-BA57-47F5-925F-03E1C6C221A9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -341,7 +341,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="E22" authorId="32" shapeId="0" xr:uid="{7F93E847-E249-41C9-8A44-E6D98F889106}">
+    <comment ref="E24" authorId="32" shapeId="0" xr:uid="{04C0AADE-FA80-495C-8A93-0EC78AAE37B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -373,7 +373,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F56" authorId="36" shapeId="0" xr:uid="{7BDD1E61-3F3D-4542-BFC7-23650BB1D7D2}">
+    <comment ref="F48" authorId="36" shapeId="0" xr:uid="{7BDD1E61-3F3D-4542-BFC7-23650BB1D7D2}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -381,7 +381,47 @@
     Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
       </text>
     </comment>
-    <comment ref="D57" authorId="37" shapeId="0" xr:uid="{8BF49985-3EE1-4EB5-95C5-D8651BEF6C58}">
+    <comment ref="F49" authorId="37" shapeId="0" xr:uid="{77B5CC59-381B-404F-AAA6-5CFC6A44839E}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="F50" authorId="38" shapeId="0" xr:uid="{936899EF-5DA8-423D-96C7-656AFA53DCD0}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="F51" authorId="39" shapeId="0" xr:uid="{C8ECD62F-8A3D-49F9-B262-AB2F0547E3D4}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="F52" authorId="40" shapeId="0" xr:uid="{2930C22B-8C4B-4CBA-9F66-12B7A5B79C3F}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="F53" authorId="41" shapeId="0" xr:uid="{0B6D79C7-1878-4261-B5CC-29DDF709C42A}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="D59" authorId="42" shapeId="0" xr:uid="{BEE5056B-E6F5-4E64-B48B-68FBB7E81CB4}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -390,31 +430,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="F57" authorId="38" shapeId="0" xr:uid="{77B5CC59-381B-404F-AAA6-5CFC6A44839E}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
-      </text>
-    </comment>
-    <comment ref="F58" authorId="39" shapeId="0" xr:uid="{936899EF-5DA8-423D-96C7-656AFA53DCD0}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
-      </text>
-    </comment>
-    <comment ref="F59" authorId="40" shapeId="0" xr:uid="{C8ECD62F-8A3D-49F9-B262-AB2F0547E3D4}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
-      </text>
-    </comment>
-    <comment ref="D60" authorId="41" shapeId="0" xr:uid="{687393A0-0518-4876-918E-A24DD2FD5AD1}">
+    <comment ref="D62" authorId="43" shapeId="0" xr:uid="{086445C0-100F-444F-A8D6-64874967DB02}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -422,28 +438,12 @@
     4.33</t>
       </text>
     </comment>
-    <comment ref="F60" authorId="42" shapeId="0" xr:uid="{2930C22B-8C4B-4CBA-9F66-12B7A5B79C3F}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
-      </text>
-    </comment>
-    <comment ref="D61" authorId="43" shapeId="0" xr:uid="{44B7821C-43DD-4431-A5EA-36316C3F41EA}">
+    <comment ref="D63" authorId="44" shapeId="0" xr:uid="{AA555971-3267-4B86-B128-C33CE812ABB5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     2.47</t>
-      </text>
-    </comment>
-    <comment ref="F61" authorId="44" shapeId="0" xr:uid="{0B6D79C7-1878-4261-B5CC-29DDF709C42A}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
       </text>
     </comment>
   </commentList>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="9">
   <si>
     <t>temperate</t>
   </si>
@@ -478,21 +478,6 @@
   </si>
   <si>
     <t>stream_order</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>five</t>
   </si>
 </sst>
 </file>
@@ -942,73 +927,73 @@
   <threadedComment ref="F5" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{5D48A8E6-8544-4E52-A9E7-9342E77DF333}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="D6" dT="2024-10-26T01:21:56.57" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0E18BB01-AF94-4153-B162-089E5A864CFA}">
+  <threadedComment ref="D6" dT="2024-10-26T01:21:56.57" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{EF6B9843-29BF-425B-8AA1-3838D44CD1E8}">
     <text>Estimate for us</text>
   </threadedComment>
   <threadedComment ref="F6" dT="2024-10-26T01:32:32.14" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{6960F1DD-77D1-428A-A8B3-89FB476E159C}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D7" dT="2024-10-26T01:32:54.46" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{5EA9A911-B7C0-43FC-8E08-DB949E9A9C16}">
+  <threadedComment ref="D7" dT="2024-10-26T01:32:54.46" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7BEF110B-922A-475A-8DCA-0F2B70D02FE7}">
     <text>Estimate for us</text>
   </threadedComment>
   <threadedComment ref="F7" dT="2024-10-26T01:32:26.13" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{31601398-D165-4FA5-9FC2-A34AB4C1661B}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D8" dT="2024-10-26T01:32:58.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{CA56F88A-CD7F-4FBF-BC3E-46626B5DC044}">
+  <threadedComment ref="D8" dT="2024-10-26T01:32:58.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{105F40F8-FE0C-4C0F-BB82-7DDF2DD7D080}">
     <text>Estimate for us</text>
   </threadedComment>
   <threadedComment ref="F8" dT="2024-10-26T01:32:19.94" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9AAB5ADB-8C82-42C8-A0D6-D0EFBB078DAF}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D9" dT="2024-10-26T01:33:02.52" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{FE2E72F8-A623-4CA4-A227-8D5ABF5ABB38}">
+  <threadedComment ref="D9" dT="2024-10-26T01:33:02.52" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{282DFC17-F47B-4747-A31E-5ABD9CEBAF13}">
     <text>Estimate for us</text>
   </threadedComment>
   <threadedComment ref="F9" dT="2024-10-26T01:32:15.98" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9B779296-7490-436C-B5B7-7CB9AA8F553A}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D10" dT="2024-10-26T01:33:06.03" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7D8EF433-73B4-4C86-9E69-07EB7832D784}">
+  <threadedComment ref="D10" dT="2024-10-26T01:33:06.03" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F12AE8C3-9D1D-4B8D-BFC6-E1FB429019C8}">
     <text>Estimate for us</text>
   </threadedComment>
   <threadedComment ref="F10" dT="2024-10-26T01:32:11.84" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{00D581CC-3090-48BD-8068-892E53ED4BD4}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D11" dT="2024-10-26T01:33:13.81" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{59FE5842-5B14-407D-9162-8156EFBD6291}">
+  <threadedComment ref="D11" dT="2024-10-26T01:33:13.81" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{DCA515EC-C323-4DBD-BB17-599C1B546E7D}">
     <text>Estimate for us</text>
   </threadedComment>
   <threadedComment ref="F11" dT="2024-10-26T01:32:07.96" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A6246BD8-A8CB-4025-BA3C-346D14A2F4F9}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D12" dT="2024-10-26T01:33:17.37" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{D4E5B00F-2953-41EB-A4BC-25CCB8BD6C65}">
+  <threadedComment ref="D12" dT="2024-10-26T01:33:17.37" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{B837A0A6-8B20-4FC9-9F51-85C4027EBBA6}">
     <text>Estimate for us</text>
   </threadedComment>
   <threadedComment ref="F12" dT="2024-10-26T01:32:04.27" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C81E1444-F104-4972-A896-EC9B47A939A8}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D13" dT="2024-10-26T01:33:24.43" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{34420C8D-B720-4439-A381-E4C9E6725CE8}">
+  <threadedComment ref="D13" dT="2024-10-26T01:33:24.43" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F072FA5E-18A0-4757-9500-2C59BAB3276E}">
     <text>Estimate for us</text>
   </threadedComment>
   <threadedComment ref="F13" dT="2024-10-26T01:31:57.39" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0200A85F-42FC-4437-BD94-2F95BAD48EC9}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D14" dT="2024-10-26T01:33:30.59" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{66388576-B0E5-4438-9F3E-2AAB4E8ADD69}">
+  <threadedComment ref="D14" dT="2024-10-26T01:33:30.59" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{DF81B630-B635-4368-B050-BA9AE874747F}">
     <text>Estimate for us</text>
   </threadedComment>
   <threadedComment ref="F14" dT="2024-10-26T01:31:54.37" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{973AB60E-FA1C-4594-820E-5DB5A7039EF8}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D15" dT="2024-10-26T01:33:38.23" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{01679BEA-6082-459D-9811-51A59007C2A6}">
+  <threadedComment ref="D15" dT="2024-10-26T01:33:38.23" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{B6D16FF7-4D1E-4A68-A3A7-E79510694FA9}">
     <text>Estimate for us</text>
   </threadedComment>
   <threadedComment ref="F15" dT="2024-10-26T01:31:50.74" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{61ED5EB0-0222-4591-86D7-E2ABBA3A8F74}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D16" dT="2024-10-26T01:33:42.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F0253267-F5C1-46F4-9F0D-F34DD95468B2}">
+  <threadedComment ref="D16" dT="2024-10-26T01:33:42.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{3856534A-3622-4989-B62B-E5FB60F99032}">
     <text>Estimate for us</text>
   </threadedComment>
   <threadedComment ref="F16" dT="2024-10-26T01:31:47.23" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{BE5C36F3-2864-45CC-8C7E-FF5276CA5C94}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D17" dT="2024-10-26T01:33:47.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{52A3D7DA-6230-48D2-8BFF-2B14CB6FA578}">
+  <threadedComment ref="D17" dT="2024-10-26T01:33:47.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{CE509BCD-BA57-47F5-925F-03E1C6C221A9}">
     <text>Estimate for us</text>
   </threadedComment>
   <threadedComment ref="F17" dT="2024-10-26T01:31:43.69" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{FABD7C6B-535A-498C-B94A-3DC248646424}">
@@ -1026,7 +1011,7 @@
   <threadedComment ref="F21" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{DC4FBA1F-9F74-4E44-B513-C45F4074F1C1}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="E22" dT="2024-10-25T00:53:16.21" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7F93E847-E249-41C9-8A44-E6D98F889106}">
+  <threadedComment ref="E24" dT="2024-10-25T00:53:16.21" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{04C0AADE-FA80-495C-8A93-0EC78AAE37B6}">
     <text>I changed this value, is this correct?</text>
   </threadedComment>
   <threadedComment ref="F26" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{8F041FB6-DA34-4CB3-BD2D-8CF1E4B92FBC}">
@@ -1038,43 +1023,43 @@
   <threadedComment ref="F28" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{6C48A878-1149-4F90-9754-288F066F33A9}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F56" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7BDD1E61-3F3D-4542-BFC7-23650BB1D7D2}">
+  <threadedComment ref="F48" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7BDD1E61-3F3D-4542-BFC7-23650BB1D7D2}">
     <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
   </threadedComment>
-  <threadedComment ref="D57" dT="2024-10-23T01:04:50.70" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{8BF49985-3EE1-4EB5-95C5-D8651BEF6C58}">
+  <threadedComment ref="F49" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{77B5CC59-381B-404F-AAA6-5CFC6A44839E}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="F50" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{936899EF-5DA8-423D-96C7-656AFA53DCD0}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="F51" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C8ECD62F-8A3D-49F9-B262-AB2F0547E3D4}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="F52" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{2930C22B-8C4B-4CBA-9F66-12B7A5B79C3F}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="F53" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0B6D79C7-1878-4261-B5CC-29DDF709C42A}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="D59" dT="2024-10-23T01:04:50.70" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{BEE5056B-E6F5-4E64-B48B-68FBB7E81CB4}">
     <text xml:space="preserve">Paper says 1.77 but that’s wrong?
 </text>
   </threadedComment>
-  <threadedComment ref="F57" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{77B5CC59-381B-404F-AAA6-5CFC6A44839E}">
-    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
-  </threadedComment>
-  <threadedComment ref="F58" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{936899EF-5DA8-423D-96C7-656AFA53DCD0}">
-    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
-  </threadedComment>
-  <threadedComment ref="F59" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C8ECD62F-8A3D-49F9-B262-AB2F0547E3D4}">
-    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
-  </threadedComment>
-  <threadedComment ref="D60" dT="2024-10-23T01:05:57.45" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{687393A0-0518-4876-918E-A24DD2FD5AD1}">
+  <threadedComment ref="D62" dT="2024-10-23T01:05:57.45" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{086445C0-100F-444F-A8D6-64874967DB02}">
     <text>4.33</text>
   </threadedComment>
-  <threadedComment ref="F60" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{2930C22B-8C4B-4CBA-9F66-12B7A5B79C3F}">
-    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
-  </threadedComment>
-  <threadedComment ref="D61" dT="2024-10-23T01:06:08.42" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{44B7821C-43DD-4431-A5EA-36316C3F41EA}">
+  <threadedComment ref="D63" dT="2024-10-23T01:06:08.42" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{AA555971-3267-4B86-B128-C33CE812ABB5}">
     <text>2.47</text>
-  </threadedComment>
-  <threadedComment ref="F61" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0B6D79C7-1878-4261-B5CC-29DDF709C42A}">
-    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB867A98-EA07-409A-8A8F-7AC4B2C4A731}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="A33" sqref="A33:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1118,9 +1103,7 @@
       <c r="E2" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1138,9 +1121,7 @@
       <c r="E3" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -1158,9 +1139,7 @@
       <c r="E4" s="9">
         <v>0.06</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1178,9 +1157,7 @@
       <c r="E5" s="6">
         <v>0.06</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -1193,15 +1170,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="5">
-        <f>C6/B6</f>
+        <f t="shared" ref="D6:D17" si="0">C6/B6</f>
         <v>1.3846153846153846</v>
       </c>
       <c r="E6" s="10">
         <v>0.23100000000000001</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -1214,15 +1189,13 @@
         <v>27</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:D17" si="0">C7/B7</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="E7" s="10">
         <v>0.25700000000000001</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -1241,9 +1214,7 @@
       <c r="E8" s="10">
         <v>0.30499999999999999</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -1262,9 +1233,7 @@
       <c r="E9" s="10">
         <v>0.308</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1283,9 +1252,7 @@
       <c r="E10" s="10">
         <v>0.316</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -1304,9 +1271,7 @@
       <c r="E11" s="10">
         <v>0.31900000000000001</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -1325,9 +1290,7 @@
       <c r="E12" s="10">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -1346,9 +1309,7 @@
       <c r="E13" s="10">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -1367,9 +1328,7 @@
       <c r="E14" s="10">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -1388,9 +1347,7 @@
       <c r="E15" s="10">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -1409,9 +1366,7 @@
       <c r="E16" s="10">
         <v>0.372</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1430,9 +1385,7 @@
       <c r="E17" s="10">
         <v>0.38500000000000001</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -1450,9 +1403,7 @@
       <c r="E18" s="6">
         <v>0.06</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
@@ -1470,9 +1421,7 @@
       <c r="E19" s="9">
         <v>0.06</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -1490,9 +1439,7 @@
       <c r="E20" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -1510,864 +1457,776 @@
       <c r="E21" s="6">
         <v>0.08</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="4">
-        <v>27.75</v>
+        <v>106</v>
       </c>
       <c r="C22" s="4">
-        <v>95.5</v>
-      </c>
-      <c r="D22" s="12">
-        <f>C22/B22</f>
-        <v>3.4414414414414414</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0.26</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2.46</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="4">
-        <v>32.5</v>
+      <c r="B23" s="3">
+        <v>107</v>
       </c>
       <c r="C23" s="4">
-        <v>114.4</v>
-      </c>
-      <c r="D23" s="12">
-        <f>C23/B23</f>
-        <v>3.52</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2.44</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="4">
-        <v>38.75</v>
+        <v>27.75</v>
       </c>
       <c r="C24" s="4">
-        <v>142.25</v>
+        <v>95.5</v>
       </c>
       <c r="D24" s="12">
         <f>C24/B24</f>
-        <v>3.6709677419354838</v>
+        <v>3.4414414414414414</v>
       </c>
       <c r="E24" s="13">
-        <v>0.19</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>0.26</v>
+      </c>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="4">
-        <v>40.5</v>
+        <v>32.5</v>
       </c>
       <c r="C25" s="4">
-        <v>149</v>
+        <v>114.4</v>
       </c>
       <c r="D25" s="12">
         <f>C25/B25</f>
-        <v>3.6790123456790123</v>
+        <v>3.52</v>
       </c>
       <c r="E25" s="13">
-        <v>0.19</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>0.22</v>
+      </c>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" s="4">
-        <v>13</v>
+        <v>38.75</v>
       </c>
       <c r="C26" s="4">
-        <v>16</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1.23</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>142.25</v>
+      </c>
+      <c r="D26" s="12">
+        <f>C26/B26</f>
+        <v>3.6709677419354838</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="4">
-        <v>19</v>
+        <v>40.5</v>
       </c>
       <c r="C27" s="4">
-        <v>51</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2.68</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D27" s="12">
+        <f>C27/B27</f>
+        <v>3.6790123456790123</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="4">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4">
+        <v>16</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4">
         <v>19</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C29" s="4">
+        <v>51</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>19</v>
+      </c>
+      <c r="C30" s="4">
         <v>67</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D30" s="5">
         <v>3.53</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E30" s="6">
         <v>0.19</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="11">
-        <v>28</v>
-      </c>
-      <c r="C29" s="11">
-        <v>156</v>
-      </c>
-      <c r="D29" s="12">
-        <v>5.57</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="11">
-        <v>117</v>
-      </c>
-      <c r="C30" s="11">
-        <v>345</v>
-      </c>
-      <c r="D30" s="12">
-        <v>3</v>
-      </c>
-      <c r="E30" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C31" s="11">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="D31" s="12">
-        <v>1.2</v>
+        <v>5.57</v>
       </c>
       <c r="E31" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="11">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="C32" s="11">
-        <v>13</v>
+        <v>345</v>
       </c>
       <c r="D32" s="12">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="E32" s="13">
-        <v>0.43</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="11">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C33" s="11">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D33" s="12">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="E33" s="13">
-        <v>0.24</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="11">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C34" s="11">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="D34" s="12">
-        <v>2.48</v>
+        <v>1.3</v>
       </c>
       <c r="E34" s="13">
-        <v>0.06</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.43</v>
+      </c>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="11">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C35" s="11">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D35" s="12">
-        <v>2.0499999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="E35" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.24</v>
+      </c>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="11">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C36" s="11">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="D36" s="12">
-        <v>2.87</v>
+        <v>2.48</v>
       </c>
       <c r="E36" s="13">
-        <v>0.13</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="11">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C37" s="11">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D37" s="12">
-        <v>2.13</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E37" s="13">
-        <v>0.11</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.08</v>
+      </c>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="11">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C38" s="11">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D38" s="12">
-        <v>2.64</v>
+        <v>2.87</v>
       </c>
       <c r="E38" s="13">
-        <v>0.09</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.13</v>
+      </c>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="11">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C39" s="11">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="D39" s="12">
-        <v>3.4</v>
+        <v>2.13</v>
       </c>
       <c r="E39" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.11</v>
+      </c>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C40" s="11">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="D40" s="12">
-        <v>4.5999999999999996</v>
+        <v>2.64</v>
       </c>
       <c r="E40" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="11">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C41" s="11">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="D41" s="12">
-        <v>3.51</v>
+        <v>3.4</v>
       </c>
       <c r="E41" s="13">
-        <v>0.11</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.12</v>
+      </c>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="11">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C42" s="11">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="D42" s="12">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E42" s="13">
-        <v>0.11</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.16</v>
+      </c>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="11">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C43" s="11">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="D43" s="12">
-        <v>4.9800000000000004</v>
+        <v>3.51</v>
       </c>
       <c r="E43" s="13">
-        <v>0.24</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.11</v>
+      </c>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="11">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C44" s="11">
-        <v>148</v>
+        <v>271</v>
       </c>
       <c r="D44" s="12">
-        <v>2.96</v>
+        <v>4.3</v>
       </c>
       <c r="E44" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.11</v>
+      </c>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="11">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C45" s="11">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="D45" s="12">
-        <v>4.2300000000000004</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="E45" s="13">
         <v>0.24</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="11">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C46" s="11">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D46" s="12">
-        <v>2.13</v>
+        <v>2.96</v>
       </c>
       <c r="E46" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="11">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C47" s="11">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D47" s="12">
-        <v>3.38</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="E47" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.24</v>
+      </c>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="11">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C48" s="11">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="D48" s="12">
-        <v>3.1</v>
+        <v>2.13</v>
       </c>
       <c r="E48" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="11">
+        <v>45</v>
+      </c>
+      <c r="C49" s="11">
+        <v>152</v>
+      </c>
+      <c r="D49" s="12">
+        <v>3.38</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="11">
+        <v>59</v>
+      </c>
+      <c r="C50" s="11">
+        <v>183</v>
+      </c>
+      <c r="D50" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="E50" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="11">
         <v>52</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C51" s="11">
         <v>184</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D51" s="12">
         <v>3.54</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E51" s="13">
         <v>0.12</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="4">
-        <v>102</v>
-      </c>
-      <c r="C50" s="4">
-        <v>675</v>
-      </c>
-      <c r="D50" s="5">
-        <v>6.37</v>
-      </c>
-      <c r="E50" s="6">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="4">
-        <v>129</v>
-      </c>
-      <c r="C51" s="4">
-        <v>879</v>
-      </c>
-      <c r="D51" s="5">
-        <v>7.53</v>
-      </c>
-      <c r="E51" s="6">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C52" s="4">
-        <v>596</v>
+        <v>675</v>
       </c>
       <c r="D52" s="5">
-        <v>5.83</v>
+        <v>6.37</v>
       </c>
       <c r="E52" s="6">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="4">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" s="4">
-        <v>918</v>
+        <v>879</v>
       </c>
       <c r="D53" s="5">
-        <v>7.01</v>
+        <v>7.53</v>
       </c>
       <c r="E53" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="4">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C54" s="4">
-        <v>544</v>
+        <v>596</v>
       </c>
       <c r="D54" s="5">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="E54" s="6">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="4">
+        <v>131</v>
+      </c>
+      <c r="C55" s="4">
+        <v>918</v>
+      </c>
+      <c r="D55" s="5">
+        <v>7.01</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="4">
+        <v>93</v>
+      </c>
+      <c r="C56" s="4">
+        <v>544</v>
+      </c>
+      <c r="D56" s="5">
+        <v>5.85</v>
+      </c>
+      <c r="E56" s="6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="11">
         <v>126</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C57" s="11">
         <v>854</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D57" s="12">
         <v>6.78</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E57" s="13">
         <v>6.3E-2</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="11">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="11">
         <v>31</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C58" s="11">
         <v>77</v>
       </c>
-      <c r="D56" s="12">
-        <f>C56/B56</f>
+      <c r="D58" s="12">
+        <f t="shared" ref="D58:D63" si="1">C58/B58</f>
         <v>2.4838709677419355</v>
       </c>
-      <c r="E56" s="13">
-        <f>C56/(B56*B56)</f>
+      <c r="E58" s="13">
+        <f t="shared" ref="E58:E63" si="2">C58/(B58*B58)</f>
         <v>8.0124869927159212E-2</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="11">
-        <v>17</v>
-      </c>
-      <c r="C57" s="11">
-        <v>39</v>
-      </c>
-      <c r="D57" s="12">
-        <f>C57/B57</f>
-        <v>2.2941176470588234</v>
-      </c>
-      <c r="E57" s="13">
-        <f>C57/(B57*B57)</f>
-        <v>0.13494809688581316</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="7">
-        <v>32</v>
-      </c>
-      <c r="C58" s="7">
-        <v>87</v>
-      </c>
-      <c r="D58" s="8">
-        <f>C58/B58</f>
-        <v>2.71875</v>
-      </c>
-      <c r="E58" s="9">
-        <f>C58/(B58*B58)</f>
-        <v>8.49609375E-2</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B59" s="11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C59" s="11">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D59" s="12">
-        <f>C59/B59</f>
-        <v>3.125</v>
+        <f t="shared" si="1"/>
+        <v>2.2941176470588234</v>
       </c>
       <c r="E59" s="13">
-        <f>C59/(B59*B59)</f>
-        <v>0.13020833333333334</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>11</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0.13494809688581316</v>
+      </c>
+      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="11">
-        <v>33</v>
-      </c>
-      <c r="C60" s="11">
-        <v>123</v>
-      </c>
-      <c r="D60" s="12">
-        <f>C60/B60</f>
-        <v>3.7272727272727271</v>
-      </c>
-      <c r="E60" s="13">
-        <f>C60/(B60*B60)</f>
-        <v>0.11294765840220386</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="7">
+        <v>32</v>
+      </c>
+      <c r="C60" s="7">
+        <v>87</v>
+      </c>
+      <c r="D60" s="8">
+        <f t="shared" si="1"/>
+        <v>2.71875</v>
+      </c>
+      <c r="E60" s="9">
+        <f t="shared" si="2"/>
+        <v>8.49609375E-2</v>
+      </c>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B61" s="11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C61" s="11">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D61" s="12">
-        <f>C61/B61</f>
-        <v>1.9090909090909092</v>
+        <f t="shared" si="1"/>
+        <v>3.125</v>
       </c>
       <c r="E61" s="13">
-        <f>C61/(B61*B61)</f>
-        <v>8.6776859504132234E-2</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>11</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0.13020833333333334</v>
+      </c>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="10">
-        <v>39</v>
-      </c>
-      <c r="C62" s="10">
-        <v>146</v>
-      </c>
-      <c r="D62" s="10">
-        <v>3.74</v>
-      </c>
-      <c r="E62" s="10">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="B62" s="11">
+        <v>33</v>
+      </c>
+      <c r="C62" s="11">
+        <v>123</v>
+      </c>
+      <c r="D62" s="12">
+        <f t="shared" si="1"/>
+        <v>3.7272727272727271</v>
+      </c>
+      <c r="E62" s="13">
+        <f t="shared" si="2"/>
+        <v>0.11294765840220386</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="10">
-        <v>35</v>
-      </c>
-      <c r="C63" s="10">
-        <v>110</v>
-      </c>
-      <c r="D63" s="10">
-        <v>3.14</v>
-      </c>
-      <c r="E63" s="10">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="B63" s="11">
+        <v>22</v>
+      </c>
+      <c r="C63" s="11">
+        <v>42</v>
+      </c>
+      <c r="D63" s="12">
+        <f t="shared" si="1"/>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="E63" s="13">
+        <f t="shared" si="2"/>
+        <v>8.6776859504132234E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -2375,120 +2234,136 @@
         <v>2</v>
       </c>
       <c r="B64" s="10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C64" s="10">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="D64" s="10">
-        <v>3.34</v>
+        <v>3.74</v>
       </c>
       <c r="E64" s="10">
-        <v>0.108</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B65" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C65" s="10">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D65" s="10">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="E65" s="10">
-        <v>0.109</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="10">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C66" s="10">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D66" s="10">
-        <v>3.24</v>
+        <v>3.34</v>
       </c>
       <c r="E66" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" s="10">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D67" s="10">
-        <v>3.16</v>
+        <v>3.29</v>
       </c>
       <c r="E67" s="10">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="10">
+        <v>37</v>
+      </c>
+      <c r="C68" s="10">
+        <v>120</v>
+      </c>
+      <c r="D68" s="10">
+        <v>3.24</v>
+      </c>
+      <c r="E68" s="10">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="10">
+        <v>32</v>
+      </c>
+      <c r="C69" s="10">
+        <v>101</v>
+      </c>
+      <c r="D69" s="10">
+        <v>3.16</v>
+      </c>
+      <c r="E69" s="10">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="10">
         <v>33</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C70" s="10">
         <v>104</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D70" s="10">
         <v>3.15</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E70" s="10">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="4">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4">
         <v>36</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C71" s="4">
         <v>152</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D71" s="5">
         <v>4.22</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E71" s="13">
         <f>152/(36*(36))</f>
         <v>0.11728395061728394</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/2024 Reilly Connelly/data.xlsx
+++ b/2024 Reilly Connelly/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2024 Reilly Connelly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1404FAEA-A652-4A96-A825-D6F4470CE565}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ED85A7A-F242-49D2-8278-719BE40B3141}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
   </bookViews>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="9">
   <si>
     <t>temperate</t>
   </si>
@@ -487,7 +487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,12 +510,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1056,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB867A98-EA07-409A-8A8F-7AC4B2C4A731}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A91" sqref="A71:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2366,6 +2360,346 @@
         <v>0.11728395061728394</v>
       </c>
     </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="13">
+        <v>39</v>
+      </c>
+      <c r="C72" s="10">
+        <v>70</v>
+      </c>
+      <c r="D72" s="10">
+        <v>6.96</v>
+      </c>
+      <c r="E72" s="10">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="13">
+        <v>39</v>
+      </c>
+      <c r="C73" s="10">
+        <v>62</v>
+      </c>
+      <c r="D73" s="10">
+        <v>5.07</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="9">
+        <v>43</v>
+      </c>
+      <c r="C74" s="10">
+        <v>86</v>
+      </c>
+      <c r="D74" s="10">
+        <v>6.92</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="13">
+        <v>23</v>
+      </c>
+      <c r="C75" s="10">
+        <v>34</v>
+      </c>
+      <c r="D75" s="10">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="13">
+        <v>44</v>
+      </c>
+      <c r="C76" s="10">
+        <v>68</v>
+      </c>
+      <c r="D76" s="10">
+        <v>7.29</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="13">
+        <v>19</v>
+      </c>
+      <c r="C77" s="10">
+        <v>32</v>
+      </c>
+      <c r="D77" s="10">
+        <v>4.96</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="10">
+        <v>18</v>
+      </c>
+      <c r="C78" s="10">
+        <v>28</v>
+      </c>
+      <c r="D78" s="10">
+        <v>3.19</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="10">
+        <v>15</v>
+      </c>
+      <c r="C79" s="10">
+        <v>21</v>
+      </c>
+      <c r="D79" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="E79" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="10">
+        <v>32</v>
+      </c>
+      <c r="C80" s="10">
+        <v>45</v>
+      </c>
+      <c r="D80" s="10">
+        <v>5.08</v>
+      </c>
+      <c r="E80" s="10">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="10">
+        <v>14</v>
+      </c>
+      <c r="C81" s="10">
+        <v>20</v>
+      </c>
+      <c r="D81" s="10">
+        <v>2.66</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="10">
+        <v>57</v>
+      </c>
+      <c r="C82" s="10">
+        <v>114</v>
+      </c>
+      <c r="D82" s="10">
+        <v>5.77</v>
+      </c>
+      <c r="E82" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="10">
+        <v>41</v>
+      </c>
+      <c r="C83" s="10">
+        <v>81</v>
+      </c>
+      <c r="D83" s="10">
+        <v>3.64</v>
+      </c>
+      <c r="E83" s="10">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="10">
+        <v>48</v>
+      </c>
+      <c r="C84" s="10">
+        <v>76</v>
+      </c>
+      <c r="D84" s="10">
+        <v>4.25</v>
+      </c>
+      <c r="E84" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="10">
+        <v>39</v>
+      </c>
+      <c r="C85" s="10">
+        <v>66</v>
+      </c>
+      <c r="D85" s="10">
+        <v>3</v>
+      </c>
+      <c r="E85" s="10">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="10">
+        <v>30</v>
+      </c>
+      <c r="C86" s="10">
+        <v>41</v>
+      </c>
+      <c r="D86" s="10">
+        <v>2.99</v>
+      </c>
+      <c r="E86" s="10">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="10">
+        <v>35</v>
+      </c>
+      <c r="C87" s="10">
+        <v>58</v>
+      </c>
+      <c r="D87" s="10">
+        <v>3.53</v>
+      </c>
+      <c r="E87" s="10">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="10">
+        <v>29</v>
+      </c>
+      <c r="C88" s="10">
+        <v>37</v>
+      </c>
+      <c r="D88" s="10">
+        <v>3.34</v>
+      </c>
+      <c r="E88" s="10">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="10">
+        <v>21</v>
+      </c>
+      <c r="C89" s="10">
+        <v>21</v>
+      </c>
+      <c r="D89" s="10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E89" s="10">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <v>1.08</v>
+      </c>
+      <c r="E90">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>28</v>
+      </c>
+      <c r="C91">
+        <v>34</v>
+      </c>
+      <c r="D91">
+        <v>2.64</v>
+      </c>
+      <c r="E91">
+        <v>0.18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/2024 Reilly Connelly/data.xlsx
+++ b/2024 Reilly Connelly/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2024 Reilly Connelly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ED85A7A-F242-49D2-8278-719BE40B3141}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{218E9BAB-93AB-4E2E-A82A-B422CC237B98}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,54 +38,66 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={276D6E98-6486-4909-AE1B-7B3C9CE2DD39}</author>
-    <author>tc={C6A59451-6538-4716-A3CA-153F88AE4517}</author>
-    <author>tc={B8C62B53-AAA6-443D-A7C5-F1C5A3B8D23D}</author>
-    <author>tc={5D48A8E6-8544-4E52-A9E7-9342E77DF333}</author>
-    <author>tc={EF6B9843-29BF-425B-8AA1-3838D44CD1E8}</author>
-    <author>tc={6960F1DD-77D1-428A-A8B3-89FB476E159C}</author>
-    <author>tc={7BEF110B-922A-475A-8DCA-0F2B70D02FE7}</author>
-    <author>tc={31601398-D165-4FA5-9FC2-A34AB4C1661B}</author>
-    <author>tc={105F40F8-FE0C-4C0F-BB82-7DDF2DD7D080}</author>
-    <author>tc={9AAB5ADB-8C82-42C8-A0D6-D0EFBB078DAF}</author>
-    <author>tc={282DFC17-F47B-4747-A31E-5ABD9CEBAF13}</author>
-    <author>tc={9B779296-7490-436C-B5B7-7CB9AA8F553A}</author>
-    <author>tc={F12AE8C3-9D1D-4B8D-BFC6-E1FB429019C8}</author>
-    <author>tc={00D581CC-3090-48BD-8068-892E53ED4BD4}</author>
-    <author>tc={DCA515EC-C323-4DBD-BB17-599C1B546E7D}</author>
-    <author>tc={A6246BD8-A8CB-4025-BA3C-346D14A2F4F9}</author>
-    <author>tc={B837A0A6-8B20-4FC9-9F51-85C4027EBBA6}</author>
-    <author>tc={C81E1444-F104-4972-A896-EC9B47A939A8}</author>
-    <author>tc={F072FA5E-18A0-4757-9500-2C59BAB3276E}</author>
-    <author>tc={0200A85F-42FC-4437-BD94-2F95BAD48EC9}</author>
-    <author>tc={DF81B630-B635-4368-B050-BA9AE874747F}</author>
-    <author>tc={973AB60E-FA1C-4594-820E-5DB5A7039EF8}</author>
-    <author>tc={B6D16FF7-4D1E-4A68-A3A7-E79510694FA9}</author>
-    <author>tc={61ED5EB0-0222-4591-86D7-E2ABBA3A8F74}</author>
-    <author>tc={3856534A-3622-4989-B62B-E5FB60F99032}</author>
-    <author>tc={BE5C36F3-2864-45CC-8C7E-FF5276CA5C94}</author>
-    <author>tc={CE509BCD-BA57-47F5-925F-03E1C6C221A9}</author>
-    <author>tc={FABD7C6B-535A-498C-B94A-3DC248646424}</author>
-    <author>tc={B0F27DC7-96D6-4FAF-9875-0B517384B8CF}</author>
-    <author>tc={474C5F7B-9D14-4BFC-82F4-F00C6BA7C312}</author>
-    <author>tc={89600623-F35F-4F88-A55E-574BB22287AA}</author>
-    <author>tc={DC4FBA1F-9F74-4E44-B513-C45F4074F1C1}</author>
-    <author>tc={04C0AADE-FA80-495C-8A93-0EC78AAE37B6}</author>
-    <author>tc={8F041FB6-DA34-4CB3-BD2D-8CF1E4B92FBC}</author>
-    <author>tc={DEA68CA9-5886-4684-91AC-79B7E6A32276}</author>
-    <author>tc={6C48A878-1149-4F90-9754-288F066F33A9}</author>
-    <author>tc={7BDD1E61-3F3D-4542-BFC7-23650BB1D7D2}</author>
-    <author>tc={77B5CC59-381B-404F-AAA6-5CFC6A44839E}</author>
-    <author>tc={936899EF-5DA8-423D-96C7-656AFA53DCD0}</author>
-    <author>tc={C8ECD62F-8A3D-49F9-B262-AB2F0547E3D4}</author>
-    <author>tc={2930C22B-8C4B-4CBA-9F66-12B7A5B79C3F}</author>
-    <author>tc={0B6D79C7-1878-4261-B5CC-29DDF709C42A}</author>
-    <author>tc={BEE5056B-E6F5-4E64-B48B-68FBB7E81CB4}</author>
-    <author>tc={086445C0-100F-444F-A8D6-64874967DB02}</author>
-    <author>tc={AA555971-3267-4B86-B128-C33CE812ABB5}</author>
+    <author>tc={92DAEA5B-0EBD-41A3-BEC8-5AB1FBA6DA0E}</author>
+    <author>tc={F3C78054-49EF-4DB8-8768-AE1391D3C18B}</author>
+    <author>tc={EB24DA71-641F-4E76-995E-EE6D89EA49EC}</author>
+    <author>tc={9AD49B98-CECA-4CF4-B3FF-CE945581BA75}</author>
+    <author>tc={F39772C9-ECF5-49E4-88F0-29F68D413395}</author>
+    <author>tc={C045592E-3808-4D67-BCEB-AA6E2CED9FD9}</author>
+    <author>tc={C04255DD-75A0-4FF8-A67F-1D742083BB00}</author>
+    <author>tc={A5CA1B6E-CF0E-4EA1-AC8C-0379B6BB4759}</author>
+    <author>tc={20984B0E-CE74-4150-8C2B-370E7FF05BE3}</author>
+    <author>tc={A3644C29-F254-4D9E-A111-E0C6CE2CA79B}</author>
+    <author>tc={123CBD7B-47F4-4A45-A496-C696D9510120}</author>
+    <author>tc={EFCF2B60-6C60-47F8-9F7F-D2DA3095A8CC}</author>
+    <author>tc={F0007B02-DC7D-420D-AD14-6C7ACA430F87}</author>
+    <author>tc={556C22BC-E478-4FD5-A3C4-0AAB01B3C38B}</author>
+    <author>tc={06965905-4B0C-4469-82AA-CC677CAC5EB6}</author>
+    <author>tc={B4CF0615-C47C-4977-9BDA-DA83B3C88E48}</author>
+    <author>tc={B2D1EF54-D95D-42F8-A38E-868E653DA8C8}</author>
+    <author>tc={70A7E9E1-F8A1-4656-9CFA-D3587AFB09CC}</author>
+    <author>tc={64D53D20-367D-4F0F-A0BE-91016C86DFD7}</author>
+    <author>tc={8EFE1F11-D9FC-4B4F-9425-FD217FB190D5}</author>
+    <author>tc={BE4B9796-20D8-42D2-A62C-1EAC23BC61C0}</author>
+    <author>tc={72410D04-E6BE-441E-895C-C62ADF19C21C}</author>
+    <author>tc={A97ABAA6-7832-4FA5-9D6C-B7CC3A1971C7}</author>
+    <author>tc={F130696C-86CD-454E-9908-4F237BE92535}</author>
+    <author>tc={32AD9A2A-7D2C-4EBE-99D2-FA5A937B02BF}</author>
+    <author>tc={639C53A6-4294-49F8-B341-EAC74094828B}</author>
+    <author>tc={7F06DF1B-0C9F-4263-A2A2-51FBE2156A40}</author>
+    <author>tc={05944F06-A80A-4166-BE4F-AA27940E5299}</author>
+    <author>tc={9B28E689-EB92-4BC2-9C86-889E741442A9}</author>
+    <author>tc={14928B3C-972B-4058-9ED7-5FBF8CA1BA53}</author>
+    <author>tc={ACA391FC-E8DD-4F2C-9D07-478FDA8D7F47}</author>
+    <author>tc={FE3EBD21-B682-4A4F-ABD2-AE67D5B31488}</author>
+    <author>tc={9430D0EB-887D-4110-8CDF-5160167BD4D9}</author>
+    <author>tc={F7D970C8-C37B-41ED-B78A-1E242E7FDBBA}</author>
+    <author>tc={80F11FAA-7D4B-4600-A624-DA4656E38903}</author>
+    <author>tc={2AD4350E-3111-4ABB-BCA3-BD7C639BCC9A}</author>
+    <author>tc={0ED03A7D-DEAB-44A8-8C01-EBF9BA1E731D}</author>
+    <author>tc={DDBD552C-2CB2-4058-9F8B-4B57F235A830}</author>
+    <author>tc={0D41C366-4E9E-4875-9F98-86C0389ECD4E}</author>
+    <author>tc={740B4442-9367-4206-A0CD-CB6CB9233991}</author>
+    <author>tc={403C111D-56EB-4EE7-871A-4A6D8EDD5C83}</author>
+    <author>tc={AC784CDB-5632-4BA7-A121-162C2848FCD3}</author>
+    <author>tc={55199E00-A1B3-4C57-93F6-2FECB2738B84}</author>
+    <author>tc={410B3140-BFAF-4B89-84EC-253385748739}</author>
+    <author>tc={867088E3-727D-4FD9-8E80-57CCC22FC2DF}</author>
+    <author>tc={7A403A05-8100-4DB9-A81C-66FA5A78A105}</author>
+    <author>tc={CFD2791D-558A-4A50-9C44-3FF894748B78}</author>
+    <author>tc={DC58B549-0A69-458D-9060-12896DA22683}</author>
+    <author>tc={C2CCCA46-6631-4B17-AFE5-E571AEFA4374}</author>
+    <author>tc={53565BA9-B233-4300-A758-214194C79C11}</author>
+    <author>tc={0F0B8423-C5FA-41C0-95A3-B43D14A83243}</author>
+    <author>tc={ED4C010A-5796-4707-BDDA-1593A85DD6D9}</author>
+    <author>tc={97A2B1EF-43E8-458E-A792-AF5C6B209BB2}</author>
+    <author>tc={6307D356-03CC-4649-AB2A-C7074431FC67}</author>
+    <author>tc={A0F757F6-65B7-4D97-A947-7D74E7C8DA88}</author>
+    <author>tc={8541858C-9CEA-4A50-BA2D-695E59797986}</author>
+    <author>tc={FABA63DB-6B50-4703-8119-E97EA03479C1}</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{276D6E98-6486-4909-AE1B-7B3C9CE2DD39}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{92DAEA5B-0EBD-41A3-BEC8-5AB1FBA6DA0E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +105,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{C6A59451-6538-4716-A3CA-153F88AE4517}">
+    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{F3C78054-49EF-4DB8-8768-AE1391D3C18B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +113,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F4" authorId="2" shapeId="0" xr:uid="{B8C62B53-AAA6-443D-A7C5-F1C5A3B8D23D}">
+    <comment ref="F4" authorId="2" shapeId="0" xr:uid="{EB24DA71-641F-4E76-995E-EE6D89EA49EC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -109,7 +121,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F5" authorId="3" shapeId="0" xr:uid="{5D48A8E6-8544-4E52-A9E7-9342E77DF333}">
+    <comment ref="F5" authorId="3" shapeId="0" xr:uid="{9AD49B98-CECA-4CF4-B3FF-CE945581BA75}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -117,7 +129,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="D6" authorId="4" shapeId="0" xr:uid="{EF6B9843-29BF-425B-8AA1-3838D44CD1E8}">
+    <comment ref="D6" authorId="4" shapeId="0" xr:uid="{F39772C9-ECF5-49E4-88F0-29F68D413395}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -125,7 +137,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F6" authorId="5" shapeId="0" xr:uid="{6960F1DD-77D1-428A-A8B3-89FB476E159C}">
+    <comment ref="F6" authorId="5" shapeId="0" xr:uid="{C045592E-3808-4D67-BCEB-AA6E2CED9FD9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -133,7 +145,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D7" authorId="6" shapeId="0" xr:uid="{7BEF110B-922A-475A-8DCA-0F2B70D02FE7}">
+    <comment ref="D7" authorId="6" shapeId="0" xr:uid="{C04255DD-75A0-4FF8-A67F-1D742083BB00}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -141,7 +153,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F7" authorId="7" shapeId="0" xr:uid="{31601398-D165-4FA5-9FC2-A34AB4C1661B}">
+    <comment ref="F7" authorId="7" shapeId="0" xr:uid="{A5CA1B6E-CF0E-4EA1-AC8C-0379B6BB4759}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -149,7 +161,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="8" shapeId="0" xr:uid="{105F40F8-FE0C-4C0F-BB82-7DDF2DD7D080}">
+    <comment ref="D8" authorId="8" shapeId="0" xr:uid="{20984B0E-CE74-4150-8C2B-370E7FF05BE3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -157,7 +169,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F8" authorId="9" shapeId="0" xr:uid="{9AAB5ADB-8C82-42C8-A0D6-D0EFBB078DAF}">
+    <comment ref="F8" authorId="9" shapeId="0" xr:uid="{A3644C29-F254-4D9E-A111-E0C6CE2CA79B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -165,7 +177,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D9" authorId="10" shapeId="0" xr:uid="{282DFC17-F47B-4747-A31E-5ABD9CEBAF13}">
+    <comment ref="D9" authorId="10" shapeId="0" xr:uid="{123CBD7B-47F4-4A45-A496-C696D9510120}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -173,7 +185,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F9" authorId="11" shapeId="0" xr:uid="{9B779296-7490-436C-B5B7-7CB9AA8F553A}">
+    <comment ref="F9" authorId="11" shapeId="0" xr:uid="{EFCF2B60-6C60-47F8-9F7F-D2DA3095A8CC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -181,7 +193,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D10" authorId="12" shapeId="0" xr:uid="{F12AE8C3-9D1D-4B8D-BFC6-E1FB429019C8}">
+    <comment ref="D10" authorId="12" shapeId="0" xr:uid="{F0007B02-DC7D-420D-AD14-6C7ACA430F87}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -189,7 +201,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F10" authorId="13" shapeId="0" xr:uid="{00D581CC-3090-48BD-8068-892E53ED4BD4}">
+    <comment ref="F10" authorId="13" shapeId="0" xr:uid="{556C22BC-E478-4FD5-A3C4-0AAB01B3C38B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -197,7 +209,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D11" authorId="14" shapeId="0" xr:uid="{DCA515EC-C323-4DBD-BB17-599C1B546E7D}">
+    <comment ref="D11" authorId="14" shapeId="0" xr:uid="{06965905-4B0C-4469-82AA-CC677CAC5EB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -205,7 +217,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F11" authorId="15" shapeId="0" xr:uid="{A6246BD8-A8CB-4025-BA3C-346D14A2F4F9}">
+    <comment ref="F11" authorId="15" shapeId="0" xr:uid="{B4CF0615-C47C-4977-9BDA-DA83B3C88E48}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -213,7 +225,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D12" authorId="16" shapeId="0" xr:uid="{B837A0A6-8B20-4FC9-9F51-85C4027EBBA6}">
+    <comment ref="D12" authorId="16" shapeId="0" xr:uid="{B2D1EF54-D95D-42F8-A38E-868E653DA8C8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -221,7 +233,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F12" authorId="17" shapeId="0" xr:uid="{C81E1444-F104-4972-A896-EC9B47A939A8}">
+    <comment ref="F12" authorId="17" shapeId="0" xr:uid="{70A7E9E1-F8A1-4656-9CFA-D3587AFB09CC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -229,7 +241,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D13" authorId="18" shapeId="0" xr:uid="{F072FA5E-18A0-4757-9500-2C59BAB3276E}">
+    <comment ref="D13" authorId="18" shapeId="0" xr:uid="{64D53D20-367D-4F0F-A0BE-91016C86DFD7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -237,7 +249,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F13" authorId="19" shapeId="0" xr:uid="{0200A85F-42FC-4437-BD94-2F95BAD48EC9}">
+    <comment ref="F13" authorId="19" shapeId="0" xr:uid="{8EFE1F11-D9FC-4B4F-9425-FD217FB190D5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -245,7 +257,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D14" authorId="20" shapeId="0" xr:uid="{DF81B630-B635-4368-B050-BA9AE874747F}">
+    <comment ref="D14" authorId="20" shapeId="0" xr:uid="{BE4B9796-20D8-42D2-A62C-1EAC23BC61C0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -253,7 +265,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F14" authorId="21" shapeId="0" xr:uid="{973AB60E-FA1C-4594-820E-5DB5A7039EF8}">
+    <comment ref="F14" authorId="21" shapeId="0" xr:uid="{72410D04-E6BE-441E-895C-C62ADF19C21C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -261,7 +273,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D15" authorId="22" shapeId="0" xr:uid="{B6D16FF7-4D1E-4A68-A3A7-E79510694FA9}">
+    <comment ref="D15" authorId="22" shapeId="0" xr:uid="{A97ABAA6-7832-4FA5-9D6C-B7CC3A1971C7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -269,7 +281,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F15" authorId="23" shapeId="0" xr:uid="{61ED5EB0-0222-4591-86D7-E2ABBA3A8F74}">
+    <comment ref="F15" authorId="23" shapeId="0" xr:uid="{F130696C-86CD-454E-9908-4F237BE92535}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -277,7 +289,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D16" authorId="24" shapeId="0" xr:uid="{3856534A-3622-4989-B62B-E5FB60F99032}">
+    <comment ref="D16" authorId="24" shapeId="0" xr:uid="{32AD9A2A-7D2C-4EBE-99D2-FA5A937B02BF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -285,7 +297,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F16" authorId="25" shapeId="0" xr:uid="{BE5C36F3-2864-45CC-8C7E-FF5276CA5C94}">
+    <comment ref="F16" authorId="25" shapeId="0" xr:uid="{639C53A6-4294-49F8-B341-EAC74094828B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -293,7 +305,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D17" authorId="26" shapeId="0" xr:uid="{CE509BCD-BA57-47F5-925F-03E1C6C221A9}">
+    <comment ref="D17" authorId="26" shapeId="0" xr:uid="{7F06DF1B-0C9F-4263-A2A2-51FBE2156A40}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -301,7 +313,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F17" authorId="27" shapeId="0" xr:uid="{FABD7C6B-535A-498C-B94A-3DC248646424}">
+    <comment ref="F17" authorId="27" shapeId="0" xr:uid="{05944F06-A80A-4166-BE4F-AA27940E5299}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -309,7 +321,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="F18" authorId="28" shapeId="0" xr:uid="{B0F27DC7-96D6-4FAF-9875-0B517384B8CF}">
+    <comment ref="F18" authorId="28" shapeId="0" xr:uid="{9B28E689-EB92-4BC2-9C86-889E741442A9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -317,7 +329,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F19" authorId="29" shapeId="0" xr:uid="{474C5F7B-9D14-4BFC-82F4-F00C6BA7C312}">
+    <comment ref="F19" authorId="29" shapeId="0" xr:uid="{14928B3C-972B-4058-9ED7-5FBF8CA1BA53}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -325,7 +337,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F20" authorId="30" shapeId="0" xr:uid="{89600623-F35F-4F88-A55E-574BB22287AA}">
+    <comment ref="F20" authorId="30" shapeId="0" xr:uid="{ACA391FC-E8DD-4F2C-9D07-478FDA8D7F47}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -333,7 +345,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F21" authorId="31" shapeId="0" xr:uid="{DC4FBA1F-9F74-4E44-B513-C45F4074F1C1}">
+    <comment ref="F21" authorId="31" shapeId="0" xr:uid="{FE3EBD21-B682-4A4F-ABD2-AE67D5B31488}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -341,7 +353,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="E24" authorId="32" shapeId="0" xr:uid="{04C0AADE-FA80-495C-8A93-0EC78AAE37B6}">
+    <comment ref="E24" authorId="32" shapeId="0" xr:uid="{9430D0EB-887D-4110-8CDF-5160167BD4D9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -349,7 +361,7 @@
     I changed this value, is this correct?</t>
       </text>
     </comment>
-    <comment ref="F26" authorId="33" shapeId="0" xr:uid="{8F041FB6-DA34-4CB3-BD2D-8CF1E4B92FBC}">
+    <comment ref="F28" authorId="33" shapeId="0" xr:uid="{F7D970C8-C37B-41ED-B78A-1E242E7FDBBA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -357,7 +369,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F27" authorId="34" shapeId="0" xr:uid="{DEA68CA9-5886-4684-91AC-79B7E6A32276}">
+    <comment ref="F29" authorId="34" shapeId="0" xr:uid="{80F11FAA-7D4B-4600-A624-DA4656E38903}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -365,7 +377,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F28" authorId="35" shapeId="0" xr:uid="{6C48A878-1149-4F90-9754-288F066F33A9}">
+    <comment ref="F30" authorId="35" shapeId="0" xr:uid="{2AD4350E-3111-4ABB-BCA3-BD7C639BCC9A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -373,7 +385,103 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F48" authorId="36" shapeId="0" xr:uid="{7BDD1E61-3F3D-4542-BFC7-23650BB1D7D2}">
+    <comment ref="C72" authorId="36" shapeId="0" xr:uid="{0ED03A7D-DEAB-44A8-8C01-EBF9BA1E731D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F72" authorId="37" shapeId="0" xr:uid="{DDBD552C-2CB2-4058-9F8B-4B57F235A830}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Based on the map provided in the paper</t>
+      </text>
+    </comment>
+    <comment ref="C73" authorId="38" shapeId="0" xr:uid="{0D41C366-4E9E-4875-9F98-86C0389ECD4E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F73" authorId="39" shapeId="0" xr:uid="{740B4442-9367-4206-A0CD-CB6CB9233991}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Based on the map provided in the paper</t>
+      </text>
+    </comment>
+    <comment ref="C74" authorId="40" shapeId="0" xr:uid="{403C111D-56EB-4EE7-871A-4A6D8EDD5C83}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F74" authorId="41" shapeId="0" xr:uid="{AC784CDB-5632-4BA7-A121-162C2848FCD3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Based on the map provided in the paper</t>
+      </text>
+    </comment>
+    <comment ref="C75" authorId="42" shapeId="0" xr:uid="{55199E00-A1B3-4C57-93F6-2FECB2738B84}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F75" authorId="43" shapeId="0" xr:uid="{410B3140-BFAF-4B89-84EC-253385748739}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Based on the map provided in the paper</t>
+      </text>
+    </comment>
+    <comment ref="C76" authorId="44" shapeId="0" xr:uid="{867088E3-727D-4FD9-8E80-57CCC22FC2DF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F76" authorId="45" shapeId="0" xr:uid="{7A403A05-8100-4DB9-A81C-66FA5A78A105}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Based on the map provided in the paper</t>
+      </text>
+    </comment>
+    <comment ref="C77" authorId="46" shapeId="0" xr:uid="{CFD2791D-558A-4A50-9C44-3FF894748B78}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="F77" authorId="47" shapeId="0" xr:uid="{DC58B549-0A69-458D-9060-12896DA22683}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Based on the map provided in the paper</t>
+      </text>
+    </comment>
+    <comment ref="F84" authorId="48" shapeId="0" xr:uid="{C2CCCA46-6631-4B17-AFE5-E571AEFA4374}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -381,47 +489,7 @@
     Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
       </text>
     </comment>
-    <comment ref="F49" authorId="37" shapeId="0" xr:uid="{77B5CC59-381B-404F-AAA6-5CFC6A44839E}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
-      </text>
-    </comment>
-    <comment ref="F50" authorId="38" shapeId="0" xr:uid="{936899EF-5DA8-423D-96C7-656AFA53DCD0}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
-      </text>
-    </comment>
-    <comment ref="F51" authorId="39" shapeId="0" xr:uid="{C8ECD62F-8A3D-49F9-B262-AB2F0547E3D4}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
-      </text>
-    </comment>
-    <comment ref="F52" authorId="40" shapeId="0" xr:uid="{2930C22B-8C4B-4CBA-9F66-12B7A5B79C3F}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
-      </text>
-    </comment>
-    <comment ref="F53" authorId="41" shapeId="0" xr:uid="{0B6D79C7-1878-4261-B5CC-29DDF709C42A}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
-      </text>
-    </comment>
-    <comment ref="D59" authorId="42" shapeId="0" xr:uid="{BEE5056B-E6F5-4E64-B48B-68FBB7E81CB4}">
+    <comment ref="D85" authorId="49" shapeId="0" xr:uid="{53565BA9-B233-4300-A758-214194C79C11}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -430,7 +498,31 @@
 </t>
       </text>
     </comment>
-    <comment ref="D62" authorId="43" shapeId="0" xr:uid="{086445C0-100F-444F-A8D6-64874967DB02}">
+    <comment ref="F85" authorId="50" shapeId="0" xr:uid="{0F0B8423-C5FA-41C0-95A3-B43D14A83243}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="F86" authorId="51" shapeId="0" xr:uid="{ED4C010A-5796-4707-BDDA-1593A85DD6D9}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="F87" authorId="52" shapeId="0" xr:uid="{97A2B1EF-43E8-458E-A792-AF5C6B209BB2}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="D88" authorId="53" shapeId="0" xr:uid="{6307D356-03CC-4649-AB2A-C7074431FC67}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -438,12 +530,28 @@
     4.33</t>
       </text>
     </comment>
-    <comment ref="D63" authorId="44" shapeId="0" xr:uid="{AA555971-3267-4B86-B128-C33CE812ABB5}">
+    <comment ref="F88" authorId="54" shapeId="0" xr:uid="{A0F757F6-65B7-4D97-A947-7D74E7C8DA88}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="D89" authorId="55" shapeId="0" xr:uid="{8541858C-9CEA-4A50-BA2D-695E59797986}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     2.47</t>
+      </text>
+    </comment>
+    <comment ref="F89" authorId="56" shapeId="0" xr:uid="{FABA63DB-6B50-4703-8119-E97EA03479C1}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
       </text>
     </comment>
   </commentList>
@@ -451,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="14">
   <si>
     <t>temperate</t>
   </si>
@@ -479,6 +587,21 @@
   <si>
     <t>stream_order</t>
   </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
 </sst>
 </file>
 
@@ -487,7 +610,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +635,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -533,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -567,6 +696,12 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,159 +1044,192 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F2" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{276D6E98-6486-4909-AE1B-7B3C9CE2DD39}">
+  <threadedComment ref="F2" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{92DAEA5B-0EBD-41A3-BEC8-5AB1FBA6DA0E}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F3" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C6A59451-6538-4716-A3CA-153F88AE4517}">
+  <threadedComment ref="F3" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F3C78054-49EF-4DB8-8768-AE1391D3C18B}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F4" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{B8C62B53-AAA6-443D-A7C5-F1C5A3B8D23D}">
+  <threadedComment ref="F4" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{EB24DA71-641F-4E76-995E-EE6D89EA49EC}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F5" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{5D48A8E6-8544-4E52-A9E7-9342E77DF333}">
+  <threadedComment ref="F5" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9AD49B98-CECA-4CF4-B3FF-CE945581BA75}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="D6" dT="2024-10-26T01:21:56.57" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{EF6B9843-29BF-425B-8AA1-3838D44CD1E8}">
+  <threadedComment ref="D6" dT="2024-10-26T01:21:56.57" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F39772C9-ECF5-49E4-88F0-29F68D413395}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F6" dT="2024-10-26T01:32:32.14" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{6960F1DD-77D1-428A-A8B3-89FB476E159C}">
+  <threadedComment ref="F6" dT="2024-10-26T01:32:32.14" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C045592E-3808-4D67-BCEB-AA6E2CED9FD9}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D7" dT="2024-10-26T01:32:54.46" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7BEF110B-922A-475A-8DCA-0F2B70D02FE7}">
+  <threadedComment ref="D7" dT="2024-10-26T01:32:54.46" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C04255DD-75A0-4FF8-A67F-1D742083BB00}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F7" dT="2024-10-26T01:32:26.13" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{31601398-D165-4FA5-9FC2-A34AB4C1661B}">
+  <threadedComment ref="F7" dT="2024-10-26T01:32:26.13" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A5CA1B6E-CF0E-4EA1-AC8C-0379B6BB4759}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D8" dT="2024-10-26T01:32:58.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{105F40F8-FE0C-4C0F-BB82-7DDF2DD7D080}">
+  <threadedComment ref="D8" dT="2024-10-26T01:32:58.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{20984B0E-CE74-4150-8C2B-370E7FF05BE3}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F8" dT="2024-10-26T01:32:19.94" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9AAB5ADB-8C82-42C8-A0D6-D0EFBB078DAF}">
+  <threadedComment ref="F8" dT="2024-10-26T01:32:19.94" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A3644C29-F254-4D9E-A111-E0C6CE2CA79B}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D9" dT="2024-10-26T01:33:02.52" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{282DFC17-F47B-4747-A31E-5ABD9CEBAF13}">
+  <threadedComment ref="D9" dT="2024-10-26T01:33:02.52" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{123CBD7B-47F4-4A45-A496-C696D9510120}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F9" dT="2024-10-26T01:32:15.98" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9B779296-7490-436C-B5B7-7CB9AA8F553A}">
+  <threadedComment ref="F9" dT="2024-10-26T01:32:15.98" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{EFCF2B60-6C60-47F8-9F7F-D2DA3095A8CC}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D10" dT="2024-10-26T01:33:06.03" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F12AE8C3-9D1D-4B8D-BFC6-E1FB429019C8}">
+  <threadedComment ref="D10" dT="2024-10-26T01:33:06.03" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F0007B02-DC7D-420D-AD14-6C7ACA430F87}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F10" dT="2024-10-26T01:32:11.84" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{00D581CC-3090-48BD-8068-892E53ED4BD4}">
+  <threadedComment ref="F10" dT="2024-10-26T01:32:11.84" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{556C22BC-E478-4FD5-A3C4-0AAB01B3C38B}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D11" dT="2024-10-26T01:33:13.81" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{DCA515EC-C323-4DBD-BB17-599C1B546E7D}">
+  <threadedComment ref="D11" dT="2024-10-26T01:33:13.81" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{06965905-4B0C-4469-82AA-CC677CAC5EB6}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F11" dT="2024-10-26T01:32:07.96" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A6246BD8-A8CB-4025-BA3C-346D14A2F4F9}">
+  <threadedComment ref="F11" dT="2024-10-26T01:32:07.96" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{B4CF0615-C47C-4977-9BDA-DA83B3C88E48}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D12" dT="2024-10-26T01:33:17.37" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{B837A0A6-8B20-4FC9-9F51-85C4027EBBA6}">
+  <threadedComment ref="D12" dT="2024-10-26T01:33:17.37" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{B2D1EF54-D95D-42F8-A38E-868E653DA8C8}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F12" dT="2024-10-26T01:32:04.27" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C81E1444-F104-4972-A896-EC9B47A939A8}">
+  <threadedComment ref="F12" dT="2024-10-26T01:32:04.27" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{70A7E9E1-F8A1-4656-9CFA-D3587AFB09CC}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D13" dT="2024-10-26T01:33:24.43" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F072FA5E-18A0-4757-9500-2C59BAB3276E}">
+  <threadedComment ref="D13" dT="2024-10-26T01:33:24.43" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{64D53D20-367D-4F0F-A0BE-91016C86DFD7}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F13" dT="2024-10-26T01:31:57.39" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0200A85F-42FC-4437-BD94-2F95BAD48EC9}">
+  <threadedComment ref="F13" dT="2024-10-26T01:31:57.39" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{8EFE1F11-D9FC-4B4F-9425-FD217FB190D5}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D14" dT="2024-10-26T01:33:30.59" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{DF81B630-B635-4368-B050-BA9AE874747F}">
+  <threadedComment ref="D14" dT="2024-10-26T01:33:30.59" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{BE4B9796-20D8-42D2-A62C-1EAC23BC61C0}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F14" dT="2024-10-26T01:31:54.37" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{973AB60E-FA1C-4594-820E-5DB5A7039EF8}">
+  <threadedComment ref="F14" dT="2024-10-26T01:31:54.37" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{72410D04-E6BE-441E-895C-C62ADF19C21C}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D15" dT="2024-10-26T01:33:38.23" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{B6D16FF7-4D1E-4A68-A3A7-E79510694FA9}">
+  <threadedComment ref="D15" dT="2024-10-26T01:33:38.23" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A97ABAA6-7832-4FA5-9D6C-B7CC3A1971C7}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F15" dT="2024-10-26T01:31:50.74" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{61ED5EB0-0222-4591-86D7-E2ABBA3A8F74}">
+  <threadedComment ref="F15" dT="2024-10-26T01:31:50.74" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F130696C-86CD-454E-9908-4F237BE92535}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D16" dT="2024-10-26T01:33:42.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{3856534A-3622-4989-B62B-E5FB60F99032}">
+  <threadedComment ref="D16" dT="2024-10-26T01:33:42.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{32AD9A2A-7D2C-4EBE-99D2-FA5A937B02BF}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F16" dT="2024-10-26T01:31:47.23" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{BE5C36F3-2864-45CC-8C7E-FF5276CA5C94}">
+  <threadedComment ref="F16" dT="2024-10-26T01:31:47.23" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{639C53A6-4294-49F8-B341-EAC74094828B}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D17" dT="2024-10-26T01:33:47.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{CE509BCD-BA57-47F5-925F-03E1C6C221A9}">
+  <threadedComment ref="D17" dT="2024-10-26T01:33:47.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7F06DF1B-0C9F-4263-A2A2-51FBE2156A40}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F17" dT="2024-10-26T01:31:43.69" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{FABD7C6B-535A-498C-B94A-3DC248646424}">
+  <threadedComment ref="F17" dT="2024-10-26T01:31:43.69" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{05944F06-A80A-4166-BE4F-AA27940E5299}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="F18" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{B0F27DC7-96D6-4FAF-9875-0B517384B8CF}">
+  <threadedComment ref="F18" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9B28E689-EB92-4BC2-9C86-889E741442A9}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F19" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{474C5F7B-9D14-4BFC-82F4-F00C6BA7C312}">
+  <threadedComment ref="F19" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{14928B3C-972B-4058-9ED7-5FBF8CA1BA53}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F20" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{89600623-F35F-4F88-A55E-574BB22287AA}">
+  <threadedComment ref="F20" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{ACA391FC-E8DD-4F2C-9D07-478FDA8D7F47}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F21" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{DC4FBA1F-9F74-4E44-B513-C45F4074F1C1}">
+  <threadedComment ref="F21" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{FE3EBD21-B682-4A4F-ABD2-AE67D5B31488}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="E24" dT="2024-10-25T00:53:16.21" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{04C0AADE-FA80-495C-8A93-0EC78AAE37B6}">
+  <threadedComment ref="E24" dT="2024-10-25T00:53:16.21" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9430D0EB-887D-4110-8CDF-5160167BD4D9}">
     <text>I changed this value, is this correct?</text>
   </threadedComment>
-  <threadedComment ref="F26" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{8F041FB6-DA34-4CB3-BD2D-8CF1E4B92FBC}">
+  <threadedComment ref="F28" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F7D970C8-C37B-41ED-B78A-1E242E7FDBBA}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F27" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{DEA68CA9-5886-4684-91AC-79B7E6A32276}">
+  <threadedComment ref="F29" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{80F11FAA-7D4B-4600-A624-DA4656E38903}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F28" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{6C48A878-1149-4F90-9754-288F066F33A9}">
+  <threadedComment ref="F30" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{2AD4350E-3111-4ABB-BCA3-BD7C639BCC9A}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F48" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7BDD1E61-3F3D-4542-BFC7-23650BB1D7D2}">
+  <threadedComment ref="C72" dT="2024-11-03T18:02:13.27" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0ED03A7D-DEAB-44A8-8C01-EBF9BA1E731D}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F72" dT="2024-11-03T17:51:30.42" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{DDBD552C-2CB2-4058-9F8B-4B57F235A830}">
+    <text>Based on the map provided in the paper</text>
+  </threadedComment>
+  <threadedComment ref="C73" dT="2024-11-03T18:02:20.11" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0D41C366-4E9E-4875-9F98-86C0389ECD4E}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F73" dT="2024-11-03T17:51:38.49" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{740B4442-9367-4206-A0CD-CB6CB9233991}">
+    <text>Based on the map provided in the paper</text>
+  </threadedComment>
+  <threadedComment ref="C74" dT="2024-11-03T18:02:25.36" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{403C111D-56EB-4EE7-871A-4A6D8EDD5C83}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F74" dT="2024-11-03T17:51:43.88" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{AC784CDB-5632-4BA7-A121-162C2848FCD3}">
+    <text>Based on the map provided in the paper</text>
+  </threadedComment>
+  <threadedComment ref="C75" dT="2024-11-03T18:02:29.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{55199E00-A1B3-4C57-93F6-2FECB2738B84}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F75" dT="2024-11-03T17:51:50.52" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{410B3140-BFAF-4B89-84EC-253385748739}">
+    <text>Based on the map provided in the paper</text>
+  </threadedComment>
+  <threadedComment ref="C76" dT="2024-11-03T18:02:35.42" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{867088E3-727D-4FD9-8E80-57CCC22FC2DF}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F76" dT="2024-11-03T17:51:56.38" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7A403A05-8100-4DB9-A81C-66FA5A78A105}">
+    <text>Based on the map provided in the paper</text>
+  </threadedComment>
+  <threadedComment ref="C77" dT="2024-11-03T18:02:39.54" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{CFD2791D-558A-4A50-9C44-3FF894748B78}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="F77" dT="2024-11-03T17:51:59.44" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{DC58B549-0A69-458D-9060-12896DA22683}">
+    <text>Based on the map provided in the paper</text>
+  </threadedComment>
+  <threadedComment ref="F84" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C2CCCA46-6631-4B17-AFE5-E571AEFA4374}">
     <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
   </threadedComment>
-  <threadedComment ref="F49" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{77B5CC59-381B-404F-AAA6-5CFC6A44839E}">
-    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
-  </threadedComment>
-  <threadedComment ref="F50" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{936899EF-5DA8-423D-96C7-656AFA53DCD0}">
-    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
-  </threadedComment>
-  <threadedComment ref="F51" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C8ECD62F-8A3D-49F9-B262-AB2F0547E3D4}">
-    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
-  </threadedComment>
-  <threadedComment ref="F52" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{2930C22B-8C4B-4CBA-9F66-12B7A5B79C3F}">
-    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
-  </threadedComment>
-  <threadedComment ref="F53" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0B6D79C7-1878-4261-B5CC-29DDF709C42A}">
-    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
-  </threadedComment>
-  <threadedComment ref="D59" dT="2024-10-23T01:04:50.70" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{BEE5056B-E6F5-4E64-B48B-68FBB7E81CB4}">
+  <threadedComment ref="D85" dT="2024-10-23T01:04:50.70" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{53565BA9-B233-4300-A758-214194C79C11}">
     <text xml:space="preserve">Paper says 1.77 but that’s wrong?
 </text>
   </threadedComment>
-  <threadedComment ref="D62" dT="2024-10-23T01:05:57.45" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{086445C0-100F-444F-A8D6-64874967DB02}">
+  <threadedComment ref="F85" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0F0B8423-C5FA-41C0-95A3-B43D14A83243}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="F86" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{ED4C010A-5796-4707-BDDA-1593A85DD6D9}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="F87" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{97A2B1EF-43E8-458E-A792-AF5C6B209BB2}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="D88" dT="2024-10-23T01:05:57.45" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{6307D356-03CC-4649-AB2A-C7074431FC67}">
     <text>4.33</text>
   </threadedComment>
-  <threadedComment ref="D63" dT="2024-10-23T01:06:08.42" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{AA555971-3267-4B86-B128-C33CE812ABB5}">
+  <threadedComment ref="F88" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A0F757F6-65B7-4D97-A947-7D74E7C8DA88}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
+  </threadedComment>
+  <threadedComment ref="D89" dT="2024-10-23T01:06:08.42" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{8541858C-9CEA-4A50-BA2D-695E59797986}">
     <text>2.47</text>
+  </threadedComment>
+  <threadedComment ref="F89" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{FABA63DB-6B50-4703-8119-E97EA03479C1}">
+    <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB867A98-EA07-409A-8A8F-7AC4B2C4A731}">
-  <dimension ref="A1:F91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5C8652-BC08-48CD-9C2C-940AB671D1CF}">
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A91" sqref="A71:A91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1081,7 +1249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,9 +1265,11 @@
       <c r="E2" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,9 +1285,11 @@
       <c r="E3" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1133,9 +1305,11 @@
       <c r="E4" s="9">
         <v>0.06</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,9 +1325,11 @@
       <c r="E5" s="6">
         <v>0.06</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1170,9 +1346,11 @@
       <c r="E6" s="10">
         <v>0.23100000000000001</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1189,9 +1367,11 @@
       <c r="E7" s="10">
         <v>0.25700000000000001</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1208,9 +1388,11 @@
       <c r="E8" s="10">
         <v>0.30499999999999999</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1227,9 +1409,11 @@
       <c r="E9" s="10">
         <v>0.308</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1246,9 +1430,11 @@
       <c r="E10" s="10">
         <v>0.316</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1265,9 +1451,11 @@
       <c r="E11" s="10">
         <v>0.31900000000000001</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1284,9 +1472,11 @@
       <c r="E12" s="10">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1303,9 +1493,11 @@
       <c r="E13" s="10">
         <v>0.32100000000000001</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1322,9 +1514,11 @@
       <c r="E14" s="10">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1341,9 +1535,11 @@
       <c r="E15" s="10">
         <v>0.35199999999999998</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1360,9 +1556,11 @@
       <c r="E16" s="10">
         <v>0.372</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1379,9 +1577,11 @@
       <c r="E17" s="10">
         <v>0.38500000000000001</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1397,9 +1597,11 @@
       <c r="E18" s="6">
         <v>0.06</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1415,9 +1617,11 @@
       <c r="E19" s="9">
         <v>0.06</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1433,9 +1637,11 @@
       <c r="E20" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1451,9 +1657,11 @@
       <c r="E21" s="6">
         <v>0.08</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1469,13 +1677,15 @@
       <c r="E22" s="6">
         <v>0.05</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="14">
         <v>107</v>
       </c>
       <c r="C23" s="4">
@@ -1487,9 +1697,11 @@
       <c r="E23" s="6">
         <v>0.05</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1506,9 +1718,11 @@
       <c r="E24" s="13">
         <v>0.26</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1525,9 +1739,11 @@
       <c r="E25" s="13">
         <v>0.22</v>
       </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1544,9 +1760,11 @@
       <c r="E26" s="13">
         <v>0.19</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1563,9 +1781,11 @@
       <c r="E27" s="13">
         <v>0.19</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,9 +1801,11 @@
       <c r="E28" s="6">
         <v>0.05</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,9 +1821,11 @@
       <c r="E29" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1617,1087 +1841,1367 @@
       <c r="E30" s="6">
         <v>0.19</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="13">
+        <v>39</v>
+      </c>
+      <c r="C31" s="10">
+        <v>70</v>
+      </c>
+      <c r="D31" s="10">
+        <v>6.96</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="13">
+        <v>39</v>
+      </c>
+      <c r="C32" s="10">
+        <v>62</v>
+      </c>
+      <c r="D32" s="10">
+        <v>5.07</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="9">
+        <v>43</v>
+      </c>
+      <c r="C33" s="10">
+        <v>86</v>
+      </c>
+      <c r="D33" s="10">
+        <v>6.92</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="13">
+        <v>23</v>
+      </c>
+      <c r="C34" s="10">
+        <v>34</v>
+      </c>
+      <c r="D34" s="10">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="13">
+        <v>44</v>
+      </c>
+      <c r="C35" s="10">
+        <v>68</v>
+      </c>
+      <c r="D35" s="10">
+        <v>7.29</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="13">
+        <v>19</v>
+      </c>
+      <c r="C36" s="10">
+        <v>32</v>
+      </c>
+      <c r="D36" s="10">
+        <v>4.96</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="10">
+        <v>18</v>
+      </c>
+      <c r="C37" s="10">
         <v>28</v>
       </c>
-      <c r="C31" s="11">
+      <c r="D37" s="10">
+        <v>3.19</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="10">
+        <v>15</v>
+      </c>
+      <c r="C38" s="10">
+        <v>21</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="10">
+        <v>32</v>
+      </c>
+      <c r="C39" s="10">
+        <v>45</v>
+      </c>
+      <c r="D39" s="10">
+        <v>5.08</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="10">
+        <v>14</v>
+      </c>
+      <c r="C40" s="10">
+        <v>20</v>
+      </c>
+      <c r="D40" s="10">
+        <v>2.66</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="10">
+        <v>57</v>
+      </c>
+      <c r="C41" s="10">
+        <v>114</v>
+      </c>
+      <c r="D41" s="10">
+        <v>5.77</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="10">
+        <v>41</v>
+      </c>
+      <c r="C42" s="10">
+        <v>81</v>
+      </c>
+      <c r="D42" s="10">
+        <v>3.64</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="10">
+        <v>48</v>
+      </c>
+      <c r="C43" s="10">
+        <v>76</v>
+      </c>
+      <c r="D43" s="10">
+        <v>4.25</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="10">
+        <v>39</v>
+      </c>
+      <c r="C44" s="10">
+        <v>66</v>
+      </c>
+      <c r="D44" s="10">
+        <v>3</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="10">
+        <v>30</v>
+      </c>
+      <c r="C45" s="10">
+        <v>41</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2.99</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="10">
+        <v>35</v>
+      </c>
+      <c r="C46" s="10">
+        <v>58</v>
+      </c>
+      <c r="D46" s="10">
+        <v>3.53</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="10">
+        <v>29</v>
+      </c>
+      <c r="C47" s="10">
+        <v>37</v>
+      </c>
+      <c r="D47" s="10">
+        <v>3.34</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="10">
+        <v>21</v>
+      </c>
+      <c r="C48" s="10">
+        <v>21</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="15">
+        <v>12</v>
+      </c>
+      <c r="C49" s="15">
+        <v>9</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1.08</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="15">
+        <v>28</v>
+      </c>
+      <c r="C50" s="15">
+        <v>34</v>
+      </c>
+      <c r="D50" s="15">
+        <v>2.64</v>
+      </c>
+      <c r="E50" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="11">
+        <v>28</v>
+      </c>
+      <c r="C51" s="11">
         <v>156</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D51" s="12">
         <v>5.57</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E51" s="13">
         <v>0.2</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="11">
+      <c r="F51" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="11">
         <v>117</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C52" s="11">
         <v>345</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D52" s="12">
         <v>3</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E52" s="13">
         <v>0.05</v>
       </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="11">
+      <c r="F52" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="11">
         <v>15</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C53" s="11">
         <v>18</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D53" s="12">
         <v>1.2</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E53" s="13">
         <v>0.4</v>
       </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="11">
-        <v>10</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="F53" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="11">
+        <v>10</v>
+      </c>
+      <c r="C54" s="11">
         <v>13</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D54" s="12">
         <v>1.3</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E54" s="13">
         <v>0.43</v>
       </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="11">
+      <c r="F54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="11">
         <v>21</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C55" s="11">
         <v>40</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D55" s="12">
         <v>1.9</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E55" s="13">
         <v>0.24</v>
       </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="11">
+      <c r="F55" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="11">
         <v>63</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C56" s="11">
         <v>156</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D56" s="12">
         <v>2.48</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E56" s="13">
         <v>0.06</v>
       </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="11">
+      <c r="F56" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="11">
         <v>43</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C57" s="11">
         <v>88</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D57" s="12">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E57" s="13">
         <v>0.08</v>
       </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="11">
+      <c r="F57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="11">
         <v>38</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C58" s="11">
         <v>109</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D58" s="12">
         <v>2.87</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E58" s="13">
         <v>0.13</v>
       </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="11">
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="11">
         <v>38</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C59" s="11">
         <v>81</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D59" s="12">
         <v>2.13</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E59" s="13">
         <v>0.11</v>
       </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="11">
+      <c r="F59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="11">
         <v>47</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C60" s="11">
         <v>124</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D60" s="12">
         <v>2.64</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E60" s="13">
         <v>0.09</v>
       </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="11">
+      <c r="F60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="11">
         <v>48</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C61" s="11">
         <v>163</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D61" s="12">
         <v>3.4</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E61" s="13">
         <v>0.12</v>
       </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="11">
+      <c r="F61" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="11">
         <v>50</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C62" s="11">
         <v>230</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D62" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E62" s="13">
         <v>0.16</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="11">
+      <c r="F62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="11">
         <v>55</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C63" s="11">
         <v>193</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D63" s="12">
         <v>3.51</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E63" s="13">
         <v>0.11</v>
       </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="11">
+      <c r="F63" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="11">
         <v>63</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C64" s="11">
         <v>271</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D64" s="12">
         <v>4.3</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E64" s="13">
         <v>0.11</v>
       </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="11">
+      <c r="F64" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="11">
         <v>44</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C65" s="11">
         <v>219</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D65" s="12">
         <v>4.9800000000000004</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E65" s="13">
         <v>0.24</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="11">
+      <c r="F65" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="11">
         <v>50</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C66" s="11">
         <v>148</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D66" s="12">
         <v>2.96</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E66" s="13">
         <v>0.1</v>
       </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="11">
+      <c r="F66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="11">
         <v>39</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C67" s="11">
         <v>165</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D67" s="12">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E67" s="13">
         <v>0.24</v>
       </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="11">
+      <c r="F67" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="11">
         <v>63</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C68" s="11">
         <v>134</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D68" s="12">
         <v>2.13</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E68" s="13">
         <v>0.05</v>
       </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="11">
+      <c r="F68" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="11">
         <v>45</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C69" s="11">
         <v>152</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D69" s="12">
         <v>3.38</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E69" s="13">
         <v>0.15</v>
       </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="11">
+      <c r="F69" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="11">
         <v>59</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C70" s="11">
         <v>183</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D70" s="12">
         <v>3.1</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E70" s="13">
         <v>0.08</v>
       </c>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="11">
+      <c r="F70" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="11">
         <v>52</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C71" s="11">
         <v>184</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D71" s="12">
         <v>3.54</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E71" s="13">
         <v>0.12</v>
       </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="4">
+      <c r="F71" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="11">
+        <v>40</v>
+      </c>
+      <c r="C72" s="15">
+        <f>B72*D72</f>
+        <v>206.8</v>
+      </c>
+      <c r="D72" s="10">
+        <v>5.17</v>
+      </c>
+      <c r="E72" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="10">
+        <v>29</v>
+      </c>
+      <c r="C73" s="15">
+        <f t="shared" ref="C73:C77" si="1">B73*D73</f>
+        <v>79.75</v>
+      </c>
+      <c r="D73" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="10">
+        <v>26</v>
+      </c>
+      <c r="C74" s="15">
+        <f t="shared" si="1"/>
+        <v>83.98</v>
+      </c>
+      <c r="D74" s="10">
+        <v>3.23</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="10">
+        <v>31</v>
+      </c>
+      <c r="C75" s="15">
+        <f t="shared" si="1"/>
+        <v>110.98</v>
+      </c>
+      <c r="D75" s="10">
+        <v>3.58</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="15">
+        <v>31</v>
+      </c>
+      <c r="C76" s="15">
+        <f t="shared" si="1"/>
+        <v>141.97999999999999</v>
+      </c>
+      <c r="D76" s="15">
+        <v>4.58</v>
+      </c>
+      <c r="E76" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="15">
+        <v>35</v>
+      </c>
+      <c r="C77" s="15">
+        <f t="shared" si="1"/>
+        <v>178.85000000000002</v>
+      </c>
+      <c r="D77" s="15">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E77" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="4">
         <v>102</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C78" s="4">
         <v>675</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D78" s="5">
         <v>6.37</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E78" s="6">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="4">
+      <c r="F78" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="4">
         <v>129</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C79" s="4">
         <v>879</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D79" s="5">
         <v>7.53</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E79" s="6">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="4">
+      <c r="F79" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="4">
         <v>100</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C80" s="4">
         <v>596</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D80" s="5">
         <v>5.83</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E80" s="6">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="4">
+      <c r="F80" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="4">
         <v>131</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C81" s="4">
         <v>918</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D81" s="5">
         <v>7.01</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E81" s="6">
         <v>0.06</v>
       </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="4">
+      <c r="F81" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="4">
         <v>93</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C82" s="4">
         <v>544</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D82" s="5">
         <v>5.85</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E82" s="6">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="11">
+      <c r="F82" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="11">
         <v>126</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C83" s="11">
         <v>854</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D83" s="12">
         <v>6.78</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E83" s="13">
         <v>6.3E-2</v>
       </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="11">
+      <c r="F83" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="11">
         <v>31</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C84" s="11">
         <v>77</v>
       </c>
-      <c r="D58" s="12">
-        <f t="shared" ref="D58:D63" si="1">C58/B58</f>
+      <c r="D84" s="12">
+        <f t="shared" ref="D84:D89" si="2">C84/B84</f>
         <v>2.4838709677419355</v>
       </c>
-      <c r="E58" s="13">
-        <f t="shared" ref="E58:E63" si="2">C58/(B58*B58)</f>
+      <c r="E84" s="13">
+        <f t="shared" ref="E84:E89" si="3">C84/(B84*B84)</f>
         <v>8.0124869927159212E-2</v>
       </c>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="11">
+      <c r="F84" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="11">
         <v>17</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C85" s="11">
         <v>39</v>
       </c>
-      <c r="D59" s="12">
-        <f t="shared" si="1"/>
+      <c r="D85" s="12">
+        <f t="shared" si="2"/>
         <v>2.2941176470588234</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E85" s="13">
+        <f t="shared" si="3"/>
+        <v>0.13494809688581316</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="7">
+        <v>32</v>
+      </c>
+      <c r="C86" s="7">
+        <v>87</v>
+      </c>
+      <c r="D86" s="8">
         <f t="shared" si="2"/>
-        <v>0.13494809688581316</v>
-      </c>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="7">
+        <v>2.71875</v>
+      </c>
+      <c r="E86" s="9">
+        <f t="shared" si="3"/>
+        <v>8.49609375E-2</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="11">
+        <v>24</v>
+      </c>
+      <c r="C87" s="11">
+        <v>75</v>
+      </c>
+      <c r="D87" s="12">
+        <f t="shared" si="2"/>
+        <v>3.125</v>
+      </c>
+      <c r="E87" s="13">
+        <f t="shared" si="3"/>
+        <v>0.13020833333333334</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="11">
+        <v>33</v>
+      </c>
+      <c r="C88" s="11">
+        <v>123</v>
+      </c>
+      <c r="D88" s="12">
+        <f t="shared" si="2"/>
+        <v>3.7272727272727271</v>
+      </c>
+      <c r="E88" s="13">
+        <f t="shared" si="3"/>
+        <v>0.11294765840220386</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="11">
+        <v>22</v>
+      </c>
+      <c r="C89" s="11">
+        <v>42</v>
+      </c>
+      <c r="D89" s="12">
+        <f t="shared" si="2"/>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="E89" s="13">
+        <f t="shared" si="3"/>
+        <v>8.6776859504132234E-2</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="10">
+        <v>39</v>
+      </c>
+      <c r="C90" s="10">
+        <v>146</v>
+      </c>
+      <c r="D90" s="10">
+        <v>3.74</v>
+      </c>
+      <c r="E90" s="10">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="10">
+        <v>35</v>
+      </c>
+      <c r="C91" s="10">
+        <v>110</v>
+      </c>
+      <c r="D91" s="10">
+        <v>3.14</v>
+      </c>
+      <c r="E91" s="10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="10">
         <v>32</v>
       </c>
-      <c r="C60" s="7">
-        <v>87</v>
-      </c>
-      <c r="D60" s="8">
-        <f t="shared" si="1"/>
-        <v>2.71875</v>
-      </c>
-      <c r="E60" s="9">
-        <f t="shared" si="2"/>
-        <v>8.49609375E-2</v>
-      </c>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="11">
-        <v>24</v>
-      </c>
-      <c r="C61" s="11">
-        <v>75</v>
-      </c>
-      <c r="D61" s="12">
-        <f t="shared" si="1"/>
-        <v>3.125</v>
-      </c>
-      <c r="E61" s="13">
-        <f t="shared" si="2"/>
-        <v>0.13020833333333334</v>
-      </c>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="11">
+      <c r="C92" s="10">
+        <v>107</v>
+      </c>
+      <c r="D92" s="10">
+        <v>3.34</v>
+      </c>
+      <c r="E92" s="10">
+        <v>0.108</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="10">
+        <v>31</v>
+      </c>
+      <c r="C93" s="10">
+        <v>102</v>
+      </c>
+      <c r="D93" s="10">
+        <v>3.29</v>
+      </c>
+      <c r="E93" s="10">
+        <v>0.109</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="10">
+        <v>37</v>
+      </c>
+      <c r="C94" s="10">
+        <v>120</v>
+      </c>
+      <c r="D94" s="10">
+        <v>3.24</v>
+      </c>
+      <c r="E94" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="10">
+        <v>32</v>
+      </c>
+      <c r="C95" s="10">
+        <v>101</v>
+      </c>
+      <c r="D95" s="10">
+        <v>3.16</v>
+      </c>
+      <c r="E95" s="10">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="10">
         <v>33</v>
       </c>
-      <c r="C62" s="11">
-        <v>123</v>
-      </c>
-      <c r="D62" s="12">
-        <f t="shared" si="1"/>
-        <v>3.7272727272727271</v>
-      </c>
-      <c r="E62" s="13">
-        <f t="shared" si="2"/>
-        <v>0.11294765840220386</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="11">
-        <v>22</v>
-      </c>
-      <c r="C63" s="11">
-        <v>42</v>
-      </c>
-      <c r="D63" s="12">
-        <f t="shared" si="1"/>
-        <v>1.9090909090909092</v>
-      </c>
-      <c r="E63" s="13">
-        <f t="shared" si="2"/>
-        <v>8.6776859504132234E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="10">
-        <v>39</v>
-      </c>
-      <c r="C64" s="10">
-        <v>146</v>
-      </c>
-      <c r="D64" s="10">
-        <v>3.74</v>
-      </c>
-      <c r="E64" s="10">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="10">
-        <v>35</v>
-      </c>
-      <c r="C65" s="10">
-        <v>110</v>
-      </c>
-      <c r="D65" s="10">
-        <v>3.14</v>
-      </c>
-      <c r="E65" s="10">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="10">
-        <v>32</v>
-      </c>
-      <c r="C66" s="10">
-        <v>107</v>
-      </c>
-      <c r="D66" s="10">
-        <v>3.34</v>
-      </c>
-      <c r="E66" s="10">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="10">
-        <v>31</v>
-      </c>
-      <c r="C67" s="10">
-        <v>102</v>
-      </c>
-      <c r="D67" s="10">
-        <v>3.29</v>
-      </c>
-      <c r="E67" s="10">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="10">
-        <v>37</v>
-      </c>
-      <c r="C68" s="10">
-        <v>120</v>
-      </c>
-      <c r="D68" s="10">
-        <v>3.24</v>
-      </c>
-      <c r="E68" s="10">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="10">
-        <v>32</v>
-      </c>
-      <c r="C69" s="10">
-        <v>101</v>
-      </c>
-      <c r="D69" s="10">
-        <v>3.16</v>
-      </c>
-      <c r="E69" s="10">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="10">
-        <v>33</v>
-      </c>
-      <c r="C70" s="10">
+      <c r="C96" s="10">
         <v>104</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D96" s="10">
         <v>3.15</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E96" s="10">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="4">
+      <c r="F96" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="4">
         <v>36</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C97" s="4">
         <v>152</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D97" s="5">
         <v>4.22</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E97" s="13">
         <f>152/(36*(36))</f>
         <v>0.11728395061728394</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="13">
-        <v>39</v>
-      </c>
-      <c r="C72" s="10">
-        <v>70</v>
-      </c>
-      <c r="D72" s="10">
-        <v>6.96</v>
-      </c>
-      <c r="E72" s="10">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="13">
-        <v>39</v>
-      </c>
-      <c r="C73" s="10">
-        <v>62</v>
-      </c>
-      <c r="D73" s="10">
-        <v>5.07</v>
-      </c>
-      <c r="E73" s="10">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="9">
-        <v>43</v>
-      </c>
-      <c r="C74" s="10">
-        <v>86</v>
-      </c>
-      <c r="D74" s="10">
-        <v>6.92</v>
-      </c>
-      <c r="E74" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="13">
-        <v>23</v>
-      </c>
-      <c r="C75" s="10">
-        <v>34</v>
-      </c>
-      <c r="D75" s="10">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="E75" s="10">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="13">
-        <v>44</v>
-      </c>
-      <c r="C76" s="10">
-        <v>68</v>
-      </c>
-      <c r="D76" s="10">
-        <v>7.29</v>
-      </c>
-      <c r="E76" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="13">
-        <v>19</v>
-      </c>
-      <c r="C77" s="10">
-        <v>32</v>
-      </c>
-      <c r="D77" s="10">
-        <v>4.96</v>
-      </c>
-      <c r="E77" s="10">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="10">
-        <v>18</v>
-      </c>
-      <c r="C78" s="10">
-        <v>28</v>
-      </c>
-      <c r="D78" s="10">
-        <v>3.19</v>
-      </c>
-      <c r="E78" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="10">
-        <v>15</v>
-      </c>
-      <c r="C79" s="10">
-        <v>21</v>
-      </c>
-      <c r="D79" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="E79" s="10">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" s="10">
-        <v>32</v>
-      </c>
-      <c r="C80" s="10">
-        <v>45</v>
-      </c>
-      <c r="D80" s="10">
-        <v>5.08</v>
-      </c>
-      <c r="E80" s="10">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" s="10">
-        <v>14</v>
-      </c>
-      <c r="C81" s="10">
-        <v>20</v>
-      </c>
-      <c r="D81" s="10">
-        <v>2.66</v>
-      </c>
-      <c r="E81" s="10">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="10">
-        <v>57</v>
-      </c>
-      <c r="C82" s="10">
-        <v>114</v>
-      </c>
-      <c r="D82" s="10">
-        <v>5.77</v>
-      </c>
-      <c r="E82" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" s="10">
-        <v>41</v>
-      </c>
-      <c r="C83" s="10">
-        <v>81</v>
-      </c>
-      <c r="D83" s="10">
-        <v>3.64</v>
-      </c>
-      <c r="E83" s="10">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="10">
-        <v>48</v>
-      </c>
-      <c r="C84" s="10">
-        <v>76</v>
-      </c>
-      <c r="D84" s="10">
-        <v>4.25</v>
-      </c>
-      <c r="E84" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="10">
-        <v>39</v>
-      </c>
-      <c r="C85" s="10">
-        <v>66</v>
-      </c>
-      <c r="D85" s="10">
-        <v>3</v>
-      </c>
-      <c r="E85" s="10">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="10">
-        <v>30</v>
-      </c>
-      <c r="C86" s="10">
-        <v>41</v>
-      </c>
-      <c r="D86" s="10">
-        <v>2.99</v>
-      </c>
-      <c r="E86" s="10">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87" s="10">
-        <v>35</v>
-      </c>
-      <c r="C87" s="10">
-        <v>58</v>
-      </c>
-      <c r="D87" s="10">
-        <v>3.53</v>
-      </c>
-      <c r="E87" s="10">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="10">
-        <v>29</v>
-      </c>
-      <c r="C88" s="10">
-        <v>37</v>
-      </c>
-      <c r="D88" s="10">
-        <v>3.34</v>
-      </c>
-      <c r="E88" s="10">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="10">
-        <v>21</v>
-      </c>
-      <c r="C89" s="10">
-        <v>21</v>
-      </c>
-      <c r="D89" s="10">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E89" s="10">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90">
-        <v>12</v>
-      </c>
-      <c r="C90">
+      <c r="F97" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D90">
-        <v>1.08</v>
-      </c>
-      <c r="E90">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91">
-        <v>28</v>
-      </c>
-      <c r="C91">
-        <v>34</v>
-      </c>
-      <c r="D91">
-        <v>2.64</v>
-      </c>
-      <c r="E91">
-        <v>0.18</v>
       </c>
     </row>
   </sheetData>

--- a/2024 Reilly Connelly/data.xlsx
+++ b/2024 Reilly Connelly/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2024 Reilly Connelly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{218E9BAB-93AB-4E2E-A82A-B422CC237B98}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8113193A-CC11-4967-AFCD-A5C3E789DF1C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,66 +38,66 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={92DAEA5B-0EBD-41A3-BEC8-5AB1FBA6DA0E}</author>
-    <author>tc={F3C78054-49EF-4DB8-8768-AE1391D3C18B}</author>
-    <author>tc={EB24DA71-641F-4E76-995E-EE6D89EA49EC}</author>
-    <author>tc={9AD49B98-CECA-4CF4-B3FF-CE945581BA75}</author>
-    <author>tc={F39772C9-ECF5-49E4-88F0-29F68D413395}</author>
-    <author>tc={C045592E-3808-4D67-BCEB-AA6E2CED9FD9}</author>
-    <author>tc={C04255DD-75A0-4FF8-A67F-1D742083BB00}</author>
-    <author>tc={A5CA1B6E-CF0E-4EA1-AC8C-0379B6BB4759}</author>
-    <author>tc={20984B0E-CE74-4150-8C2B-370E7FF05BE3}</author>
-    <author>tc={A3644C29-F254-4D9E-A111-E0C6CE2CA79B}</author>
-    <author>tc={123CBD7B-47F4-4A45-A496-C696D9510120}</author>
-    <author>tc={EFCF2B60-6C60-47F8-9F7F-D2DA3095A8CC}</author>
-    <author>tc={F0007B02-DC7D-420D-AD14-6C7ACA430F87}</author>
-    <author>tc={556C22BC-E478-4FD5-A3C4-0AAB01B3C38B}</author>
-    <author>tc={06965905-4B0C-4469-82AA-CC677CAC5EB6}</author>
-    <author>tc={B4CF0615-C47C-4977-9BDA-DA83B3C88E48}</author>
-    <author>tc={B2D1EF54-D95D-42F8-A38E-868E653DA8C8}</author>
-    <author>tc={70A7E9E1-F8A1-4656-9CFA-D3587AFB09CC}</author>
-    <author>tc={64D53D20-367D-4F0F-A0BE-91016C86DFD7}</author>
-    <author>tc={8EFE1F11-D9FC-4B4F-9425-FD217FB190D5}</author>
-    <author>tc={BE4B9796-20D8-42D2-A62C-1EAC23BC61C0}</author>
-    <author>tc={72410D04-E6BE-441E-895C-C62ADF19C21C}</author>
-    <author>tc={A97ABAA6-7832-4FA5-9D6C-B7CC3A1971C7}</author>
-    <author>tc={F130696C-86CD-454E-9908-4F237BE92535}</author>
-    <author>tc={32AD9A2A-7D2C-4EBE-99D2-FA5A937B02BF}</author>
-    <author>tc={639C53A6-4294-49F8-B341-EAC74094828B}</author>
-    <author>tc={7F06DF1B-0C9F-4263-A2A2-51FBE2156A40}</author>
-    <author>tc={05944F06-A80A-4166-BE4F-AA27940E5299}</author>
-    <author>tc={9B28E689-EB92-4BC2-9C86-889E741442A9}</author>
-    <author>tc={14928B3C-972B-4058-9ED7-5FBF8CA1BA53}</author>
-    <author>tc={ACA391FC-E8DD-4F2C-9D07-478FDA8D7F47}</author>
-    <author>tc={FE3EBD21-B682-4A4F-ABD2-AE67D5B31488}</author>
-    <author>tc={9430D0EB-887D-4110-8CDF-5160167BD4D9}</author>
-    <author>tc={F7D970C8-C37B-41ED-B78A-1E242E7FDBBA}</author>
-    <author>tc={80F11FAA-7D4B-4600-A624-DA4656E38903}</author>
-    <author>tc={2AD4350E-3111-4ABB-BCA3-BD7C639BCC9A}</author>
-    <author>tc={0ED03A7D-DEAB-44A8-8C01-EBF9BA1E731D}</author>
-    <author>tc={DDBD552C-2CB2-4058-9F8B-4B57F235A830}</author>
-    <author>tc={0D41C366-4E9E-4875-9F98-86C0389ECD4E}</author>
-    <author>tc={740B4442-9367-4206-A0CD-CB6CB9233991}</author>
-    <author>tc={403C111D-56EB-4EE7-871A-4A6D8EDD5C83}</author>
-    <author>tc={AC784CDB-5632-4BA7-A121-162C2848FCD3}</author>
-    <author>tc={55199E00-A1B3-4C57-93F6-2FECB2738B84}</author>
-    <author>tc={410B3140-BFAF-4B89-84EC-253385748739}</author>
-    <author>tc={867088E3-727D-4FD9-8E80-57CCC22FC2DF}</author>
-    <author>tc={7A403A05-8100-4DB9-A81C-66FA5A78A105}</author>
-    <author>tc={CFD2791D-558A-4A50-9C44-3FF894748B78}</author>
-    <author>tc={DC58B549-0A69-458D-9060-12896DA22683}</author>
-    <author>tc={C2CCCA46-6631-4B17-AFE5-E571AEFA4374}</author>
-    <author>tc={53565BA9-B233-4300-A758-214194C79C11}</author>
-    <author>tc={0F0B8423-C5FA-41C0-95A3-B43D14A83243}</author>
-    <author>tc={ED4C010A-5796-4707-BDDA-1593A85DD6D9}</author>
-    <author>tc={97A2B1EF-43E8-458E-A792-AF5C6B209BB2}</author>
-    <author>tc={6307D356-03CC-4649-AB2A-C7074431FC67}</author>
-    <author>tc={A0F757F6-65B7-4D97-A947-7D74E7C8DA88}</author>
-    <author>tc={8541858C-9CEA-4A50-BA2D-695E59797986}</author>
-    <author>tc={FABA63DB-6B50-4703-8119-E97EA03479C1}</author>
+    <author>tc={5DDC2DC4-1472-4351-9641-6DE72CEB22F4}</author>
+    <author>tc={A734F5E8-53C0-4095-8F85-AEB02DAF30EA}</author>
+    <author>tc={099A8980-AE7C-455C-9FB9-DDBD2CC09523}</author>
+    <author>tc={5925AA9D-1EDA-46FA-A24A-E7B25FB46569}</author>
+    <author>tc={F4EBA666-16A6-445E-99C2-AA06BBE96E91}</author>
+    <author>tc={75B120E2-5A6E-4523-940D-678F95F327AC}</author>
+    <author>tc={7E7CD23E-1866-4570-BFA8-BB1FAA781052}</author>
+    <author>tc={AF28B89C-58E8-4981-BC68-C89613B83E99}</author>
+    <author>tc={3B479FA1-9318-438D-AF1D-95D470C16516}</author>
+    <author>tc={249B8319-3225-41E6-A3AA-3D1B5C0B7377}</author>
+    <author>tc={8FBF02A4-36D9-4B74-B34B-FF2E5DCB7587}</author>
+    <author>tc={BE91E70B-4D80-4F58-B164-E4CEF4D93F67}</author>
+    <author>tc={44C402EF-ED83-4D96-92AD-36AD51C850F3}</author>
+    <author>tc={513FC167-FA4F-49B3-8573-BD5D6C71A02F}</author>
+    <author>tc={206EA663-E74F-4B1E-A770-9D3245B9AF95}</author>
+    <author>tc={EF2FDADF-20EA-41D9-9240-5B01E39A378C}</author>
+    <author>tc={044E0D60-DC86-4099-BDE9-DB2C5665E12A}</author>
+    <author>tc={4E103B3E-DBA3-41CD-B5A4-BE603706E9C2}</author>
+    <author>tc={9125407E-15BE-4E85-AFAC-CE3526E380B5}</author>
+    <author>tc={90B1330C-4417-4560-B546-8AAC59196949}</author>
+    <author>tc={184C72EB-7888-4CF4-8EB7-0BBAFE308079}</author>
+    <author>tc={92711EB3-1EAF-4FAD-A557-EBCCBB43D4C3}</author>
+    <author>tc={ED8A8AA9-43EB-4A1B-9B16-DEE6A497BB5C}</author>
+    <author>tc={AF22D8C9-DAB6-4CA5-B673-498EF294BC2B}</author>
+    <author>tc={FCB2B4D8-672D-4A87-AEBE-0B5DCF3BAED2}</author>
+    <author>tc={EBE8EFF0-C09C-4688-BC4B-6F18D9CB0DD3}</author>
+    <author>tc={34DED8C1-C1EF-4E14-8E4C-7C7E2EED9D26}</author>
+    <author>tc={1804328F-4F32-43B5-B113-A6C36F9D892E}</author>
+    <author>tc={065B5A77-31C8-482B-936B-5E16B8F96048}</author>
+    <author>tc={0E70124D-B71D-4F70-9E7B-7ED4D9564283}</author>
+    <author>tc={1B804677-4FD5-467E-B5F3-90FF6E0D4348}</author>
+    <author>tc={E5862014-BD4C-4932-9530-5A110B95B246}</author>
+    <author>tc={0CF3C4D4-F039-42BF-82BB-5EA92393C9C9}</author>
+    <author>tc={4EABFD1A-7DE7-4F72-BF77-CE1809B678BB}</author>
+    <author>tc={5AAB4B93-80F5-4ED6-9536-43912E244254}</author>
+    <author>tc={2386994E-727D-451E-9152-130FF7AA6DBA}</author>
+    <author>tc={1A64E2B9-619B-4DD7-98A8-5FE122978C0B}</author>
+    <author>tc={D43214FD-9BB6-4BA6-AB87-2786EB5DA34C}</author>
+    <author>tc={6C57BB67-E7C9-4D68-821F-A74B91CE8AEE}</author>
+    <author>tc={18457709-E7A0-430B-B19D-9554355D2176}</author>
+    <author>tc={7F27898B-1056-434D-86DC-1FE2805F436B}</author>
+    <author>tc={B69686CB-1304-40F2-AAAA-F983EF22EFB6}</author>
+    <author>tc={737BCF81-AA0F-41A5-8E41-24A7B0275353}</author>
+    <author>tc={40903999-4CB7-40CD-A720-E77B8D071783}</author>
+    <author>tc={8691D023-3682-402C-97D0-496C382D24EF}</author>
+    <author>tc={858AF870-8467-4C35-AACF-87F3068D2307}</author>
+    <author>tc={80C8256A-040E-40EA-881E-E5B4D7BF583A}</author>
+    <author>tc={E8A23F70-1B54-4F63-AC62-D5AD0AD8297D}</author>
+    <author>tc={4CCF4108-1584-43E8-98AC-7093AD25C40C}</author>
+    <author>tc={B626ABB3-0D1E-4E05-B260-431BC1A34849}</author>
+    <author>tc={4E61100E-3698-4DBA-9CD1-6FDF6F82CAEA}</author>
+    <author>tc={A07C9C01-1DC1-4472-B9EA-C001F6B1E270}</author>
+    <author>tc={BDC164B2-E52C-486C-B978-90B66747C465}</author>
+    <author>tc={3C64AEE5-CE60-47E5-ABC2-DB374787A0DF}</author>
+    <author>tc={6E7AD60A-3D2A-4570-BD65-EFC06FC2AABD}</author>
+    <author>tc={6CCC036F-A323-41ED-A3E2-4EF9AC3B32C7}</author>
+    <author>tc={6D5D9E42-1A67-46CD-A5AA-C0B876A77808}</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{92DAEA5B-0EBD-41A3-BEC8-5AB1FBA6DA0E}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{5DDC2DC4-1472-4351-9641-6DE72CEB22F4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -105,7 +105,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{F3C78054-49EF-4DB8-8768-AE1391D3C18B}">
+    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{A734F5E8-53C0-4095-8F85-AEB02DAF30EA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -113,7 +113,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F4" authorId="2" shapeId="0" xr:uid="{EB24DA71-641F-4E76-995E-EE6D89EA49EC}">
+    <comment ref="F4" authorId="2" shapeId="0" xr:uid="{099A8980-AE7C-455C-9FB9-DDBD2CC09523}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -121,7 +121,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F5" authorId="3" shapeId="0" xr:uid="{9AD49B98-CECA-4CF4-B3FF-CE945581BA75}">
+    <comment ref="F5" authorId="3" shapeId="0" xr:uid="{5925AA9D-1EDA-46FA-A24A-E7B25FB46569}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -129,7 +129,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="D6" authorId="4" shapeId="0" xr:uid="{F39772C9-ECF5-49E4-88F0-29F68D413395}">
+    <comment ref="D6" authorId="4" shapeId="0" xr:uid="{F4EBA666-16A6-445E-99C2-AA06BBE96E91}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -137,7 +137,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F6" authorId="5" shapeId="0" xr:uid="{C045592E-3808-4D67-BCEB-AA6E2CED9FD9}">
+    <comment ref="F6" authorId="5" shapeId="0" xr:uid="{75B120E2-5A6E-4523-940D-678F95F327AC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -145,7 +145,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D7" authorId="6" shapeId="0" xr:uid="{C04255DD-75A0-4FF8-A67F-1D742083BB00}">
+    <comment ref="D7" authorId="6" shapeId="0" xr:uid="{7E7CD23E-1866-4570-BFA8-BB1FAA781052}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -153,7 +153,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F7" authorId="7" shapeId="0" xr:uid="{A5CA1B6E-CF0E-4EA1-AC8C-0379B6BB4759}">
+    <comment ref="F7" authorId="7" shapeId="0" xr:uid="{AF28B89C-58E8-4981-BC68-C89613B83E99}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -161,7 +161,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="8" shapeId="0" xr:uid="{20984B0E-CE74-4150-8C2B-370E7FF05BE3}">
+    <comment ref="D8" authorId="8" shapeId="0" xr:uid="{3B479FA1-9318-438D-AF1D-95D470C16516}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -169,7 +169,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F8" authorId="9" shapeId="0" xr:uid="{A3644C29-F254-4D9E-A111-E0C6CE2CA79B}">
+    <comment ref="F8" authorId="9" shapeId="0" xr:uid="{249B8319-3225-41E6-A3AA-3D1B5C0B7377}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -177,7 +177,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D9" authorId="10" shapeId="0" xr:uid="{123CBD7B-47F4-4A45-A496-C696D9510120}">
+    <comment ref="D9" authorId="10" shapeId="0" xr:uid="{8FBF02A4-36D9-4B74-B34B-FF2E5DCB7587}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -185,7 +185,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F9" authorId="11" shapeId="0" xr:uid="{EFCF2B60-6C60-47F8-9F7F-D2DA3095A8CC}">
+    <comment ref="F9" authorId="11" shapeId="0" xr:uid="{BE91E70B-4D80-4F58-B164-E4CEF4D93F67}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -193,7 +193,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D10" authorId="12" shapeId="0" xr:uid="{F0007B02-DC7D-420D-AD14-6C7ACA430F87}">
+    <comment ref="D10" authorId="12" shapeId="0" xr:uid="{44C402EF-ED83-4D96-92AD-36AD51C850F3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -201,7 +201,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F10" authorId="13" shapeId="0" xr:uid="{556C22BC-E478-4FD5-A3C4-0AAB01B3C38B}">
+    <comment ref="F10" authorId="13" shapeId="0" xr:uid="{513FC167-FA4F-49B3-8573-BD5D6C71A02F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -209,7 +209,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D11" authorId="14" shapeId="0" xr:uid="{06965905-4B0C-4469-82AA-CC677CAC5EB6}">
+    <comment ref="D11" authorId="14" shapeId="0" xr:uid="{206EA663-E74F-4B1E-A770-9D3245B9AF95}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -217,7 +217,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F11" authorId="15" shapeId="0" xr:uid="{B4CF0615-C47C-4977-9BDA-DA83B3C88E48}">
+    <comment ref="F11" authorId="15" shapeId="0" xr:uid="{EF2FDADF-20EA-41D9-9240-5B01E39A378C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -225,7 +225,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D12" authorId="16" shapeId="0" xr:uid="{B2D1EF54-D95D-42F8-A38E-868E653DA8C8}">
+    <comment ref="D12" authorId="16" shapeId="0" xr:uid="{044E0D60-DC86-4099-BDE9-DB2C5665E12A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -233,7 +233,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F12" authorId="17" shapeId="0" xr:uid="{70A7E9E1-F8A1-4656-9CFA-D3587AFB09CC}">
+    <comment ref="F12" authorId="17" shapeId="0" xr:uid="{4E103B3E-DBA3-41CD-B5A4-BE603706E9C2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -241,7 +241,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D13" authorId="18" shapeId="0" xr:uid="{64D53D20-367D-4F0F-A0BE-91016C86DFD7}">
+    <comment ref="D13" authorId="18" shapeId="0" xr:uid="{9125407E-15BE-4E85-AFAC-CE3526E380B5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -249,7 +249,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F13" authorId="19" shapeId="0" xr:uid="{8EFE1F11-D9FC-4B4F-9425-FD217FB190D5}">
+    <comment ref="F13" authorId="19" shapeId="0" xr:uid="{90B1330C-4417-4560-B546-8AAC59196949}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -257,7 +257,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D14" authorId="20" shapeId="0" xr:uid="{BE4B9796-20D8-42D2-A62C-1EAC23BC61C0}">
+    <comment ref="D14" authorId="20" shapeId="0" xr:uid="{184C72EB-7888-4CF4-8EB7-0BBAFE308079}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -265,7 +265,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F14" authorId="21" shapeId="0" xr:uid="{72410D04-E6BE-441E-895C-C62ADF19C21C}">
+    <comment ref="F14" authorId="21" shapeId="0" xr:uid="{92711EB3-1EAF-4FAD-A557-EBCCBB43D4C3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -273,7 +273,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D15" authorId="22" shapeId="0" xr:uid="{A97ABAA6-7832-4FA5-9D6C-B7CC3A1971C7}">
+    <comment ref="D15" authorId="22" shapeId="0" xr:uid="{ED8A8AA9-43EB-4A1B-9B16-DEE6A497BB5C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -281,7 +281,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F15" authorId="23" shapeId="0" xr:uid="{F130696C-86CD-454E-9908-4F237BE92535}">
+    <comment ref="F15" authorId="23" shapeId="0" xr:uid="{AF22D8C9-DAB6-4CA5-B673-498EF294BC2B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -289,7 +289,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D16" authorId="24" shapeId="0" xr:uid="{32AD9A2A-7D2C-4EBE-99D2-FA5A937B02BF}">
+    <comment ref="D16" authorId="24" shapeId="0" xr:uid="{FCB2B4D8-672D-4A87-AEBE-0B5DCF3BAED2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -297,7 +297,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F16" authorId="25" shapeId="0" xr:uid="{639C53A6-4294-49F8-B341-EAC74094828B}">
+    <comment ref="F16" authorId="25" shapeId="0" xr:uid="{EBE8EFF0-C09C-4688-BC4B-6F18D9CB0DD3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -305,7 +305,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="D17" authorId="26" shapeId="0" xr:uid="{7F06DF1B-0C9F-4263-A2A2-51FBE2156A40}">
+    <comment ref="D17" authorId="26" shapeId="0" xr:uid="{34DED8C1-C1EF-4E14-8E4C-7C7E2EED9D26}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -313,7 +313,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F17" authorId="27" shapeId="0" xr:uid="{05944F06-A80A-4166-BE4F-AA27940E5299}">
+    <comment ref="F17" authorId="27" shapeId="0" xr:uid="{1804328F-4F32-43B5-B113-A6C36F9D892E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -321,7 +321,7 @@
     Base map in the paper</t>
       </text>
     </comment>
-    <comment ref="F18" authorId="28" shapeId="0" xr:uid="{9B28E689-EB92-4BC2-9C86-889E741442A9}">
+    <comment ref="F18" authorId="28" shapeId="0" xr:uid="{065B5A77-31C8-482B-936B-5E16B8F96048}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -329,7 +329,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F19" authorId="29" shapeId="0" xr:uid="{14928B3C-972B-4058-9ED7-5FBF8CA1BA53}">
+    <comment ref="F19" authorId="29" shapeId="0" xr:uid="{0E70124D-B71D-4F70-9E7B-7ED4D9564283}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -337,7 +337,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F20" authorId="30" shapeId="0" xr:uid="{ACA391FC-E8DD-4F2C-9D07-478FDA8D7F47}">
+    <comment ref="F20" authorId="30" shapeId="0" xr:uid="{1B804677-4FD5-467E-B5F3-90FF6E0D4348}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -345,7 +345,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F21" authorId="31" shapeId="0" xr:uid="{FE3EBD21-B682-4A4F-ABD2-AE67D5B31488}">
+    <comment ref="F21" authorId="31" shapeId="0" xr:uid="{E5862014-BD4C-4932-9530-5A110B95B246}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -353,7 +353,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="E24" authorId="32" shapeId="0" xr:uid="{9430D0EB-887D-4110-8CDF-5160167BD4D9}">
+    <comment ref="E24" authorId="32" shapeId="0" xr:uid="{0CF3C4D4-F039-42BF-82BB-5EA92393C9C9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -361,7 +361,7 @@
     I changed this value, is this correct?</t>
       </text>
     </comment>
-    <comment ref="F28" authorId="33" shapeId="0" xr:uid="{F7D970C8-C37B-41ED-B78A-1E242E7FDBBA}">
+    <comment ref="F28" authorId="33" shapeId="0" xr:uid="{4EABFD1A-7DE7-4F72-BF77-CE1809B678BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -369,7 +369,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F29" authorId="34" shapeId="0" xr:uid="{80F11FAA-7D4B-4600-A624-DA4656E38903}">
+    <comment ref="F29" authorId="34" shapeId="0" xr:uid="{5AAB4B93-80F5-4ED6-9536-43912E244254}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -377,7 +377,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="F30" authorId="35" shapeId="0" xr:uid="{2AD4350E-3111-4ABB-BCA3-BD7C639BCC9A}">
+    <comment ref="F30" authorId="35" shapeId="0" xr:uid="{2386994E-727D-451E-9152-130FF7AA6DBA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -385,7 +385,7 @@
     Base on google maps</t>
       </text>
     </comment>
-    <comment ref="C72" authorId="36" shapeId="0" xr:uid="{0ED03A7D-DEAB-44A8-8C01-EBF9BA1E731D}">
+    <comment ref="C76" authorId="36" shapeId="0" xr:uid="{1A64E2B9-619B-4DD7-98A8-5FE122978C0B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -393,7 +393,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F72" authorId="37" shapeId="0" xr:uid="{DDBD552C-2CB2-4058-9F8B-4B57F235A830}">
+    <comment ref="F76" authorId="37" shapeId="0" xr:uid="{D43214FD-9BB6-4BA6-AB87-2786EB5DA34C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -401,7 +401,7 @@
     Based on the map provided in the paper</t>
       </text>
     </comment>
-    <comment ref="C73" authorId="38" shapeId="0" xr:uid="{0D41C366-4E9E-4875-9F98-86C0389ECD4E}">
+    <comment ref="C77" authorId="38" shapeId="0" xr:uid="{6C57BB67-E7C9-4D68-821F-A74B91CE8AEE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -409,7 +409,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F73" authorId="39" shapeId="0" xr:uid="{740B4442-9367-4206-A0CD-CB6CB9233991}">
+    <comment ref="F77" authorId="39" shapeId="0" xr:uid="{18457709-E7A0-430B-B19D-9554355D2176}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -417,7 +417,7 @@
     Based on the map provided in the paper</t>
       </text>
     </comment>
-    <comment ref="C74" authorId="40" shapeId="0" xr:uid="{403C111D-56EB-4EE7-871A-4A6D8EDD5C83}">
+    <comment ref="C78" authorId="40" shapeId="0" xr:uid="{7F27898B-1056-434D-86DC-1FE2805F436B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -425,7 +425,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F74" authorId="41" shapeId="0" xr:uid="{AC784CDB-5632-4BA7-A121-162C2848FCD3}">
+    <comment ref="F78" authorId="41" shapeId="0" xr:uid="{B69686CB-1304-40F2-AAAA-F983EF22EFB6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -433,7 +433,7 @@
     Based on the map provided in the paper</t>
       </text>
     </comment>
-    <comment ref="C75" authorId="42" shapeId="0" xr:uid="{55199E00-A1B3-4C57-93F6-2FECB2738B84}">
+    <comment ref="C79" authorId="42" shapeId="0" xr:uid="{737BCF81-AA0F-41A5-8E41-24A7B0275353}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -441,7 +441,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F75" authorId="43" shapeId="0" xr:uid="{410B3140-BFAF-4B89-84EC-253385748739}">
+    <comment ref="F79" authorId="43" shapeId="0" xr:uid="{40903999-4CB7-40CD-A720-E77B8D071783}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -449,7 +449,7 @@
     Based on the map provided in the paper</t>
       </text>
     </comment>
-    <comment ref="C76" authorId="44" shapeId="0" xr:uid="{867088E3-727D-4FD9-8E80-57CCC22FC2DF}">
+    <comment ref="C80" authorId="44" shapeId="0" xr:uid="{8691D023-3682-402C-97D0-496C382D24EF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -457,7 +457,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F76" authorId="45" shapeId="0" xr:uid="{7A403A05-8100-4DB9-A81C-66FA5A78A105}">
+    <comment ref="F80" authorId="45" shapeId="0" xr:uid="{858AF870-8467-4C35-AACF-87F3068D2307}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -465,7 +465,7 @@
     Based on the map provided in the paper</t>
       </text>
     </comment>
-    <comment ref="C77" authorId="46" shapeId="0" xr:uid="{CFD2791D-558A-4A50-9C44-3FF894748B78}">
+    <comment ref="C81" authorId="46" shapeId="0" xr:uid="{80C8256A-040E-40EA-881E-E5B4D7BF583A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -473,7 +473,7 @@
     Estimate for us</t>
       </text>
     </comment>
-    <comment ref="F77" authorId="47" shapeId="0" xr:uid="{DC58B549-0A69-458D-9060-12896DA22683}">
+    <comment ref="F81" authorId="47" shapeId="0" xr:uid="{E8A23F70-1B54-4F63-AC62-D5AD0AD8297D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -481,7 +481,7 @@
     Based on the map provided in the paper</t>
       </text>
     </comment>
-    <comment ref="F84" authorId="48" shapeId="0" xr:uid="{C2CCCA46-6631-4B17-AFE5-E571AEFA4374}">
+    <comment ref="F88" authorId="48" shapeId="0" xr:uid="{4CCF4108-1584-43E8-98AC-7093AD25C40C}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -489,7 +489,7 @@
     Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
       </text>
     </comment>
-    <comment ref="D85" authorId="49" shapeId="0" xr:uid="{53565BA9-B233-4300-A758-214194C79C11}">
+    <comment ref="D89" authorId="49" shapeId="0" xr:uid="{B626ABB3-0D1E-4E05-B260-431BC1A34849}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -498,7 +498,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="F85" authorId="50" shapeId="0" xr:uid="{0F0B8423-C5FA-41C0-95A3-B43D14A83243}">
+    <comment ref="F89" authorId="50" shapeId="0" xr:uid="{4E61100E-3698-4DBA-9CD1-6FDF6F82CAEA}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -506,7 +506,7 @@
     Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
       </text>
     </comment>
-    <comment ref="F86" authorId="51" shapeId="0" xr:uid="{ED4C010A-5796-4707-BDDA-1593A85DD6D9}">
+    <comment ref="F90" authorId="51" shapeId="0" xr:uid="{A07C9C01-1DC1-4472-B9EA-C001F6B1E270}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -514,7 +514,7 @@
     Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
       </text>
     </comment>
-    <comment ref="F87" authorId="52" shapeId="0" xr:uid="{97A2B1EF-43E8-458E-A792-AF5C6B209BB2}">
+    <comment ref="F91" authorId="52" shapeId="0" xr:uid="{BDC164B2-E52C-486C-B978-90B66747C465}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -522,7 +522,7 @@
     Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
       </text>
     </comment>
-    <comment ref="D88" authorId="53" shapeId="0" xr:uid="{6307D356-03CC-4649-AB2A-C7074431FC67}">
+    <comment ref="D92" authorId="53" shapeId="0" xr:uid="{3C64AEE5-CE60-47E5-ABC2-DB374787A0DF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -530,7 +530,7 @@
     4.33</t>
       </text>
     </comment>
-    <comment ref="F88" authorId="54" shapeId="0" xr:uid="{A0F757F6-65B7-4D97-A947-7D74E7C8DA88}">
+    <comment ref="F92" authorId="54" shapeId="0" xr:uid="{6E7AD60A-3D2A-4570-BD65-EFC06FC2AABD}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -538,7 +538,7 @@
     Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
       </text>
     </comment>
-    <comment ref="D89" authorId="55" shapeId="0" xr:uid="{8541858C-9CEA-4A50-BA2D-695E59797986}">
+    <comment ref="D93" authorId="55" shapeId="0" xr:uid="{6CCC036F-A323-41ED-A3E2-4EF9AC3B32C7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -546,7 +546,7 @@
     2.47</t>
       </text>
     </comment>
-    <comment ref="F89" authorId="56" shapeId="0" xr:uid="{FABA63DB-6B50-4703-8119-E97EA03479C1}">
+    <comment ref="F93" authorId="56" shapeId="0" xr:uid="{6D5D9E42-1A67-46CD-A5AA-C0B876A77808}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="14">
   <si>
     <t>temperate</t>
   </si>
@@ -639,7 +639,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1044,187 +1044,187 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F2" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{92DAEA5B-0EBD-41A3-BEC8-5AB1FBA6DA0E}">
+  <threadedComment ref="F2" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{5DDC2DC4-1472-4351-9641-6DE72CEB22F4}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F3" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F3C78054-49EF-4DB8-8768-AE1391D3C18B}">
+  <threadedComment ref="F3" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A734F5E8-53C0-4095-8F85-AEB02DAF30EA}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F4" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{EB24DA71-641F-4E76-995E-EE6D89EA49EC}">
+  <threadedComment ref="F4" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{099A8980-AE7C-455C-9FB9-DDBD2CC09523}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F5" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9AD49B98-CECA-4CF4-B3FF-CE945581BA75}">
+  <threadedComment ref="F5" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{5925AA9D-1EDA-46FA-A24A-E7B25FB46569}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="D6" dT="2024-10-26T01:21:56.57" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F39772C9-ECF5-49E4-88F0-29F68D413395}">
+  <threadedComment ref="D6" dT="2024-10-26T01:21:56.57" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F4EBA666-16A6-445E-99C2-AA06BBE96E91}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F6" dT="2024-10-26T01:32:32.14" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C045592E-3808-4D67-BCEB-AA6E2CED9FD9}">
+  <threadedComment ref="F6" dT="2024-10-26T01:32:32.14" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{75B120E2-5A6E-4523-940D-678F95F327AC}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D7" dT="2024-10-26T01:32:54.46" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C04255DD-75A0-4FF8-A67F-1D742083BB00}">
+  <threadedComment ref="D7" dT="2024-10-26T01:32:54.46" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7E7CD23E-1866-4570-BFA8-BB1FAA781052}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F7" dT="2024-10-26T01:32:26.13" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A5CA1B6E-CF0E-4EA1-AC8C-0379B6BB4759}">
+  <threadedComment ref="F7" dT="2024-10-26T01:32:26.13" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{AF28B89C-58E8-4981-BC68-C89613B83E99}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D8" dT="2024-10-26T01:32:58.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{20984B0E-CE74-4150-8C2B-370E7FF05BE3}">
+  <threadedComment ref="D8" dT="2024-10-26T01:32:58.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{3B479FA1-9318-438D-AF1D-95D470C16516}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F8" dT="2024-10-26T01:32:19.94" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A3644C29-F254-4D9E-A111-E0C6CE2CA79B}">
+  <threadedComment ref="F8" dT="2024-10-26T01:32:19.94" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{249B8319-3225-41E6-A3AA-3D1B5C0B7377}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D9" dT="2024-10-26T01:33:02.52" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{123CBD7B-47F4-4A45-A496-C696D9510120}">
+  <threadedComment ref="D9" dT="2024-10-26T01:33:02.52" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{8FBF02A4-36D9-4B74-B34B-FF2E5DCB7587}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F9" dT="2024-10-26T01:32:15.98" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{EFCF2B60-6C60-47F8-9F7F-D2DA3095A8CC}">
+  <threadedComment ref="F9" dT="2024-10-26T01:32:15.98" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{BE91E70B-4D80-4F58-B164-E4CEF4D93F67}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D10" dT="2024-10-26T01:33:06.03" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F0007B02-DC7D-420D-AD14-6C7ACA430F87}">
+  <threadedComment ref="D10" dT="2024-10-26T01:33:06.03" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{44C402EF-ED83-4D96-92AD-36AD51C850F3}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F10" dT="2024-10-26T01:32:11.84" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{556C22BC-E478-4FD5-A3C4-0AAB01B3C38B}">
+  <threadedComment ref="F10" dT="2024-10-26T01:32:11.84" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{513FC167-FA4F-49B3-8573-BD5D6C71A02F}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D11" dT="2024-10-26T01:33:13.81" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{06965905-4B0C-4469-82AA-CC677CAC5EB6}">
+  <threadedComment ref="D11" dT="2024-10-26T01:33:13.81" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{206EA663-E74F-4B1E-A770-9D3245B9AF95}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F11" dT="2024-10-26T01:32:07.96" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{B4CF0615-C47C-4977-9BDA-DA83B3C88E48}">
+  <threadedComment ref="F11" dT="2024-10-26T01:32:07.96" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{EF2FDADF-20EA-41D9-9240-5B01E39A378C}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D12" dT="2024-10-26T01:33:17.37" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{B2D1EF54-D95D-42F8-A38E-868E653DA8C8}">
+  <threadedComment ref="D12" dT="2024-10-26T01:33:17.37" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{044E0D60-DC86-4099-BDE9-DB2C5665E12A}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F12" dT="2024-10-26T01:32:04.27" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{70A7E9E1-F8A1-4656-9CFA-D3587AFB09CC}">
+  <threadedComment ref="F12" dT="2024-10-26T01:32:04.27" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{4E103B3E-DBA3-41CD-B5A4-BE603706E9C2}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D13" dT="2024-10-26T01:33:24.43" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{64D53D20-367D-4F0F-A0BE-91016C86DFD7}">
+  <threadedComment ref="D13" dT="2024-10-26T01:33:24.43" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9125407E-15BE-4E85-AFAC-CE3526E380B5}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F13" dT="2024-10-26T01:31:57.39" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{8EFE1F11-D9FC-4B4F-9425-FD217FB190D5}">
+  <threadedComment ref="F13" dT="2024-10-26T01:31:57.39" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{90B1330C-4417-4560-B546-8AAC59196949}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D14" dT="2024-10-26T01:33:30.59" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{BE4B9796-20D8-42D2-A62C-1EAC23BC61C0}">
+  <threadedComment ref="D14" dT="2024-10-26T01:33:30.59" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{184C72EB-7888-4CF4-8EB7-0BBAFE308079}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F14" dT="2024-10-26T01:31:54.37" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{72410D04-E6BE-441E-895C-C62ADF19C21C}">
+  <threadedComment ref="F14" dT="2024-10-26T01:31:54.37" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{92711EB3-1EAF-4FAD-A557-EBCCBB43D4C3}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D15" dT="2024-10-26T01:33:38.23" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A97ABAA6-7832-4FA5-9D6C-B7CC3A1971C7}">
+  <threadedComment ref="D15" dT="2024-10-26T01:33:38.23" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{ED8A8AA9-43EB-4A1B-9B16-DEE6A497BB5C}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F15" dT="2024-10-26T01:31:50.74" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F130696C-86CD-454E-9908-4F237BE92535}">
+  <threadedComment ref="F15" dT="2024-10-26T01:31:50.74" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{AF22D8C9-DAB6-4CA5-B673-498EF294BC2B}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D16" dT="2024-10-26T01:33:42.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{32AD9A2A-7D2C-4EBE-99D2-FA5A937B02BF}">
+  <threadedComment ref="D16" dT="2024-10-26T01:33:42.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{FCB2B4D8-672D-4A87-AEBE-0B5DCF3BAED2}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F16" dT="2024-10-26T01:31:47.23" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{639C53A6-4294-49F8-B341-EAC74094828B}">
+  <threadedComment ref="F16" dT="2024-10-26T01:31:47.23" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{EBE8EFF0-C09C-4688-BC4B-6F18D9CB0DD3}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="D17" dT="2024-10-26T01:33:47.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7F06DF1B-0C9F-4263-A2A2-51FBE2156A40}">
+  <threadedComment ref="D17" dT="2024-10-26T01:33:47.22" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{34DED8C1-C1EF-4E14-8E4C-7C7E2EED9D26}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F17" dT="2024-10-26T01:31:43.69" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{05944F06-A80A-4166-BE4F-AA27940E5299}">
+  <threadedComment ref="F17" dT="2024-10-26T01:31:43.69" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{1804328F-4F32-43B5-B113-A6C36F9D892E}">
     <text>Base map in the paper</text>
   </threadedComment>
-  <threadedComment ref="F18" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9B28E689-EB92-4BC2-9C86-889E741442A9}">
+  <threadedComment ref="F18" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{065B5A77-31C8-482B-936B-5E16B8F96048}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F19" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{14928B3C-972B-4058-9ED7-5FBF8CA1BA53}">
+  <threadedComment ref="F19" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0E70124D-B71D-4F70-9E7B-7ED4D9564283}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F20" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{ACA391FC-E8DD-4F2C-9D07-478FDA8D7F47}">
+  <threadedComment ref="F20" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{1B804677-4FD5-467E-B5F3-90FF6E0D4348}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F21" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{FE3EBD21-B682-4A4F-ABD2-AE67D5B31488}">
+  <threadedComment ref="F21" dT="2024-10-20T03:30:32.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{E5862014-BD4C-4932-9530-5A110B95B246}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="E24" dT="2024-10-25T00:53:16.21" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{9430D0EB-887D-4110-8CDF-5160167BD4D9}">
+  <threadedComment ref="E24" dT="2024-10-25T00:53:16.21" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0CF3C4D4-F039-42BF-82BB-5EA92393C9C9}">
     <text>I changed this value, is this correct?</text>
   </threadedComment>
-  <threadedComment ref="F28" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F7D970C8-C37B-41ED-B78A-1E242E7FDBBA}">
+  <threadedComment ref="F28" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{4EABFD1A-7DE7-4F72-BF77-CE1809B678BB}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F29" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{80F11FAA-7D4B-4600-A624-DA4656E38903}">
+  <threadedComment ref="F29" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{5AAB4B93-80F5-4ED6-9536-43912E244254}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="F30" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{2AD4350E-3111-4ABB-BCA3-BD7C639BCC9A}">
+  <threadedComment ref="F30" dT="2024-10-25T01:04:43.93" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{2386994E-727D-451E-9152-130FF7AA6DBA}">
     <text>Base on google maps</text>
   </threadedComment>
-  <threadedComment ref="C72" dT="2024-11-03T18:02:13.27" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0ED03A7D-DEAB-44A8-8C01-EBF9BA1E731D}">
+  <threadedComment ref="C76" dT="2024-11-03T18:02:13.27" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{1A64E2B9-619B-4DD7-98A8-5FE122978C0B}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F72" dT="2024-11-03T17:51:30.42" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{DDBD552C-2CB2-4058-9F8B-4B57F235A830}">
+  <threadedComment ref="F76" dT="2024-11-03T17:51:30.42" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{D43214FD-9BB6-4BA6-AB87-2786EB5DA34C}">
     <text>Based on the map provided in the paper</text>
   </threadedComment>
-  <threadedComment ref="C73" dT="2024-11-03T18:02:20.11" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0D41C366-4E9E-4875-9F98-86C0389ECD4E}">
+  <threadedComment ref="C77" dT="2024-11-03T18:02:20.11" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{6C57BB67-E7C9-4D68-821F-A74B91CE8AEE}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F73" dT="2024-11-03T17:51:38.49" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{740B4442-9367-4206-A0CD-CB6CB9233991}">
+  <threadedComment ref="F77" dT="2024-11-03T17:51:38.49" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{18457709-E7A0-430B-B19D-9554355D2176}">
     <text>Based on the map provided in the paper</text>
   </threadedComment>
-  <threadedComment ref="C74" dT="2024-11-03T18:02:25.36" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{403C111D-56EB-4EE7-871A-4A6D8EDD5C83}">
+  <threadedComment ref="C78" dT="2024-11-03T18:02:25.36" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7F27898B-1056-434D-86DC-1FE2805F436B}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F74" dT="2024-11-03T17:51:43.88" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{AC784CDB-5632-4BA7-A121-162C2848FCD3}">
+  <threadedComment ref="F78" dT="2024-11-03T17:51:43.88" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{B69686CB-1304-40F2-AAAA-F983EF22EFB6}">
     <text>Based on the map provided in the paper</text>
   </threadedComment>
-  <threadedComment ref="C75" dT="2024-11-03T18:02:29.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{55199E00-A1B3-4C57-93F6-2FECB2738B84}">
+  <threadedComment ref="C79" dT="2024-11-03T18:02:29.76" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{737BCF81-AA0F-41A5-8E41-24A7B0275353}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F75" dT="2024-11-03T17:51:50.52" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{410B3140-BFAF-4B89-84EC-253385748739}">
+  <threadedComment ref="F79" dT="2024-11-03T17:51:50.52" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{40903999-4CB7-40CD-A720-E77B8D071783}">
     <text>Based on the map provided in the paper</text>
   </threadedComment>
-  <threadedComment ref="C76" dT="2024-11-03T18:02:35.42" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{867088E3-727D-4FD9-8E80-57CCC22FC2DF}">
+  <threadedComment ref="C80" dT="2024-11-03T18:02:35.42" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{8691D023-3682-402C-97D0-496C382D24EF}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F76" dT="2024-11-03T17:51:56.38" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{7A403A05-8100-4DB9-A81C-66FA5A78A105}">
+  <threadedComment ref="F80" dT="2024-11-03T17:51:56.38" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{858AF870-8467-4C35-AACF-87F3068D2307}">
     <text>Based on the map provided in the paper</text>
   </threadedComment>
-  <threadedComment ref="C77" dT="2024-11-03T18:02:39.54" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{CFD2791D-558A-4A50-9C44-3FF894748B78}">
+  <threadedComment ref="C81" dT="2024-11-03T18:02:39.54" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{80C8256A-040E-40EA-881E-E5B4D7BF583A}">
     <text>Estimate for us</text>
   </threadedComment>
-  <threadedComment ref="F77" dT="2024-11-03T17:51:59.44" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{DC58B549-0A69-458D-9060-12896DA22683}">
+  <threadedComment ref="F81" dT="2024-11-03T17:51:59.44" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{E8A23F70-1B54-4F63-AC62-D5AD0AD8297D}">
     <text>Based on the map provided in the paper</text>
   </threadedComment>
-  <threadedComment ref="F84" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{C2CCCA46-6631-4B17-AFE5-E571AEFA4374}">
+  <threadedComment ref="F88" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{4CCF4108-1584-43E8-98AC-7093AD25C40C}">
     <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
   </threadedComment>
-  <threadedComment ref="D85" dT="2024-10-23T01:04:50.70" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{53565BA9-B233-4300-A758-214194C79C11}">
+  <threadedComment ref="D89" dT="2024-10-23T01:04:50.70" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{B626ABB3-0D1E-4E05-B260-431BC1A34849}">
     <text xml:space="preserve">Paper says 1.77 but that’s wrong?
 </text>
   </threadedComment>
-  <threadedComment ref="F85" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{0F0B8423-C5FA-41C0-95A3-B43D14A83243}">
+  <threadedComment ref="F89" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{4E61100E-3698-4DBA-9CD1-6FDF6F82CAEA}">
     <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
   </threadedComment>
-  <threadedComment ref="F86" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{ED4C010A-5796-4707-BDDA-1593A85DD6D9}">
+  <threadedComment ref="F90" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A07C9C01-1DC1-4472-B9EA-C001F6B1E270}">
     <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
   </threadedComment>
-  <threadedComment ref="F87" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{97A2B1EF-43E8-458E-A792-AF5C6B209BB2}">
+  <threadedComment ref="F91" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{BDC164B2-E52C-486C-B978-90B66747C465}">
     <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
   </threadedComment>
-  <threadedComment ref="D88" dT="2024-10-23T01:05:57.45" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{6307D356-03CC-4649-AB2A-C7074431FC67}">
+  <threadedComment ref="D92" dT="2024-10-23T01:05:57.45" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{3C64AEE5-CE60-47E5-ABC2-DB374787A0DF}">
     <text>4.33</text>
   </threadedComment>
-  <threadedComment ref="F88" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A0F757F6-65B7-4D97-A947-7D74E7C8DA88}">
+  <threadedComment ref="F92" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{6E7AD60A-3D2A-4570-BD65-EFC06FC2AABD}">
     <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
   </threadedComment>
-  <threadedComment ref="D89" dT="2024-10-23T01:06:08.42" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{8541858C-9CEA-4A50-BA2D-695E59797986}">
+  <threadedComment ref="D93" dT="2024-10-23T01:06:08.42" personId="{8A382B67-C16F-4581-B84D-5EEC49C94CC7}" id="{6CCC036F-A323-41ED-A3E2-4EF9AC3B32C7}">
     <text>2.47</text>
   </threadedComment>
-  <threadedComment ref="F89" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{FABA63DB-6B50-4703-8119-E97EA03479C1}">
+  <threadedComment ref="F93" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{6D5D9E42-1A67-46CD-A5AA-C0B876A77808}">
     <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5C8652-BC08-48CD-9C2C-940AB671D1CF}">
-  <dimension ref="A1:F97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDABC7E-1CC0-4F39-9224-005E833F7F13}">
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2669,206 +2669,198 @@
       <c r="A72" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="11">
-        <v>40</v>
+      <c r="B72" s="15">
+        <v>29</v>
       </c>
       <c r="C72" s="15">
-        <f>B72*D72</f>
-        <v>206.8</v>
-      </c>
-      <c r="D72" s="10">
-        <v>5.17</v>
-      </c>
-      <c r="E72" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D72" s="15">
+        <v>4.03</v>
+      </c>
+      <c r="E72" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="10">
-        <v>29</v>
-      </c>
-      <c r="C73" s="15">
-        <f t="shared" ref="C73:C77" si="1">B73*D73</f>
-        <v>79.75</v>
+      <c r="B73" s="15">
+        <v>35</v>
+      </c>
+      <c r="C73" s="7">
+        <v>130</v>
       </c>
       <c r="D73" s="10">
-        <v>2.75</v>
-      </c>
-      <c r="E73" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>3.71</v>
+      </c>
+      <c r="E73" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="15">
+        <v>36</v>
+      </c>
+      <c r="C74" s="11">
+        <v>130</v>
+      </c>
+      <c r="D74" s="10">
+        <v>3.61</v>
+      </c>
+      <c r="E74" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="15">
+        <v>33</v>
+      </c>
+      <c r="C75" s="11">
+        <v>143</v>
+      </c>
+      <c r="D75" s="10">
+        <v>4.33</v>
+      </c>
+      <c r="E75" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="11">
+        <v>40</v>
+      </c>
+      <c r="C76" s="15">
+        <f t="shared" ref="C76:C81" si="1">B76*D76</f>
+        <v>206.8</v>
+      </c>
+      <c r="D76" s="10">
+        <v>5.17</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="10">
+        <v>29</v>
+      </c>
+      <c r="C77" s="15">
+        <f t="shared" si="1"/>
+        <v>79.75</v>
+      </c>
+      <c r="D77" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="10">
         <v>26</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C78" s="15">
         <f t="shared" si="1"/>
         <v>83.98</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D78" s="10">
         <v>3.23</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E78" s="10">
         <v>0.12</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="10">
+      <c r="F78" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="10">
         <v>31</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C79" s="15">
         <f t="shared" si="1"/>
         <v>110.98</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D79" s="10">
         <v>3.58</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E79" s="10">
         <v>0.11</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="15">
+      <c r="F79" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="15">
         <v>31</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C80" s="15">
         <f t="shared" si="1"/>
         <v>141.97999999999999</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D80" s="15">
         <v>4.58</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E80" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="15">
+      <c r="F80" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="15">
         <v>35</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C81" s="15">
         <f t="shared" si="1"/>
         <v>178.85000000000002</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D81" s="15">
         <v>5.1100000000000003</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E81" s="15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="4">
-        <v>102</v>
-      </c>
-      <c r="C78" s="4">
-        <v>675</v>
-      </c>
-      <c r="D78" s="5">
-        <v>6.37</v>
-      </c>
-      <c r="E78" s="6">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="4">
-        <v>129</v>
-      </c>
-      <c r="C79" s="4">
-        <v>879</v>
-      </c>
-      <c r="D79" s="5">
-        <v>7.53</v>
-      </c>
-      <c r="E79" s="6">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="4">
-        <v>100</v>
-      </c>
-      <c r="C80" s="4">
-        <v>596</v>
-      </c>
-      <c r="D80" s="5">
-        <v>5.83</v>
-      </c>
-      <c r="E80" s="6">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="4">
-        <v>131</v>
-      </c>
-      <c r="C81" s="4">
-        <v>918</v>
-      </c>
-      <c r="D81" s="5">
-        <v>7.01</v>
-      </c>
-      <c r="E81" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>12</v>
+      <c r="F81" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2876,248 +2868,248 @@
         <v>0</v>
       </c>
       <c r="B82" s="4">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C82" s="4">
-        <v>544</v>
+        <v>675</v>
       </c>
       <c r="D82" s="5">
-        <v>5.85</v>
+        <v>6.37</v>
       </c>
       <c r="E82" s="6">
-        <v>5.3999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="4">
+        <v>129</v>
+      </c>
+      <c r="C83" s="4">
+        <v>879</v>
+      </c>
+      <c r="D83" s="5">
+        <v>7.53</v>
+      </c>
+      <c r="E83" s="6">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="4">
+        <v>100</v>
+      </c>
+      <c r="C84" s="4">
+        <v>596</v>
+      </c>
+      <c r="D84" s="5">
+        <v>5.83</v>
+      </c>
+      <c r="E84" s="6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="4">
+        <v>131</v>
+      </c>
+      <c r="C85" s="4">
+        <v>918</v>
+      </c>
+      <c r="D85" s="5">
+        <v>7.01</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="4">
+        <v>93</v>
+      </c>
+      <c r="C86" s="4">
+        <v>544</v>
+      </c>
+      <c r="D86" s="5">
+        <v>5.85</v>
+      </c>
+      <c r="E86" s="6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="11">
         <v>126</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C87" s="11">
         <v>854</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D87" s="12">
         <v>6.78</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E87" s="13">
         <v>6.3E-2</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="11">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="11">
         <v>31</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C88" s="11">
         <v>77</v>
       </c>
-      <c r="D84" s="12">
-        <f t="shared" ref="D84:D89" si="2">C84/B84</f>
+      <c r="D88" s="12">
+        <f t="shared" ref="D88:D93" si="2">C88/B88</f>
         <v>2.4838709677419355</v>
       </c>
-      <c r="E84" s="13">
-        <f t="shared" ref="E84:E89" si="3">C84/(B84*B84)</f>
+      <c r="E88" s="13">
+        <f t="shared" ref="E88:E93" si="3">C88/(B88*B88)</f>
         <v>8.0124869927159212E-2</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="11">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="11">
         <v>17</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C89" s="11">
         <v>39</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D89" s="12">
         <f t="shared" si="2"/>
         <v>2.2941176470588234</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E89" s="13">
         <f t="shared" si="3"/>
         <v>0.13494809688581316</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="7">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="7">
         <v>32</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C90" s="7">
         <v>87</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D90" s="8">
         <f t="shared" si="2"/>
         <v>2.71875</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E90" s="9">
         <f t="shared" si="3"/>
         <v>8.49609375E-2</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87" s="11">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="11">
         <v>24</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C91" s="11">
         <v>75</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D91" s="12">
         <f t="shared" si="2"/>
         <v>3.125</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E91" s="13">
         <f t="shared" si="3"/>
         <v>0.13020833333333334</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="11">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="11">
         <v>33</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C92" s="11">
         <v>123</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D92" s="12">
         <f t="shared" si="2"/>
         <v>3.7272727272727271</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E92" s="13">
         <f t="shared" si="3"/>
         <v>0.11294765840220386</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="11">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="11">
         <v>22</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C93" s="11">
         <v>42</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D93" s="12">
         <f t="shared" si="2"/>
         <v>1.9090909090909092</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E93" s="13">
         <f t="shared" si="3"/>
         <v>8.6776859504132234E-2</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="10">
-        <v>39</v>
-      </c>
-      <c r="C90" s="10">
-        <v>146</v>
-      </c>
-      <c r="D90" s="10">
-        <v>3.74</v>
-      </c>
-      <c r="E90" s="10">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="10">
-        <v>35</v>
-      </c>
-      <c r="C91" s="10">
-        <v>110</v>
-      </c>
-      <c r="D91" s="10">
-        <v>3.14</v>
-      </c>
-      <c r="E91" s="10">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="10">
-        <v>32</v>
-      </c>
-      <c r="C92" s="10">
-        <v>107</v>
-      </c>
-      <c r="D92" s="10">
-        <v>3.34</v>
-      </c>
-      <c r="E92" s="10">
-        <v>0.108</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="10">
-        <v>31</v>
-      </c>
-      <c r="C93" s="10">
-        <v>102</v>
-      </c>
-      <c r="D93" s="10">
-        <v>3.29</v>
-      </c>
-      <c r="E93" s="10">
-        <v>0.109</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>11</v>
@@ -3128,16 +3120,16 @@
         <v>2</v>
       </c>
       <c r="B94" s="10">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C94" s="10">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D94" s="10">
-        <v>3.24</v>
+        <v>3.74</v>
       </c>
       <c r="E94" s="10">
-        <v>0.09</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>11</v>
@@ -3148,16 +3140,16 @@
         <v>2</v>
       </c>
       <c r="B95" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C95" s="10">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D95" s="10">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="E95" s="10">
-        <v>0.10199999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>11</v>
@@ -3168,16 +3160,16 @@
         <v>2</v>
       </c>
       <c r="B96" s="10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C96" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D96" s="10">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="E96" s="10">
-        <v>9.8000000000000004E-2</v>
+        <v>0.108</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>11</v>
@@ -3185,24 +3177,380 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97" s="4">
+        <v>2</v>
+      </c>
+      <c r="B97" s="10">
+        <v>31</v>
+      </c>
+      <c r="C97" s="10">
+        <v>102</v>
+      </c>
+      <c r="D97" s="10">
+        <v>3.29</v>
+      </c>
+      <c r="E97" s="10">
+        <v>0.109</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="10">
+        <v>37</v>
+      </c>
+      <c r="C98" s="10">
+        <v>120</v>
+      </c>
+      <c r="D98" s="10">
+        <v>3.24</v>
+      </c>
+      <c r="E98" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="10">
+        <v>32</v>
+      </c>
+      <c r="C99" s="10">
+        <v>101</v>
+      </c>
+      <c r="D99" s="10">
+        <v>3.16</v>
+      </c>
+      <c r="E99" s="10">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="10">
+        <v>33</v>
+      </c>
+      <c r="C100" s="10">
+        <v>104</v>
+      </c>
+      <c r="D100" s="10">
+        <v>3.15</v>
+      </c>
+      <c r="E100" s="10">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="4">
         <v>36</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C101" s="4">
         <v>152</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D101" s="5">
         <v>4.22</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E101" s="13">
         <f>152/(36*(36))</f>
         <v>0.11728395061728394</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F101" s="3" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="11">
+        <v>83</v>
+      </c>
+      <c r="C102" s="11">
+        <v>375</v>
+      </c>
+      <c r="D102" s="12">
+        <f>C102/B102</f>
+        <v>4.5180722891566267</v>
+      </c>
+      <c r="E102" s="13">
+        <f>C102/(B102*B102)</f>
+        <v>5.4434605893453329E-2</v>
+      </c>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="11">
+        <v>89</v>
+      </c>
+      <c r="C103" s="11">
+        <v>565</v>
+      </c>
+      <c r="D103" s="12">
+        <f>C103/B103</f>
+        <v>6.3483146067415728</v>
+      </c>
+      <c r="E103" s="13">
+        <f>C103/(B103*B103)</f>
+        <v>7.1329377603837896E-2</v>
+      </c>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="11">
+        <v>100</v>
+      </c>
+      <c r="C104" s="11">
+        <v>708</v>
+      </c>
+      <c r="D104" s="12">
+        <f>C104/B104</f>
+        <v>7.08</v>
+      </c>
+      <c r="E104" s="13">
+        <f>C104/(B104*B104)</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="11">
+        <v>70</v>
+      </c>
+      <c r="C105" s="11">
+        <v>421</v>
+      </c>
+      <c r="D105" s="12">
+        <f t="shared" ref="D105:D113" si="4">C105/B105</f>
+        <v>6.0142857142857142</v>
+      </c>
+      <c r="E105" s="13">
+        <f t="shared" ref="E105:E113" si="5">C105/(B105*B105)</f>
+        <v>8.5918367346938779E-2</v>
+      </c>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="11">
+        <v>77</v>
+      </c>
+      <c r="C106" s="11">
+        <v>268</v>
+      </c>
+      <c r="D106" s="12">
+        <f t="shared" si="4"/>
+        <v>3.4805194805194803</v>
+      </c>
+      <c r="E106" s="13">
+        <f t="shared" si="5"/>
+        <v>4.5201551695058191E-2</v>
+      </c>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="11">
+        <v>75</v>
+      </c>
+      <c r="C107" s="11">
+        <v>240</v>
+      </c>
+      <c r="D107" s="12">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="E107" s="13">
+        <f t="shared" si="5"/>
+        <v>4.2666666666666665E-2</v>
+      </c>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="11">
+        <v>66</v>
+      </c>
+      <c r="C108" s="11">
+        <v>187</v>
+      </c>
+      <c r="D108" s="12">
+        <f t="shared" si="4"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="E108" s="13">
+        <f t="shared" si="5"/>
+        <v>4.2929292929292928E-2</v>
+      </c>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="11">
+        <v>82</v>
+      </c>
+      <c r="C109" s="11">
+        <v>224</v>
+      </c>
+      <c r="D109" s="12">
+        <f t="shared" si="4"/>
+        <v>2.7317073170731709</v>
+      </c>
+      <c r="E109" s="13">
+        <f t="shared" si="5"/>
+        <v>3.3313503866745982E-2</v>
+      </c>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="11">
+        <v>58</v>
+      </c>
+      <c r="C110" s="11">
+        <v>117</v>
+      </c>
+      <c r="D110" s="12">
+        <f t="shared" si="4"/>
+        <v>2.0172413793103448</v>
+      </c>
+      <c r="E110" s="13">
+        <f t="shared" si="5"/>
+        <v>3.4780023781212845E-2</v>
+      </c>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="11">
+        <v>45</v>
+      </c>
+      <c r="C111" s="11">
+        <v>110</v>
+      </c>
+      <c r="D111" s="12">
+        <f t="shared" si="4"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="E111" s="13">
+        <f t="shared" si="5"/>
+        <v>5.4320987654320987E-2</v>
+      </c>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="11">
+        <v>76</v>
+      </c>
+      <c r="C112" s="11">
+        <v>155</v>
+      </c>
+      <c r="D112" s="12">
+        <f t="shared" si="4"/>
+        <v>2.0394736842105261</v>
+      </c>
+      <c r="E112" s="13">
+        <f t="shared" si="5"/>
+        <v>2.6835180055401663E-2</v>
+      </c>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="11">
+        <v>142</v>
+      </c>
+      <c r="C113" s="11">
+        <v>1383</v>
+      </c>
+      <c r="D113" s="12">
+        <f t="shared" si="4"/>
+        <v>9.73943661971831</v>
+      </c>
+      <c r="E113" s="13">
+        <f t="shared" si="5"/>
+        <v>6.8587581829002181E-2</v>
+      </c>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="11">
+        <v>102</v>
+      </c>
+      <c r="C114" s="11">
+        <v>697</v>
+      </c>
+      <c r="D114" s="12">
+        <v>6.83</v>
+      </c>
+      <c r="E114" s="13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="11">
+        <v>109</v>
+      </c>
+      <c r="C115" s="11">
+        <v>830</v>
+      </c>
+      <c r="D115" s="12">
+        <v>7.61</v>
+      </c>
+      <c r="E115" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F115" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2024 Reilly Connelly/data.xlsx
+++ b/2024 Reilly Connelly/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2024 Reilly Connelly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8113193A-CC11-4967-AFCD-A5C3E789DF1C}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2BAA415-A07A-41C9-9324-534508ABB036}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
   </bookViews>
@@ -95,6 +95,17 @@
     <author>tc={6E7AD60A-3D2A-4570-BD65-EFC06FC2AABD}</author>
     <author>tc={6CCC036F-A323-41ED-A3E2-4EF9AC3B32C7}</author>
     <author>tc={6D5D9E42-1A67-46CD-A5AA-C0B876A77808}</author>
+    <author>tc={5A86EBC2-9A12-4DF6-9306-E13EC8837BAE}</author>
+    <author>tc={90CC9467-2DE0-4E8E-92E3-A22650B811CC}</author>
+    <author>tc={087F1C58-59C5-4035-A8A1-9CF4794B16D9}</author>
+    <author>tc={A6B0FF7D-8C80-405A-A2DB-E27CC46F3975}</author>
+    <author>tc={F14C1863-A03E-4783-B3EF-9C30F5C7B3B4}</author>
+    <author>tc={A1112F38-878F-4E4F-8C80-05EEB73DF3B2}</author>
+    <author>tc={EFD4F8CF-ABD9-4CCC-8052-C939F13A16E1}</author>
+    <author>tc={3E50B473-A863-440D-834B-FE1E97CE17C5}</author>
+    <author>tc={D962F2E2-495F-49CA-9AA3-50CE24727B4D}</author>
+    <author>tc={49409BA3-BF64-48BE-91F4-6FDF64B5FC0E}</author>
+    <author>tc={42303895-B6D7-4BC7-BBD0-38B5C53C52D5}</author>
   </authors>
   <commentList>
     <comment ref="F2" authorId="0" shapeId="0" xr:uid="{5DDC2DC4-1472-4351-9641-6DE72CEB22F4}">
@@ -552,6 +563,94 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Estimated PhD Thesis Cristian Enrique Granados Martínez </t>
+      </text>
+    </comment>
+    <comment ref="C116" authorId="57" shapeId="0" xr:uid="{5A86EBC2-9A12-4DF6-9306-E13EC8837BAE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C117" authorId="58" shapeId="0" xr:uid="{90CC9467-2DE0-4E8E-92E3-A22650B811CC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C118" authorId="59" shapeId="0" xr:uid="{087F1C58-59C5-4035-A8A1-9CF4794B16D9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C119" authorId="60" shapeId="0" xr:uid="{A6B0FF7D-8C80-405A-A2DB-E27CC46F3975}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C120" authorId="61" shapeId="0" xr:uid="{F14C1863-A03E-4783-B3EF-9C30F5C7B3B4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C121" authorId="62" shapeId="0" xr:uid="{A1112F38-878F-4E4F-8C80-05EEB73DF3B2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C122" authorId="63" shapeId="0" xr:uid="{EFD4F8CF-ABD9-4CCC-8052-C939F13A16E1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C123" authorId="64" shapeId="0" xr:uid="{3E50B473-A863-440D-834B-FE1E97CE17C5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C124" authorId="65" shapeId="0" xr:uid="{D962F2E2-495F-49CA-9AA3-50CE24727B4D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C125" authorId="66" shapeId="0" xr:uid="{49409BA3-BF64-48BE-91F4-6FDF64B5FC0E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C126" authorId="67" shapeId="0" xr:uid="{42303895-B6D7-4BC7-BBD0-38B5C53C52D5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
       </text>
     </comment>
   </commentList>
@@ -559,7 +658,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="14">
   <si>
     <t>temperate</t>
   </si>
@@ -639,7 +738,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1216,15 +1315,48 @@
   <threadedComment ref="F93" dT="2024-10-26T00:12:19.20" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{6D5D9E42-1A67-46CD-A5AA-C0B876A77808}">
     <text xml:space="preserve">Estimated PhD Thesis Cristian Enrique Granados Martínez </text>
   </threadedComment>
+  <threadedComment ref="C116" dT="2024-11-05T01:51:48.99" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{5A86EBC2-9A12-4DF6-9306-E13EC8837BAE}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C117" dT="2024-11-05T01:51:56.05" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{90CC9467-2DE0-4E8E-92E3-A22650B811CC}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C118" dT="2024-11-05T01:52:02.26" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{087F1C58-59C5-4035-A8A1-9CF4794B16D9}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C119" dT="2024-11-05T01:52:06.68" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A6B0FF7D-8C80-405A-A2DB-E27CC46F3975}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C120" dT="2024-11-05T01:52:06.68" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{F14C1863-A03E-4783-B3EF-9C30F5C7B3B4}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C121" dT="2024-11-05T01:52:06.68" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{A1112F38-878F-4E4F-8C80-05EEB73DF3B2}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C122" dT="2024-11-05T01:52:06.68" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{EFD4F8CF-ABD9-4CCC-8052-C939F13A16E1}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C123" dT="2024-11-05T01:52:06.68" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{3E50B473-A863-440D-834B-FE1E97CE17C5}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C124" dT="2024-11-05T01:52:06.68" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{D962F2E2-495F-49CA-9AA3-50CE24727B4D}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C125" dT="2024-11-05T01:52:06.68" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{49409BA3-BF64-48BE-91F4-6FDF64B5FC0E}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C126" dT="2024-11-05T01:52:06.68" personId="{FD825D12-7496-401B-8877-16C45BED3695}" id="{42303895-B6D7-4BC7-BBD0-38B5C53C52D5}">
+    <text>Estimate for us</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDABC7E-1CC0-4F39-9224-005E833F7F13}">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3552,6 +3684,204 @@
       </c>
       <c r="F115" s="3"/>
     </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="15">
+        <v>32</v>
+      </c>
+      <c r="C116" s="15">
+        <f t="shared" ref="C116:C126" si="6">B116*D116</f>
+        <v>118.08</v>
+      </c>
+      <c r="D116" s="15">
+        <v>3.69</v>
+      </c>
+      <c r="E116" s="15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="15">
+        <v>40</v>
+      </c>
+      <c r="C117" s="15">
+        <f t="shared" si="6"/>
+        <v>192</v>
+      </c>
+      <c r="D117" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="E117" s="15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="15">
+        <v>46</v>
+      </c>
+      <c r="C118" s="15">
+        <f t="shared" si="6"/>
+        <v>253.92</v>
+      </c>
+      <c r="D118" s="15">
+        <v>5.52</v>
+      </c>
+      <c r="E118" s="15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="15">
+        <v>36</v>
+      </c>
+      <c r="C119" s="15">
+        <f t="shared" si="6"/>
+        <v>160.91999999999999</v>
+      </c>
+      <c r="D119" s="15">
+        <v>4.47</v>
+      </c>
+      <c r="E119" s="15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="15">
+        <v>39</v>
+      </c>
+      <c r="C120" s="15">
+        <f t="shared" si="6"/>
+        <v>152.1</v>
+      </c>
+      <c r="D120" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="E120" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="15">
+        <v>43</v>
+      </c>
+      <c r="C121" s="15">
+        <f t="shared" si="6"/>
+        <v>206.82999999999998</v>
+      </c>
+      <c r="D121" s="15">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E121" s="15">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="15">
+        <v>45</v>
+      </c>
+      <c r="C122" s="15">
+        <f t="shared" si="6"/>
+        <v>220.95000000000002</v>
+      </c>
+      <c r="D122" s="15">
+        <v>4.91</v>
+      </c>
+      <c r="E122" s="15">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="15">
+        <v>34</v>
+      </c>
+      <c r="C123" s="15">
+        <f t="shared" si="6"/>
+        <v>146.88</v>
+      </c>
+      <c r="D123" s="15">
+        <v>4.32</v>
+      </c>
+      <c r="E123" s="15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="15">
+        <v>41</v>
+      </c>
+      <c r="C124" s="15">
+        <f t="shared" si="6"/>
+        <v>184.09</v>
+      </c>
+      <c r="D124" s="15">
+        <v>4.49</v>
+      </c>
+      <c r="E124" s="15">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="15">
+        <v>40</v>
+      </c>
+      <c r="C125" s="15">
+        <f t="shared" si="6"/>
+        <v>191.20000000000002</v>
+      </c>
+      <c r="D125" s="15">
+        <v>4.78</v>
+      </c>
+      <c r="E125" s="15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="15">
+        <v>45</v>
+      </c>
+      <c r="C126" s="15">
+        <f t="shared" si="6"/>
+        <v>226.8</v>
+      </c>
+      <c r="D126" s="15">
+        <v>5.04</v>
+      </c>
+      <c r="E126" s="15">
+        <v>0.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/2024 Reilly Connelly/data.xlsx
+++ b/2024 Reilly Connelly/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2024 Reilly Connelly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D694111-BFBE-4519-A2E4-66C6A9DE1748}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC69CE80-ADB2-4F50-B7EF-EBFBEE6626AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,531 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={353D25D8-458D-4D91-B805-D8D04EB3DC60}</author>
+    <author>tc={BA6D1512-508B-4F6F-8803-95FDC2E67A81}</author>
+    <author>tc={B0852222-F33B-4347-9B00-16E17E25A83B}</author>
+    <author>tc={D96F93D1-A655-43B2-8425-2296193FCE26}</author>
+    <author>tc={A70AC16E-65F1-434C-A0F8-A836ABEDC4F3}</author>
+    <author>tc={DD11D571-4FD7-43EC-8093-3C07550A2239}</author>
+    <author>tc={3DBC7CAB-214E-4688-AE0A-3FBC75DC5A8B}</author>
+    <author>tc={5209BD86-F01E-4874-A4B8-DF590E1255E6}</author>
+    <author>tc={895A088E-7D31-40F8-AB15-36DBB74B14DF}</author>
+    <author>tc={A84A43E4-F0F3-4BB7-A18F-DC53130D5917}</author>
+    <author>tc={B731ED93-4831-4746-A60A-C92593F3C576}</author>
+    <author>tc={532F7D56-D7F0-42A8-AB1D-18D48B358FF1}</author>
+    <author>tc={445D034E-E89E-484D-88D7-B1B622E6A158}</author>
+    <author>tc={8E916941-877B-4BF5-9451-DA49C666B604}</author>
+    <author>tc={294BCD28-DA51-42D4-A6FA-430EFD0A5C22}</author>
+    <author>tc={FBA175BA-42DE-487E-B4EB-15CC8259491E}</author>
+    <author>tc={58DD036F-3998-4767-9A85-AF610C615D2B}</author>
+    <author>tc={82F3CD69-CC27-4A3B-ACC1-5009D535C125}</author>
+    <author>tc={2E083CC9-57D3-4F31-B069-77CD08AB23CF}</author>
+    <author>tc={BBBC0C69-0152-4FE7-B245-57B72B22CBDA}</author>
+    <author>tc={CE78F546-48FF-46C2-9D19-7B924B701984}</author>
+    <author>tc={073A9C58-FD3E-4711-B54D-615715066900}</author>
+    <author>tc={01DD39E7-3A89-4209-A6F8-174843B0CA8B}</author>
+    <author>tc={DE4A63B9-ABCC-4BE1-B783-07F28192CFDA}</author>
+    <author>tc={76C54CD6-60C7-4C18-94AE-4ACB7B3BEC4A}</author>
+    <author>tc={9F2739A9-A474-47C2-9780-ECE84DF0B188}</author>
+    <author>tc={CD5367E9-9D0F-4C7C-BA97-99DA0E3B3FE6}</author>
+    <author>tc={57661739-3E38-4CEC-BC80-ACEE361E8725}</author>
+    <author>tc={EC4618DF-1176-4D13-B596-335907427AB4}</author>
+    <author>tc={D86B5F8A-2972-4FB7-B2F1-F2296966E412}</author>
+    <author>tc={E85FD33A-74D6-40C2-8E7A-46BA24CD57E7}</author>
+    <author>tc={ABCCE2CE-16F7-4433-8339-70FE55B6E96B}</author>
+    <author>tc={35DC896F-752E-46E5-AF3A-CCEEB410268C}</author>
+    <author>tc={57A1DC0A-EE99-4234-956B-D3D539E247D2}</author>
+    <author>tc={6A76EE3B-C387-4163-9F3C-FB0E2A3FC832}</author>
+    <author>tc={1BEC152C-AF76-4D09-96C4-428467D6EEFC}</author>
+    <author>tc={84E626F7-AC5A-4F56-A4B2-D0E1A9743767}</author>
+    <author>tc={3A038104-FDE5-49A1-AE4D-B34CBE0D03E8}</author>
+    <author>tc={F3651E96-7140-40F0-B5B3-5A8DFFAA74D2}</author>
+    <author>tc={1B9BC5EE-115B-4D19-83DF-86E6B08533A1}</author>
+    <author>tc={21E6DD69-24B5-459C-8838-2C80EE6BD7F6}</author>
+    <author>tc={A0C337F8-7F85-465B-8704-BE05347AF1E5}</author>
+    <author>tc={1B69D9A0-E7A5-42A4-A0EC-05A4CC30A2B7}</author>
+    <author>tc={4FECB2B3-5320-429C-B32F-5706DD76F210}</author>
+    <author>tc={FDFBE7AB-3414-43AD-A8EF-2DC20ADB7490}</author>
+    <author>tc={610D365D-1702-411E-BE3B-309163BF3A01}</author>
+    <author>tc={2959FE2C-3CD0-48C3-923C-58406CF82371}</author>
+    <author>tc={F6748C24-E61B-4FD9-A620-6D6C700450ED}</author>
+    <author>tc={E0DE145C-1C08-4F6D-B775-D05C65817CD3}</author>
+    <author>tc={94B2817A-6B36-4423-AF10-7025D51D0517}</author>
+    <author>tc={13C5454F-D9C7-46F1-9FD8-455425DF12D9}</author>
+    <author>tc={80021632-2004-4F2C-AC7E-B474FBB896A5}</author>
+    <author>tc={2533C91C-677C-425E-B6DD-D6C23B4F93A9}</author>
+    <author>tc={629B2D79-DA5E-4307-BC82-B85558E2C75A}</author>
+    <author>tc={0E637443-548C-4ED3-91E7-206ACC3D25F0}</author>
+    <author>tc={E2A67424-D55D-4B95-B514-A6DB5B0F13E1}</author>
+    <author>tc={534A99F1-C91D-48D9-ABF7-DC73FBD2A4F0}</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{353D25D8-458D-4D91-B805-D8D04EB3DC60}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{BA6D1512-508B-4F6F-8803-95FDC2E67A81}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{B0852222-F33B-4347-9B00-16E17E25A83B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="3" shapeId="0" xr:uid="{D96F93D1-A655-43B2-8425-2296193FCE26}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="4" shapeId="0" xr:uid="{A70AC16E-65F1-434C-A0F8-A836ABEDC4F3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="5" shapeId="0" xr:uid="{DD11D571-4FD7-43EC-8093-3C07550A2239}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="6" shapeId="0" xr:uid="{3DBC7CAB-214E-4688-AE0A-3FBC75DC5A8B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="7" shapeId="0" xr:uid="{5209BD86-F01E-4874-A4B8-DF590E1255E6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="8" shapeId="0" xr:uid="{895A088E-7D31-40F8-AB15-36DBB74B14DF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="9" shapeId="0" xr:uid="{A84A43E4-F0F3-4BB7-A18F-DC53130D5917}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="10" shapeId="0" xr:uid="{B731ED93-4831-4746-A60A-C92593F3C576}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="11" shapeId="0" xr:uid="{532F7D56-D7F0-42A8-AB1D-18D48B358FF1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="12" shapeId="0" xr:uid="{445D034E-E89E-484D-88D7-B1B622E6A158}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I changed this value, is this correct?</t>
+      </text>
+    </comment>
+    <comment ref="C81" authorId="13" shapeId="0" xr:uid="{8E916941-877B-4BF5-9451-DA49C666B604}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C82" authorId="14" shapeId="0" xr:uid="{294BCD28-DA51-42D4-A6FA-430EFD0A5C22}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C83" authorId="15" shapeId="0" xr:uid="{FBA175BA-42DE-487E-B4EB-15CC8259491E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C84" authorId="16" shapeId="0" xr:uid="{58DD036F-3998-4767-9A85-AF610C615D2B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C85" authorId="17" shapeId="0" xr:uid="{82F3CD69-CC27-4A3B-ACC1-5009D535C125}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C86" authorId="18" shapeId="0" xr:uid="{2E083CC9-57D3-4F31-B069-77CD08AB23CF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C87" authorId="19" shapeId="0" xr:uid="{BBBC0C69-0152-4FE7-B245-57B72B22CBDA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C88" authorId="20" shapeId="0" xr:uid="{CE78F546-48FF-46C2-9D19-7B924B701984}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C89" authorId="21" shapeId="0" xr:uid="{073A9C58-FD3E-4711-B54D-615715066900}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C90" authorId="22" shapeId="0" xr:uid="{01DD39E7-3A89-4209-A6F8-174843B0CA8B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C91" authorId="23" shapeId="0" xr:uid="{DE4A63B9-ABCC-4BE1-B783-07F28192CFDA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C92" authorId="24" shapeId="0" xr:uid="{76C54CD6-60C7-4C18-94AE-4ACB7B3BEC4A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C93" authorId="25" shapeId="0" xr:uid="{9F2739A9-A474-47C2-9780-ECE84DF0B188}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C94" authorId="26" shapeId="0" xr:uid="{CD5367E9-9D0F-4C7C-BA97-99DA0E3B3FE6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C95" authorId="27" shapeId="0" xr:uid="{57661739-3E38-4CEC-BC80-ACEE361E8725}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C96" authorId="28" shapeId="0" xr:uid="{EC4618DF-1176-4D13-B596-335907427AB4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C97" authorId="29" shapeId="0" xr:uid="{D86B5F8A-2972-4FB7-B2F1-F2296966E412}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C98" authorId="30" shapeId="0" xr:uid="{E85FD33A-74D6-40C2-8E7A-46BA24CD57E7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D110" authorId="31" shapeId="0" xr:uid="{ABCCE2CE-16F7-4433-8339-70FE55B6E96B}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Paper says 1.77 but that’s wrong?
+</t>
+      </text>
+    </comment>
+    <comment ref="D113" authorId="32" shapeId="0" xr:uid="{35DC896F-752E-46E5-AF3A-CCEEB410268C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    4.33</t>
+      </text>
+    </comment>
+    <comment ref="D114" authorId="33" shapeId="0" xr:uid="{57A1DC0A-EE99-4234-956B-D3D539E247D2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    2.47</t>
+      </text>
+    </comment>
+    <comment ref="C132" authorId="34" shapeId="0" xr:uid="{6A76EE3B-C387-4163-9F3C-FB0E2A3FC832}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C133" authorId="35" shapeId="0" xr:uid="{1BEC152C-AF76-4D09-96C4-428467D6EEFC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C134" authorId="36" shapeId="0" xr:uid="{84E626F7-AC5A-4F56-A4B2-D0E1A9743767}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C135" authorId="37" shapeId="0" xr:uid="{3A038104-FDE5-49A1-AE4D-B34CBE0D03E8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C136" authorId="38" shapeId="0" xr:uid="{F3651E96-7140-40F0-B5B3-5A8DFFAA74D2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C137" authorId="39" shapeId="0" xr:uid="{1B9BC5EE-115B-4D19-83DF-86E6B08533A1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C138" authorId="40" shapeId="0" xr:uid="{21E6DD69-24B5-459C-8838-2C80EE6BD7F6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C139" authorId="41" shapeId="0" xr:uid="{A0C337F8-7F85-465B-8704-BE05347AF1E5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C140" authorId="42" shapeId="0" xr:uid="{1B69D9A0-E7A5-42A4-A0EC-05A4CC30A2B7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C141" authorId="43" shapeId="0" xr:uid="{4FECB2B3-5320-429C-B32F-5706DD76F210}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C142" authorId="44" shapeId="0" xr:uid="{FDFBE7AB-3414-43AD-A8EF-2DC20ADB7490}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C143" authorId="45" shapeId="0" xr:uid="{610D365D-1702-411E-BE3B-309163BF3A01}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D144" authorId="46" shapeId="0" xr:uid="{2959FE2C-3CD0-48C3-923C-58406CF82371}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="E144" authorId="47" shapeId="0" xr:uid="{F6748C24-E61B-4FD9-A620-6D6C700450ED}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D145" authorId="48" shapeId="0" xr:uid="{E0DE145C-1C08-4F6D-B775-D05C65817CD3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="E145" authorId="49" shapeId="0" xr:uid="{94B2817A-6B36-4423-AF10-7025D51D0517}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D146" authorId="50" shapeId="0" xr:uid="{13C5454F-D9C7-46F1-9FD8-455425DF12D9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="E146" authorId="51" shapeId="0" xr:uid="{80021632-2004-4F2C-AC7E-B474FBB896A5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D147" authorId="52" shapeId="0" xr:uid="{2533C91C-677C-425E-B6DD-D6C23B4F93A9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="E147" authorId="53" shapeId="0" xr:uid="{629B2D79-DA5E-4307-BC82-B85558E2C75A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D148" authorId="54" shapeId="0" xr:uid="{0E637443-548C-4ED3-91E7-206ACC3D25F0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="E148" authorId="55" shapeId="0" xr:uid="{E2A67424-D55D-4B95-B514-A6DB5B0F13E1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D149" authorId="56" shapeId="0" xr:uid="{534A99F1-C91D-48D9-ABF7-DC73FBD2A4F0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="9">
   <si>
     <t>temperate</t>
   </si>
@@ -69,7 +593,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +618,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,11 +645,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,7 +704,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Pablo Esteban Gutiérrez-Fonseca (he/him)" id="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" userId="S::pgutierr@uvm.edu::25bdc618-995f-415b-9b28-31563f05eb38" providerId="AD"/>
+  <person displayName="Reilly Connelly" id="{20AF4B58-97EA-4B9D-BFD6-3952093D6C70}" userId="S::rbconnel@uvm.edu::7bbe1f05-ee46-4c21-802d-b1ede6324a9f" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,12 +1025,189 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D6" dT="2024-10-26T01:21:56.57" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{353D25D8-458D-4D91-B805-D8D04EB3DC60}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D7" dT="2024-10-26T01:32:54.46" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{BA6D1512-508B-4F6F-8803-95FDC2E67A81}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-10-26T01:32:58.22" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{B0852222-F33B-4347-9B00-16E17E25A83B}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D9" dT="2024-10-26T01:33:02.52" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{D96F93D1-A655-43B2-8425-2296193FCE26}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D10" dT="2024-10-26T01:33:06.03" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{A70AC16E-65F1-434C-A0F8-A836ABEDC4F3}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D11" dT="2024-10-26T01:33:13.81" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{DD11D571-4FD7-43EC-8093-3C07550A2239}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D12" dT="2024-10-26T01:33:17.37" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{3DBC7CAB-214E-4688-AE0A-3FBC75DC5A8B}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D13" dT="2024-10-26T01:33:24.43" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{5209BD86-F01E-4874-A4B8-DF590E1255E6}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D14" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{895A088E-7D31-40F8-AB15-36DBB74B14DF}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D15" dT="2024-10-26T01:33:38.23" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{A84A43E4-F0F3-4BB7-A18F-DC53130D5917}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D16" dT="2024-10-26T01:33:42.22" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{B731ED93-4831-4746-A60A-C92593F3C576}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D17" dT="2024-10-26T01:33:47.22" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{532F7D56-D7F0-42A8-AB1D-18D48B358FF1}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="E24" dT="2024-10-25T00:53:16.21" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{445D034E-E89E-484D-88D7-B1B622E6A158}">
+    <text>I changed this value, is this correct?</text>
+  </threadedComment>
+  <threadedComment ref="C81" dT="2024-11-03T18:02:13.27" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{8E916941-877B-4BF5-9451-DA49C666B604}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C82" dT="2024-11-05T01:51:48.99" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{294BCD28-DA51-42D4-A6FA-430EFD0A5C22}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C83" dT="2024-11-05T01:51:56.05" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{FBA175BA-42DE-487E-B4EB-15CC8259491E}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C84" dT="2024-11-05T01:52:02.26" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{58DD036F-3998-4767-9A85-AF610C615D2B}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C85" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{82F3CD69-CC27-4A3B-ACC1-5009D535C125}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C86" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{2E083CC9-57D3-4F31-B069-77CD08AB23CF}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C87" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{BBBC0C69-0152-4FE7-B245-57B72B22CBDA}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C88" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{CE78F546-48FF-46C2-9D19-7B924B701984}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C89" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{073A9C58-FD3E-4711-B54D-615715066900}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C90" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{01DD39E7-3A89-4209-A6F8-174843B0CA8B}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C91" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{DE4A63B9-ABCC-4BE1-B783-07F28192CFDA}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C92" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{76C54CD6-60C7-4C18-94AE-4ACB7B3BEC4A}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C93" dT="2024-11-03T18:02:13.27" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{9F2739A9-A474-47C2-9780-ECE84DF0B188}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C94" dT="2024-11-03T18:02:20.11" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{CD5367E9-9D0F-4C7C-BA97-99DA0E3B3FE6}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C95" dT="2024-11-03T18:02:25.36" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{57661739-3E38-4CEC-BC80-ACEE361E8725}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C96" dT="2024-11-03T18:02:29.76" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{EC4618DF-1176-4D13-B596-335907427AB4}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C97" dT="2024-11-03T18:02:35.42" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{D86B5F8A-2972-4FB7-B2F1-F2296966E412}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C98" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{E85FD33A-74D6-40C2-8E7A-46BA24CD57E7}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D110" dT="2024-10-23T01:04:50.70" personId="{20AF4B58-97EA-4B9D-BFD6-3952093D6C70}" id="{ABCCE2CE-16F7-4433-8339-70FE55B6E96B}">
+    <text xml:space="preserve">Paper says 1.77 but that’s wrong?
+</text>
+  </threadedComment>
+  <threadedComment ref="D113" dT="2024-10-23T01:05:57.45" personId="{20AF4B58-97EA-4B9D-BFD6-3952093D6C70}" id="{35DC896F-752E-46E5-AF3A-CCEEB410268C}">
+    <text>4.33</text>
+  </threadedComment>
+  <threadedComment ref="D114" dT="2024-10-23T01:06:08.42" personId="{20AF4B58-97EA-4B9D-BFD6-3952093D6C70}" id="{57A1DC0A-EE99-4234-956B-D3D539E247D2}">
+    <text>2.47</text>
+  </threadedComment>
+  <threadedComment ref="C132" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{6A76EE3B-C387-4163-9F3C-FB0E2A3FC832}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C133" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{1BEC152C-AF76-4D09-96C4-428467D6EEFC}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C134" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{84E626F7-AC5A-4F56-A4B2-D0E1A9743767}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C135" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{3A038104-FDE5-49A1-AE4D-B34CBE0D03E8}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C136" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{F3651E96-7140-40F0-B5B3-5A8DFFAA74D2}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C137" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{1B9BC5EE-115B-4D19-83DF-86E6B08533A1}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C138" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{21E6DD69-24B5-459C-8838-2C80EE6BD7F6}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C139" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{A0C337F8-7F85-465B-8704-BE05347AF1E5}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C140" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{1B69D9A0-E7A5-42A4-A0EC-05A4CC30A2B7}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C141" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{4FECB2B3-5320-429C-B32F-5706DD76F210}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C142" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{FDFBE7AB-3414-43AD-A8EF-2DC20ADB7490}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C143" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{610D365D-1702-411E-BE3B-309163BF3A01}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D144" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{2959FE2C-3CD0-48C3-923C-58406CF82371}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="E144" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{F6748C24-E61B-4FD9-A620-6D6C700450ED}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D145" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{E0DE145C-1C08-4F6D-B775-D05C65817CD3}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="E145" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{94B2817A-6B36-4423-AF10-7025D51D0517}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D146" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{13C5454F-D9C7-46F1-9FD8-455425DF12D9}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="E146" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{80021632-2004-4F2C-AC7E-B474FBB896A5}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D147" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{2533C91C-677C-425E-B6DD-D6C23B4F93A9}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="E147" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{629B2D79-DA5E-4307-BC82-B85558E2C75A}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D148" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{0E637443-548C-4ED3-91E7-206ACC3D25F0}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="E148" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{E2A67424-D55D-4B95-B514-A6DB5B0F13E1}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D149" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{534A99F1-C91D-48D9-ABF7-DC73FBD2A4F0}">
+    <text>Estimate for us</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A3AA7B-97F7-4483-9AE3-B4306FC62D97}">
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,4 +3887,2794 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15592AEE-C863-429D-AF74-6168818CDC2E}">
+  <dimension ref="A1:F163"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C163"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4">
+        <v>126</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4">
+        <v>115</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>65</v>
+      </c>
+      <c r="C4" s="6">
+        <v>238</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3.66</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4">
+        <v>217</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.66</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.5294117647058822</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2.0714285714285716</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>87</v>
+      </c>
+      <c r="C18" s="4">
+        <v>238</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2.74</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>85</v>
+      </c>
+      <c r="C19" s="6">
+        <v>228</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>88</v>
+      </c>
+      <c r="C20" s="4">
+        <v>274</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3.11</v>
+      </c>
+      <c r="E20" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <v>78</v>
+      </c>
+      <c r="C21" s="4">
+        <v>234</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>106</v>
+      </c>
+      <c r="C22" s="4">
+        <v>261</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2.46</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11">
+        <v>107</v>
+      </c>
+      <c r="C23" s="4">
+        <v>261</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2.44</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>27.75</v>
+      </c>
+      <c r="C24" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="D24" s="12">
+        <v>3.4414414414414414</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>114.4</v>
+      </c>
+      <c r="D25" s="12">
+        <v>3.52</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <v>38.75</v>
+      </c>
+      <c r="C26" s="4">
+        <v>142.25</v>
+      </c>
+      <c r="D26" s="12">
+        <v>3.6709677419354838</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>149</v>
+      </c>
+      <c r="D27" s="12">
+        <v>3.6790123456790123</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4">
+        <v>16</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4">
+        <v>19</v>
+      </c>
+      <c r="C29" s="4">
+        <v>51</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>19</v>
+      </c>
+      <c r="C30" s="4">
+        <v>67</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3.53</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="10">
+        <v>39</v>
+      </c>
+      <c r="C31" s="8">
+        <v>70</v>
+      </c>
+      <c r="D31" s="9">
+        <v>6.96</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="10">
+        <v>39</v>
+      </c>
+      <c r="C32" s="8">
+        <v>62</v>
+      </c>
+      <c r="D32" s="9">
+        <v>5.07</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6">
+        <v>43</v>
+      </c>
+      <c r="C33" s="8">
+        <v>86</v>
+      </c>
+      <c r="D33" s="9">
+        <v>6.92</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="10">
+        <v>23</v>
+      </c>
+      <c r="C34" s="8">
+        <v>34</v>
+      </c>
+      <c r="D34" s="9">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10">
+        <v>44</v>
+      </c>
+      <c r="C35" s="8">
+        <v>68</v>
+      </c>
+      <c r="D35" s="9">
+        <v>7.29</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="10">
+        <v>19</v>
+      </c>
+      <c r="C36" s="8">
+        <v>32</v>
+      </c>
+      <c r="D36" s="9">
+        <v>4.96</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="8">
+        <v>18</v>
+      </c>
+      <c r="C37" s="8">
+        <v>28</v>
+      </c>
+      <c r="D37" s="9">
+        <v>3.19</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="8">
+        <v>15</v>
+      </c>
+      <c r="C38" s="8">
+        <v>21</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="8">
+        <v>32</v>
+      </c>
+      <c r="C39" s="8">
+        <v>45</v>
+      </c>
+      <c r="D39" s="9">
+        <v>5.08</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="8">
+        <v>14</v>
+      </c>
+      <c r="C40" s="8">
+        <v>20</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2.66</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="8">
+        <v>57</v>
+      </c>
+      <c r="C41" s="8">
+        <v>114</v>
+      </c>
+      <c r="D41" s="9">
+        <v>5.77</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="8">
+        <v>41</v>
+      </c>
+      <c r="C42" s="8">
+        <v>81</v>
+      </c>
+      <c r="D42" s="9">
+        <v>3.64</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="8">
+        <v>48</v>
+      </c>
+      <c r="C43" s="8">
+        <v>76</v>
+      </c>
+      <c r="D43" s="9">
+        <v>4.25</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="8">
+        <v>39</v>
+      </c>
+      <c r="C44" s="8">
+        <v>66</v>
+      </c>
+      <c r="D44" s="9">
+        <v>3</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="8">
+        <v>30</v>
+      </c>
+      <c r="C45" s="8">
+        <v>41</v>
+      </c>
+      <c r="D45" s="9">
+        <v>2.99</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="8">
+        <v>35</v>
+      </c>
+      <c r="C46" s="8">
+        <v>58</v>
+      </c>
+      <c r="D46" s="9">
+        <v>3.53</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="8">
+        <v>29</v>
+      </c>
+      <c r="C47" s="8">
+        <v>37</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3.34</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="8">
+        <v>21</v>
+      </c>
+      <c r="C48" s="8">
+        <v>21</v>
+      </c>
+      <c r="D48" s="9">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="13">
+        <v>12</v>
+      </c>
+      <c r="C49" s="13">
+        <v>9</v>
+      </c>
+      <c r="D49" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="13">
+        <v>28</v>
+      </c>
+      <c r="C50" s="13">
+        <v>34</v>
+      </c>
+      <c r="D50" s="14">
+        <v>2.64</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="13">
+        <v>96</v>
+      </c>
+      <c r="C51" s="13">
+        <v>589</v>
+      </c>
+      <c r="D51" s="14">
+        <v>6.14</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="13">
+        <v>70</v>
+      </c>
+      <c r="C52" s="13">
+        <v>374</v>
+      </c>
+      <c r="D52" s="14">
+        <v>5.34</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="10">
+        <v>107</v>
+      </c>
+      <c r="C53" s="10">
+        <v>967</v>
+      </c>
+      <c r="D53" s="12">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="10">
+        <v>72</v>
+      </c>
+      <c r="C54" s="10">
+        <v>524</v>
+      </c>
+      <c r="D54" s="12">
+        <v>7.28</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="10">
+        <v>28</v>
+      </c>
+      <c r="C55" s="10">
+        <v>156</v>
+      </c>
+      <c r="D55" s="12">
+        <v>5.57</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="10">
+        <v>41</v>
+      </c>
+      <c r="C56" s="10">
+        <v>170</v>
+      </c>
+      <c r="D56" s="12">
+        <v>4.1463414634146343</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0.10113027959547888</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="10">
+        <v>117</v>
+      </c>
+      <c r="C57" s="10">
+        <v>345</v>
+      </c>
+      <c r="D57" s="12">
+        <v>3</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="10">
+        <v>15</v>
+      </c>
+      <c r="C58" s="10">
+        <v>18</v>
+      </c>
+      <c r="D58" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="10">
+        <v>10</v>
+      </c>
+      <c r="C59" s="10">
+        <v>13</v>
+      </c>
+      <c r="D59" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="10">
+        <v>21</v>
+      </c>
+      <c r="C60" s="10">
+        <v>40</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="10">
+        <v>63</v>
+      </c>
+      <c r="C61" s="10">
+        <v>156</v>
+      </c>
+      <c r="D61" s="12">
+        <v>2.48</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="10">
+        <v>43</v>
+      </c>
+      <c r="C62" s="10">
+        <v>88</v>
+      </c>
+      <c r="D62" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="10">
+        <v>38</v>
+      </c>
+      <c r="C63" s="10">
+        <v>109</v>
+      </c>
+      <c r="D63" s="12">
+        <v>2.87</v>
+      </c>
+      <c r="E63" s="12">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="10">
+        <v>38</v>
+      </c>
+      <c r="C64" s="10">
+        <v>81</v>
+      </c>
+      <c r="D64" s="12">
+        <v>2.13</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="10">
+        <v>47</v>
+      </c>
+      <c r="C65" s="10">
+        <v>124</v>
+      </c>
+      <c r="D65" s="12">
+        <v>2.64</v>
+      </c>
+      <c r="E65" s="12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="10">
+        <v>48</v>
+      </c>
+      <c r="C66" s="10">
+        <v>163</v>
+      </c>
+      <c r="D66" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="10">
+        <v>50</v>
+      </c>
+      <c r="C67" s="10">
+        <v>230</v>
+      </c>
+      <c r="D67" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="10">
+        <v>55</v>
+      </c>
+      <c r="C68" s="10">
+        <v>193</v>
+      </c>
+      <c r="D68" s="12">
+        <v>3.51</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="10">
+        <v>63</v>
+      </c>
+      <c r="C69" s="10">
+        <v>271</v>
+      </c>
+      <c r="D69" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="E69" s="12">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="10">
+        <v>44</v>
+      </c>
+      <c r="C70" s="10">
+        <v>219</v>
+      </c>
+      <c r="D70" s="12">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="10">
+        <v>50</v>
+      </c>
+      <c r="C71" s="10">
+        <v>148</v>
+      </c>
+      <c r="D71" s="12">
+        <v>2.96</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="10">
+        <v>39</v>
+      </c>
+      <c r="C72" s="10">
+        <v>165</v>
+      </c>
+      <c r="D72" s="12">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="10">
+        <v>63</v>
+      </c>
+      <c r="C73" s="10">
+        <v>134</v>
+      </c>
+      <c r="D73" s="12">
+        <v>2.13</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="10">
+        <v>45</v>
+      </c>
+      <c r="C74" s="10">
+        <v>152</v>
+      </c>
+      <c r="D74" s="12">
+        <v>3.38</v>
+      </c>
+      <c r="E74" s="12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="10">
+        <v>59</v>
+      </c>
+      <c r="C75" s="10">
+        <v>183</v>
+      </c>
+      <c r="D75" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="E75" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="10">
+        <v>52</v>
+      </c>
+      <c r="C76" s="10">
+        <v>184</v>
+      </c>
+      <c r="D76" s="12">
+        <v>3.54</v>
+      </c>
+      <c r="E76" s="12">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="13">
+        <v>29</v>
+      </c>
+      <c r="C77" s="13">
+        <v>120</v>
+      </c>
+      <c r="D77" s="14">
+        <v>4.03</v>
+      </c>
+      <c r="E77" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="13">
+        <v>35</v>
+      </c>
+      <c r="C78" s="6">
+        <v>130</v>
+      </c>
+      <c r="D78" s="9">
+        <v>3.71</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="13">
+        <v>36</v>
+      </c>
+      <c r="C79" s="10">
+        <v>130</v>
+      </c>
+      <c r="D79" s="9">
+        <v>3.61</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="13">
+        <v>33</v>
+      </c>
+      <c r="C80" s="10">
+        <v>143</v>
+      </c>
+      <c r="D80" s="9">
+        <v>4.33</v>
+      </c>
+      <c r="E80" s="12">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="13">
+        <v>31</v>
+      </c>
+      <c r="C81" s="13">
+        <v>128.03</v>
+      </c>
+      <c r="D81" s="14">
+        <v>4.13</v>
+      </c>
+      <c r="E81" s="14">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="13">
+        <v>32</v>
+      </c>
+      <c r="C82" s="13">
+        <v>118.08</v>
+      </c>
+      <c r="D82" s="14">
+        <v>3.69</v>
+      </c>
+      <c r="E82" s="14">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="13">
+        <v>40</v>
+      </c>
+      <c r="C83" s="13">
+        <v>192</v>
+      </c>
+      <c r="D83" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="E83" s="14">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="13">
+        <v>46</v>
+      </c>
+      <c r="C84" s="13">
+        <v>253.92</v>
+      </c>
+      <c r="D84" s="14">
+        <v>5.52</v>
+      </c>
+      <c r="E84" s="14">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="13">
+        <v>36</v>
+      </c>
+      <c r="C85" s="13">
+        <v>160.91999999999999</v>
+      </c>
+      <c r="D85" s="14">
+        <v>4.47</v>
+      </c>
+      <c r="E85" s="14">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="13">
+        <v>39</v>
+      </c>
+      <c r="C86" s="13">
+        <v>152.1</v>
+      </c>
+      <c r="D86" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="E86" s="14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="13">
+        <v>43</v>
+      </c>
+      <c r="C87" s="13">
+        <v>206.82999999999998</v>
+      </c>
+      <c r="D87" s="14">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E87" s="14">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="13">
+        <v>45</v>
+      </c>
+      <c r="C88" s="13">
+        <v>220.95000000000002</v>
+      </c>
+      <c r="D88" s="14">
+        <v>4.91</v>
+      </c>
+      <c r="E88" s="14">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="13">
+        <v>34</v>
+      </c>
+      <c r="C89" s="13">
+        <v>146.88</v>
+      </c>
+      <c r="D89" s="14">
+        <v>4.32</v>
+      </c>
+      <c r="E89" s="14">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="13">
+        <v>41</v>
+      </c>
+      <c r="C90" s="13">
+        <v>184.09</v>
+      </c>
+      <c r="D90" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="E90" s="14">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="13">
+        <v>40</v>
+      </c>
+      <c r="C91" s="13">
+        <v>191.20000000000002</v>
+      </c>
+      <c r="D91" s="14">
+        <v>4.78</v>
+      </c>
+      <c r="E91" s="14">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="13">
+        <v>45</v>
+      </c>
+      <c r="C92" s="13">
+        <v>226.8</v>
+      </c>
+      <c r="D92" s="14">
+        <v>5.04</v>
+      </c>
+      <c r="E92" s="14">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="10">
+        <v>40</v>
+      </c>
+      <c r="C93" s="13">
+        <v>206.8</v>
+      </c>
+      <c r="D93" s="9">
+        <v>5.17</v>
+      </c>
+      <c r="E93" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="8">
+        <v>29</v>
+      </c>
+      <c r="C94" s="13">
+        <v>79.75</v>
+      </c>
+      <c r="D94" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="E94" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="8">
+        <v>26</v>
+      </c>
+      <c r="C95" s="13">
+        <v>83.98</v>
+      </c>
+      <c r="D95" s="9">
+        <v>3.23</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="8">
+        <v>31</v>
+      </c>
+      <c r="C96" s="13">
+        <v>110.98</v>
+      </c>
+      <c r="D96" s="9">
+        <v>3.58</v>
+      </c>
+      <c r="E96" s="9">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="13">
+        <v>31</v>
+      </c>
+      <c r="C97" s="13">
+        <v>141.97999999999999</v>
+      </c>
+      <c r="D97" s="14">
+        <v>4.58</v>
+      </c>
+      <c r="E97" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="13">
+        <v>35</v>
+      </c>
+      <c r="C98" s="13">
+        <v>178.85000000000002</v>
+      </c>
+      <c r="D98" s="14">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E98" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="4">
+        <v>102</v>
+      </c>
+      <c r="C99" s="4">
+        <v>675</v>
+      </c>
+      <c r="D99" s="5">
+        <v>6.37</v>
+      </c>
+      <c r="E99" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="4">
+        <v>129</v>
+      </c>
+      <c r="C100" s="4">
+        <v>879</v>
+      </c>
+      <c r="D100" s="5">
+        <v>7.53</v>
+      </c>
+      <c r="E100" s="5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="4">
+        <v>100</v>
+      </c>
+      <c r="C101" s="4">
+        <v>596</v>
+      </c>
+      <c r="D101" s="5">
+        <v>5.83</v>
+      </c>
+      <c r="E101" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="4">
+        <v>131</v>
+      </c>
+      <c r="C102" s="4">
+        <v>918</v>
+      </c>
+      <c r="D102" s="5">
+        <v>7.01</v>
+      </c>
+      <c r="E102" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="4">
+        <v>93</v>
+      </c>
+      <c r="C103" s="4">
+        <v>544</v>
+      </c>
+      <c r="D103" s="5">
+        <v>5.85</v>
+      </c>
+      <c r="E103" s="5">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="10">
+        <v>126</v>
+      </c>
+      <c r="C104" s="10">
+        <v>854</v>
+      </c>
+      <c r="D104" s="12">
+        <v>6.78</v>
+      </c>
+      <c r="E104" s="12">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="13">
+        <v>113</v>
+      </c>
+      <c r="C105" s="13">
+        <v>540</v>
+      </c>
+      <c r="D105" s="14">
+        <v>4.78</v>
+      </c>
+      <c r="E105" s="14">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="13">
+        <v>133</v>
+      </c>
+      <c r="C106" s="13">
+        <v>824</v>
+      </c>
+      <c r="D106" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="E106" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="13">
+        <v>89</v>
+      </c>
+      <c r="C107" s="13">
+        <v>365</v>
+      </c>
+      <c r="D107" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E107" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="13">
+        <v>77</v>
+      </c>
+      <c r="C108" s="13">
+        <v>266</v>
+      </c>
+      <c r="D108" s="14">
+        <v>3.46</v>
+      </c>
+      <c r="E108" s="14">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="10">
+        <v>31</v>
+      </c>
+      <c r="C109" s="10">
+        <v>77</v>
+      </c>
+      <c r="D109" s="12">
+        <v>2.4838709677419355</v>
+      </c>
+      <c r="E109" s="12">
+        <v>8.0124869927159212E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="10">
+        <v>17</v>
+      </c>
+      <c r="C110" s="10">
+        <v>39</v>
+      </c>
+      <c r="D110" s="12">
+        <v>2.2941176470588234</v>
+      </c>
+      <c r="E110" s="12">
+        <v>0.13494809688581316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="6">
+        <v>32</v>
+      </c>
+      <c r="C111" s="6">
+        <v>87</v>
+      </c>
+      <c r="D111" s="7">
+        <v>2.71875</v>
+      </c>
+      <c r="E111" s="7">
+        <v>8.49609375E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="10">
+        <v>24</v>
+      </c>
+      <c r="C112" s="10">
+        <v>75</v>
+      </c>
+      <c r="D112" s="12">
+        <v>3.125</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0.13020833333333334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="10">
+        <v>33</v>
+      </c>
+      <c r="C113" s="10">
+        <v>123</v>
+      </c>
+      <c r="D113" s="12">
+        <v>3.7272727272727271</v>
+      </c>
+      <c r="E113" s="12">
+        <v>0.11294765840220386</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="10">
+        <v>22</v>
+      </c>
+      <c r="C114" s="10">
+        <v>42</v>
+      </c>
+      <c r="D114" s="12">
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="E114" s="12">
+        <v>8.6776859504132234E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="8">
+        <v>39</v>
+      </c>
+      <c r="C115" s="8">
+        <v>146</v>
+      </c>
+      <c r="D115" s="9">
+        <v>3.74</v>
+      </c>
+      <c r="E115" s="9">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="8">
+        <v>35</v>
+      </c>
+      <c r="C116" s="8">
+        <v>110</v>
+      </c>
+      <c r="D116" s="9">
+        <v>3.14</v>
+      </c>
+      <c r="E116" s="9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="8">
+        <v>32</v>
+      </c>
+      <c r="C117" s="8">
+        <v>107</v>
+      </c>
+      <c r="D117" s="9">
+        <v>3.34</v>
+      </c>
+      <c r="E117" s="9">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="8">
+        <v>31</v>
+      </c>
+      <c r="C118" s="8">
+        <v>102</v>
+      </c>
+      <c r="D118" s="9">
+        <v>3.29</v>
+      </c>
+      <c r="E118" s="9">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="8">
+        <v>37</v>
+      </c>
+      <c r="C119" s="8">
+        <v>120</v>
+      </c>
+      <c r="D119" s="9">
+        <v>3.24</v>
+      </c>
+      <c r="E119" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="8">
+        <v>32</v>
+      </c>
+      <c r="C120" s="8">
+        <v>101</v>
+      </c>
+      <c r="D120" s="9">
+        <v>3.16</v>
+      </c>
+      <c r="E120" s="9">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="8">
+        <v>33</v>
+      </c>
+      <c r="C121" s="8">
+        <v>104</v>
+      </c>
+      <c r="D121" s="9">
+        <v>3.15</v>
+      </c>
+      <c r="E121" s="9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="4">
+        <v>36</v>
+      </c>
+      <c r="C122" s="4">
+        <v>152</v>
+      </c>
+      <c r="D122" s="5">
+        <v>4.22</v>
+      </c>
+      <c r="E122" s="12">
+        <v>0.11728395061728394</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="10">
+        <v>11</v>
+      </c>
+      <c r="C123" s="10">
+        <v>42</v>
+      </c>
+      <c r="D123" s="12">
+        <v>3.8181818181818183</v>
+      </c>
+      <c r="E123" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="10">
+        <v>7</v>
+      </c>
+      <c r="C124" s="10">
+        <v>29</v>
+      </c>
+      <c r="D124" s="12">
+        <v>4.1428571428571432</v>
+      </c>
+      <c r="E124" s="12">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="10">
+        <v>13</v>
+      </c>
+      <c r="C125" s="10">
+        <v>41</v>
+      </c>
+      <c r="D125" s="12">
+        <v>3.1538461538461537</v>
+      </c>
+      <c r="E125" s="12">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="10">
+        <v>12</v>
+      </c>
+      <c r="C126" s="10">
+        <v>44</v>
+      </c>
+      <c r="D126" s="12">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="E126" s="12">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="10">
+        <v>10</v>
+      </c>
+      <c r="C127" s="10">
+        <v>35</v>
+      </c>
+      <c r="D127" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="E127" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="10">
+        <v>10</v>
+      </c>
+      <c r="C128" s="10">
+        <v>30</v>
+      </c>
+      <c r="D128" s="12">
+        <v>3</v>
+      </c>
+      <c r="E128" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="10">
+        <v>9</v>
+      </c>
+      <c r="C129" s="10">
+        <v>26</v>
+      </c>
+      <c r="D129" s="12">
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="E129" s="12">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="10">
+        <v>12</v>
+      </c>
+      <c r="C130" s="10">
+        <v>38</v>
+      </c>
+      <c r="D130" s="12">
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="E130" s="12">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="10">
+        <v>9</v>
+      </c>
+      <c r="C131" s="10">
+        <v>23</v>
+      </c>
+      <c r="D131" s="12">
+        <v>2.5555555555555554</v>
+      </c>
+      <c r="E131" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="13">
+        <v>27</v>
+      </c>
+      <c r="C132" s="13">
+        <v>63.99</v>
+      </c>
+      <c r="D132" s="14">
+        <v>2.37</v>
+      </c>
+      <c r="E132" s="14">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="13">
+        <v>23</v>
+      </c>
+      <c r="C133" s="13">
+        <v>64.009</v>
+      </c>
+      <c r="D133" s="14">
+        <v>2.7829999999999999</v>
+      </c>
+      <c r="E133" s="14">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="13">
+        <v>19</v>
+      </c>
+      <c r="C134" s="13">
+        <v>52.003</v>
+      </c>
+      <c r="D134" s="14">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="E134" s="14">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="13">
+        <v>20</v>
+      </c>
+      <c r="C135" s="13">
+        <v>56</v>
+      </c>
+      <c r="D135" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="E135" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="13">
+        <v>24</v>
+      </c>
+      <c r="C136" s="13">
+        <v>73.007999999999996</v>
+      </c>
+      <c r="D136" s="14">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="E136" s="14">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="13">
+        <v>16</v>
+      </c>
+      <c r="C137" s="13">
+        <v>47.008000000000003</v>
+      </c>
+      <c r="D137" s="14">
+        <v>2.9380000000000002</v>
+      </c>
+      <c r="E137" s="14">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="13">
+        <v>26</v>
+      </c>
+      <c r="C138" s="13">
+        <v>82.992000000000004</v>
+      </c>
+      <c r="D138" s="14">
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="E138" s="14">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="13">
+        <v>23</v>
+      </c>
+      <c r="C139" s="13">
+        <v>68.010999999999996</v>
+      </c>
+      <c r="D139" s="14">
+        <v>2.9569999999999999</v>
+      </c>
+      <c r="E139" s="14">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="13">
+        <v>25</v>
+      </c>
+      <c r="C140" s="13">
+        <v>75</v>
+      </c>
+      <c r="D140" s="14">
+        <v>3</v>
+      </c>
+      <c r="E140" s="14">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="13">
+        <v>18</v>
+      </c>
+      <c r="C141" s="13">
+        <v>52.001999999999995</v>
+      </c>
+      <c r="D141" s="14">
+        <v>2.8889999999999998</v>
+      </c>
+      <c r="E141" s="14">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="13">
+        <v>27</v>
+      </c>
+      <c r="C142" s="13">
+        <v>77.003999999999991</v>
+      </c>
+      <c r="D142" s="14">
+        <v>2.8519999999999999</v>
+      </c>
+      <c r="E142" s="14">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="13">
+        <v>26</v>
+      </c>
+      <c r="C143" s="13">
+        <v>73.996000000000009</v>
+      </c>
+      <c r="D143" s="14">
+        <v>2.8460000000000001</v>
+      </c>
+      <c r="E143" s="14">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" s="15">
+        <v>74</v>
+      </c>
+      <c r="C144" s="15">
+        <v>837</v>
+      </c>
+      <c r="D144" s="5">
+        <v>11.310810810810811</v>
+      </c>
+      <c r="E144" s="5">
+        <v>0.15284879474068663</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="15">
+        <v>79</v>
+      </c>
+      <c r="C145" s="15">
+        <v>1003</v>
+      </c>
+      <c r="D145" s="5">
+        <v>12.69620253164557</v>
+      </c>
+      <c r="E145" s="5">
+        <v>0.16071142445120976</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="15">
+        <v>76</v>
+      </c>
+      <c r="C146" s="15">
+        <v>924</v>
+      </c>
+      <c r="D146" s="5">
+        <v>12.157894736842104</v>
+      </c>
+      <c r="E146" s="5">
+        <v>0.15997229916897507</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="15">
+        <v>44</v>
+      </c>
+      <c r="C147" s="15">
+        <v>402</v>
+      </c>
+      <c r="D147" s="5">
+        <v>9.1363636363636367</v>
+      </c>
+      <c r="E147" s="5">
+        <v>0.20764462809917356</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="15">
+        <v>58</v>
+      </c>
+      <c r="C148" s="15">
+        <v>506</v>
+      </c>
+      <c r="D148" s="5">
+        <v>8.7241379310344822</v>
+      </c>
+      <c r="E148" s="5">
+        <v>0.15041617122473247</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="15">
+        <v>25</v>
+      </c>
+      <c r="C149" s="15">
+        <v>129</v>
+      </c>
+      <c r="D149" s="5">
+        <v>5.16</v>
+      </c>
+      <c r="E149" s="5">
+        <v>0.2064</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="10">
+        <v>83</v>
+      </c>
+      <c r="C150" s="10">
+        <v>375</v>
+      </c>
+      <c r="D150" s="12">
+        <v>4.5180722891566267</v>
+      </c>
+      <c r="E150" s="12">
+        <v>5.4434605893453329E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="10">
+        <v>89</v>
+      </c>
+      <c r="C151" s="10">
+        <v>565</v>
+      </c>
+      <c r="D151" s="12">
+        <v>6.3483146067415728</v>
+      </c>
+      <c r="E151" s="12">
+        <v>7.1329377603837896E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="10">
+        <v>100</v>
+      </c>
+      <c r="C152" s="10">
+        <v>708</v>
+      </c>
+      <c r="D152" s="12">
+        <v>7.08</v>
+      </c>
+      <c r="E152" s="12">
+        <v>7.0800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="10">
+        <v>70</v>
+      </c>
+      <c r="C153" s="10">
+        <v>421</v>
+      </c>
+      <c r="D153" s="12">
+        <v>6.0142857142857142</v>
+      </c>
+      <c r="E153" s="12">
+        <v>8.5918367346938779E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="10">
+        <v>77</v>
+      </c>
+      <c r="C154" s="10">
+        <v>268</v>
+      </c>
+      <c r="D154" s="12">
+        <v>3.4805194805194803</v>
+      </c>
+      <c r="E154" s="12">
+        <v>4.5201551695058191E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="10">
+        <v>75</v>
+      </c>
+      <c r="C155" s="10">
+        <v>240</v>
+      </c>
+      <c r="D155" s="12">
+        <v>3.2</v>
+      </c>
+      <c r="E155" s="12">
+        <v>4.2666666666666665E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="10">
+        <v>66</v>
+      </c>
+      <c r="C156" s="10">
+        <v>187</v>
+      </c>
+      <c r="D156" s="12">
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="E156" s="12">
+        <v>4.2929292929292928E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="10">
+        <v>82</v>
+      </c>
+      <c r="C157" s="10">
+        <v>224</v>
+      </c>
+      <c r="D157" s="12">
+        <v>2.7317073170731709</v>
+      </c>
+      <c r="E157" s="12">
+        <v>3.3313503866745982E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="10">
+        <v>58</v>
+      </c>
+      <c r="C158" s="10">
+        <v>117</v>
+      </c>
+      <c r="D158" s="12">
+        <v>2.0172413793103448</v>
+      </c>
+      <c r="E158" s="12">
+        <v>3.4780023781212845E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="10">
+        <v>45</v>
+      </c>
+      <c r="C159" s="10">
+        <v>110</v>
+      </c>
+      <c r="D159" s="12">
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="E159" s="12">
+        <v>5.4320987654320987E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="10">
+        <v>76</v>
+      </c>
+      <c r="C160" s="10">
+        <v>155</v>
+      </c>
+      <c r="D160" s="12">
+        <v>2.0394736842105261</v>
+      </c>
+      <c r="E160" s="12">
+        <v>2.6835180055401663E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="10">
+        <v>142</v>
+      </c>
+      <c r="C161" s="10">
+        <v>1383</v>
+      </c>
+      <c r="D161" s="12">
+        <v>9.73943661971831</v>
+      </c>
+      <c r="E161" s="12">
+        <v>6.8587581829002181E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="10">
+        <v>102</v>
+      </c>
+      <c r="C162" s="10">
+        <v>697</v>
+      </c>
+      <c r="D162" s="12">
+        <v>6.83</v>
+      </c>
+      <c r="E162" s="12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="10">
+        <v>109</v>
+      </c>
+      <c r="C163" s="10">
+        <v>830</v>
+      </c>
+      <c r="D163" s="12">
+        <v>7.61</v>
+      </c>
+      <c r="E163" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/2024 Reilly Connelly/data.xlsx
+++ b/2024 Reilly Connelly/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2024 Reilly Connelly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC69CE80-ADB2-4F50-B7EF-EBFBEE6626AF}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF21AEF7-2339-4853-9954-CC7F7DCEF7C6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -37,6 +37,619 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7BCA88DB-5B8A-4368-BCCD-49B8CBB690F6}</author>
+    <author>tc={3A62828A-6C13-4773-93CA-354234748AED}</author>
+    <author>tc={7B28E2E3-4D12-4D88-9590-324A50DDD854}</author>
+    <author>tc={EA65923C-9B6D-4132-A2C4-8A0704F09C0C}</author>
+    <author>tc={464CC1A3-C583-4845-BC02-18A83FF5469B}</author>
+    <author>tc={33FBD832-60D8-4DE3-BC0F-9A2519C10F93}</author>
+    <author>tc={61FF6306-FB99-4E16-9A5B-3976A9443FC8}</author>
+    <author>tc={52DE5944-825B-47CD-AF90-FDF2CEE6A07C}</author>
+    <author>tc={7F0D3667-AD19-4F83-A8B1-73284396AC2E}</author>
+    <author>tc={A0531DAA-E2F5-4A1F-B56B-80A5E327262E}</author>
+    <author>tc={CEE47645-54D9-4C42-B46B-54732943EBF5}</author>
+    <author>tc={8C360879-F04E-47CC-9729-43EAFCCFBE7F}</author>
+    <author>tc={A046C24E-E61B-44AC-B968-D2CB69B2A4BA}</author>
+    <author>tc={54BA1C68-D7AE-4692-8907-0FCC0AC0D3C2}</author>
+    <author>tc={44E7D80F-E56F-40A8-B33C-3FDD345FF69B}</author>
+    <author>tc={9AA297F3-98D6-4693-888A-B9A8181A6EB0}</author>
+    <author>tc={4E2FD8BB-0F1B-479E-AD42-835B37E52849}</author>
+    <author>tc={E3EA648C-E545-44AE-ADE1-75E7D901776B}</author>
+    <author>tc={3B9C6470-99B5-413C-82C1-20908269547E}</author>
+    <author>tc={2649676F-36DC-495D-B8F8-72C9E9C9436B}</author>
+    <author>tc={6169754F-A244-4B4B-BD7F-8977C09D75C8}</author>
+    <author>tc={4D50A749-1191-4DDB-967E-11DCA597292E}</author>
+    <author>tc={06DAD80D-D6BD-4B1C-AD90-667871D822DE}</author>
+    <author>tc={2BFD1A75-5C0A-461E-8E6A-6D6CDFD99D6D}</author>
+    <author>tc={41972C44-FE01-45BC-A11B-D694C1FE6398}</author>
+    <author>tc={963433DD-0475-4C8C-8F9E-C220D06B855D}</author>
+    <author>tc={329A52F7-971A-4F93-83CB-8DA5B4F9ABA6}</author>
+    <author>tc={40A6A641-6C96-468E-A79E-F63648876B61}</author>
+    <author>tc={B90AF0A9-E83A-441D-9ED1-5189A92B55C4}</author>
+    <author>tc={71C2632B-31EF-481E-9CE7-57CFD0EF21A6}</author>
+    <author>tc={59A1B5EF-F00E-4ADD-BCC9-E0556E8E3C25}</author>
+    <author>tc={61C8B440-923A-4011-A3FC-CC20655F43C3}</author>
+    <author>tc={8BA3BA5D-135F-4475-A0B2-C28B2B112A7C}</author>
+    <author>tc={CD1BA07D-0837-4CBF-8C27-FAA72DEE28CA}</author>
+    <author>tc={E4DA6648-9A81-492A-B93A-201B490E8040}</author>
+    <author>tc={738DAAF2-78BC-41CC-9FC7-9396285D05CD}</author>
+    <author>tc={96EB6E6A-D20A-480A-9C7E-BFFC60976CD2}</author>
+    <author>tc={80986897-ECE5-4ADA-841B-733B4DABA93F}</author>
+    <author>tc={9823C03B-0640-4CFB-ACA0-8E7936D5BE9C}</author>
+    <author>tc={9A85784D-D2E0-441D-AEA4-4527AA4B7081}</author>
+    <author>tc={9E4CE488-EB8C-45BA-86CA-3CD130A667CA}</author>
+    <author>tc={366D9F51-1942-43E4-9B9E-614783768641}</author>
+    <author>tc={DE4FF794-8AAE-4D8F-A4B7-90CA99758644}</author>
+    <author>tc={B913B4F2-5DFD-4C7B-A89D-3B3DC2D08291}</author>
+    <author>tc={D4BB8CD0-42EE-4BC2-839D-D3EC53AA838A}</author>
+    <author>tc={F38D1C9E-F792-4015-9F99-DC8DD91890AA}</author>
+    <author>tc={C97BADC4-D9F4-4D4D-8290-599085C546C7}</author>
+    <author>tc={92206D71-C9C6-41D6-B90E-DFDA43C9E6BC}</author>
+    <author>tc={DCED5D5E-741B-4EA8-B6AF-27E3B8F7BA8F}</author>
+    <author>tc={A520119D-71B6-4B98-8745-189CFD283B9F}</author>
+    <author>tc={862493D8-EF67-40AF-8784-DB1D255F5924}</author>
+    <author>tc={97149970-C668-4546-924A-A3D3D287E641}</author>
+    <author>tc={DD9356A2-BA41-4C03-9935-0CD90F352F82}</author>
+    <author>tc={0E99374F-D64D-4A23-B2B0-E27F715C4FB7}</author>
+    <author>tc={406BF569-1FA7-4EDA-A2CF-D94305DDD9ED}</author>
+    <author>tc={EEF30445-F98C-4C7F-AEA5-63A967603774}</author>
+    <author>tc={F42D19B9-78CD-4302-846C-4207F312E67B}</author>
+    <author>tc={242C0B97-7E36-4FCE-8854-0B99D013BF6E}</author>
+    <author>tc={C0530927-AB7D-4E5B-840C-FF2350ACF042}</author>
+    <author>tc={04D64426-CB77-4A33-9B87-EE8603B20038}</author>
+    <author>tc={67E91B7A-4C84-43B0-8739-1C646FE8F062}</author>
+    <author>tc={72665AE1-D19A-4B08-9385-0CF0C4280AD4}</author>
+    <author>tc={AA8FCFA5-ABFC-483B-BB3E-4AC450510E9D}</author>
+    <author>tc={147F4167-B1E9-407C-BF29-9508690D9F0A}</author>
+    <author>tc={26A008E8-706A-4F9E-B960-2CB82DFBD0A1}</author>
+    <author>tc={A95D9405-4036-4D92-9801-376406393967}</author>
+    <author>tc={27B25422-614F-4303-8C70-FFE71705D428}</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{7BCA88DB-5B8A-4368-BCCD-49B8CBB690F6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{3A62828A-6C13-4773-93CA-354234748AED}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="2" shapeId="0" xr:uid="{7B28E2E3-4D12-4D88-9590-324A50DDD854}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="3" shapeId="0" xr:uid="{EA65923C-9B6D-4132-A2C4-8A0704F09C0C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="4" shapeId="0" xr:uid="{464CC1A3-C583-4845-BC02-18A83FF5469B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="5" shapeId="0" xr:uid="{33FBD832-60D8-4DE3-BC0F-9A2519C10F93}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="6" shapeId="0" xr:uid="{61FF6306-FB99-4E16-9A5B-3976A9443FC8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="7" shapeId="0" xr:uid="{52DE5944-825B-47CD-AF90-FDF2CEE6A07C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="8" shapeId="0" xr:uid="{7F0D3667-AD19-4F83-A8B1-73284396AC2E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="9" shapeId="0" xr:uid="{A0531DAA-E2F5-4A1F-B56B-80A5E327262E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="10" shapeId="0" xr:uid="{CEE47645-54D9-4C42-B46B-54732943EBF5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="11" shapeId="0" xr:uid="{8C360879-F04E-47CC-9729-43EAFCCFBE7F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="12" shapeId="0" xr:uid="{A046C24E-E61B-44AC-B968-D2CB69B2A4BA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I changed this value, is this correct?</t>
+      </text>
+    </comment>
+    <comment ref="C81" authorId="13" shapeId="0" xr:uid="{54BA1C68-D7AE-4692-8907-0FCC0AC0D3C2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C82" authorId="14" shapeId="0" xr:uid="{44E7D80F-E56F-40A8-B33C-3FDD345FF69B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C83" authorId="15" shapeId="0" xr:uid="{9AA297F3-98D6-4693-888A-B9A8181A6EB0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C84" authorId="16" shapeId="0" xr:uid="{4E2FD8BB-0F1B-479E-AD42-835B37E52849}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C85" authorId="17" shapeId="0" xr:uid="{E3EA648C-E545-44AE-ADE1-75E7D901776B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C86" authorId="18" shapeId="0" xr:uid="{3B9C6470-99B5-413C-82C1-20908269547E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C87" authorId="19" shapeId="0" xr:uid="{2649676F-36DC-495D-B8F8-72C9E9C9436B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C88" authorId="20" shapeId="0" xr:uid="{6169754F-A244-4B4B-BD7F-8977C09D75C8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C89" authorId="21" shapeId="0" xr:uid="{4D50A749-1191-4DDB-967E-11DCA597292E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C90" authorId="22" shapeId="0" xr:uid="{06DAD80D-D6BD-4B1C-AD90-667871D822DE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C91" authorId="23" shapeId="0" xr:uid="{2BFD1A75-5C0A-461E-8E6A-6D6CDFD99D6D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C92" authorId="24" shapeId="0" xr:uid="{41972C44-FE01-45BC-A11B-D694C1FE6398}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C93" authorId="25" shapeId="0" xr:uid="{963433DD-0475-4C8C-8F9E-C220D06B855D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C94" authorId="26" shapeId="0" xr:uid="{329A52F7-971A-4F93-83CB-8DA5B4F9ABA6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C95" authorId="27" shapeId="0" xr:uid="{40A6A641-6C96-468E-A79E-F63648876B61}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C96" authorId="28" shapeId="0" xr:uid="{B90AF0A9-E83A-441D-9ED1-5189A92B55C4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C97" authorId="29" shapeId="0" xr:uid="{71C2632B-31EF-481E-9CE7-57CFD0EF21A6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C98" authorId="30" shapeId="0" xr:uid="{59A1B5EF-F00E-4ADD-BCC9-E0556E8E3C25}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D110" authorId="31" shapeId="0" xr:uid="{61C8B440-923A-4011-A3FC-CC20655F43C3}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Paper says 1.77 but that’s wrong?
+</t>
+      </text>
+    </comment>
+    <comment ref="D113" authorId="32" shapeId="0" xr:uid="{8BA3BA5D-135F-4475-A0B2-C28B2B112A7C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    4.33</t>
+      </text>
+    </comment>
+    <comment ref="D114" authorId="33" shapeId="0" xr:uid="{CD1BA07D-0837-4CBF-8C27-FAA72DEE28CA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    2.47</t>
+      </text>
+    </comment>
+    <comment ref="C140" authorId="34" shapeId="0" xr:uid="{E4DA6648-9A81-492A-B93A-201B490E8040}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C141" authorId="35" shapeId="0" xr:uid="{738DAAF2-78BC-41CC-9FC7-9396285D05CD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C142" authorId="36" shapeId="0" xr:uid="{96EB6E6A-D20A-480A-9C7E-BFFC60976CD2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C143" authorId="37" shapeId="0" xr:uid="{80986897-ECE5-4ADA-841B-733B4DABA93F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C144" authorId="38" shapeId="0" xr:uid="{9823C03B-0640-4CFB-ACA0-8E7936D5BE9C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C145" authorId="39" shapeId="0" xr:uid="{9A85784D-D2E0-441D-AEA4-4527AA4B7081}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C146" authorId="40" shapeId="0" xr:uid="{9E4CE488-EB8C-45BA-86CA-3CD130A667CA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C147" authorId="41" shapeId="0" xr:uid="{366D9F51-1942-43E4-9B9E-614783768641}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C148" authorId="42" shapeId="0" xr:uid="{DE4FF794-8AAE-4D8F-A4B7-90CA99758644}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C149" authorId="43" shapeId="0" xr:uid="{B913B4F2-5DFD-4C7B-A89D-3B3DC2D08291}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C159" authorId="44" shapeId="0" xr:uid="{D4BB8CD0-42EE-4BC2-839D-D3EC53AA838A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C160" authorId="45" shapeId="0" xr:uid="{F38D1C9E-F792-4015-9F99-DC8DD91890AA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C161" authorId="46" shapeId="0" xr:uid="{C97BADC4-D9F4-4D4D-8290-599085C546C7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C162" authorId="47" shapeId="0" xr:uid="{92206D71-C9C6-41D6-B90E-DFDA43C9E6BC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C163" authorId="48" shapeId="0" xr:uid="{DCED5D5E-741B-4EA8-B6AF-27E3B8F7BA8F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C164" authorId="49" shapeId="0" xr:uid="{A520119D-71B6-4B98-8745-189CFD283B9F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C165" authorId="50" shapeId="0" xr:uid="{862493D8-EF67-40AF-8784-DB1D255F5924}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C166" authorId="51" shapeId="0" xr:uid="{97149970-C668-4546-924A-A3D3D287E641}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C167" authorId="52" shapeId="0" xr:uid="{DD9356A2-BA41-4C03-9935-0CD90F352F82}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C168" authorId="53" shapeId="0" xr:uid="{0E99374F-D64D-4A23-B2B0-E27F715C4FB7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C169" authorId="54" shapeId="0" xr:uid="{406BF569-1FA7-4EDA-A2CF-D94305DDD9ED}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="C170" authorId="55" shapeId="0" xr:uid="{EEF30445-F98C-4C7F-AEA5-63A967603774}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D173" authorId="56" shapeId="0" xr:uid="{F42D19B9-78CD-4302-846C-4207F312E67B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="E173" authorId="57" shapeId="0" xr:uid="{242C0B97-7E36-4FCE-8854-0B99D013BF6E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D174" authorId="58" shapeId="0" xr:uid="{C0530927-AB7D-4E5B-840C-FF2350ACF042}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="E174" authorId="59" shapeId="0" xr:uid="{04D64426-CB77-4A33-9B87-EE8603B20038}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D175" authorId="60" shapeId="0" xr:uid="{67E91B7A-4C84-43B0-8739-1C646FE8F062}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="E175" authorId="61" shapeId="0" xr:uid="{72665AE1-D19A-4B08-9385-0CF0C4280AD4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D176" authorId="62" shapeId="0" xr:uid="{AA8FCFA5-ABFC-483B-BB3E-4AC450510E9D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="E176" authorId="63" shapeId="0" xr:uid="{147F4167-B1E9-407C-BF29-9508690D9F0A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D177" authorId="64" shapeId="0" xr:uid="{26A008E8-706A-4F9E-B960-2CB82DFBD0A1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="E177" authorId="65" shapeId="0" xr:uid="{A95D9405-4036-4D92-9801-376406393967}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+    <comment ref="D178" authorId="66" shapeId="0" xr:uid="{27B25422-614F-4303-8C70-FFE71705D428}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Estimate for us</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={353D25D8-458D-4D91-B805-D8D04EB3DC60}</author>
@@ -560,7 +1173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="9">
   <si>
     <t>temperate</t>
   </si>
@@ -593,7 +1206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,12 +1229,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1027,6 +1634,213 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D6" dT="2024-10-26T01:21:56.57" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{7BCA88DB-5B8A-4368-BCCD-49B8CBB690F6}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D7" dT="2024-10-26T01:32:54.46" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{3A62828A-6C13-4773-93CA-354234748AED}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D8" dT="2024-10-26T01:32:58.22" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{7B28E2E3-4D12-4D88-9590-324A50DDD854}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D9" dT="2024-10-26T01:33:02.52" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{EA65923C-9B6D-4132-A2C4-8A0704F09C0C}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D10" dT="2024-10-26T01:33:06.03" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{464CC1A3-C583-4845-BC02-18A83FF5469B}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D11" dT="2024-10-26T01:33:13.81" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{33FBD832-60D8-4DE3-BC0F-9A2519C10F93}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D12" dT="2024-10-26T01:33:17.37" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{61FF6306-FB99-4E16-9A5B-3976A9443FC8}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D13" dT="2024-10-26T01:33:24.43" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{52DE5944-825B-47CD-AF90-FDF2CEE6A07C}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D14" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{7F0D3667-AD19-4F83-A8B1-73284396AC2E}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D15" dT="2024-10-26T01:33:38.23" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{A0531DAA-E2F5-4A1F-B56B-80A5E327262E}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D16" dT="2024-10-26T01:33:42.22" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{CEE47645-54D9-4C42-B46B-54732943EBF5}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D17" dT="2024-10-26T01:33:47.22" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{8C360879-F04E-47CC-9729-43EAFCCFBE7F}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="E24" dT="2024-10-25T00:53:16.21" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{A046C24E-E61B-44AC-B968-D2CB69B2A4BA}">
+    <text>I changed this value, is this correct?</text>
+  </threadedComment>
+  <threadedComment ref="C81" dT="2024-11-03T18:02:13.27" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{54BA1C68-D7AE-4692-8907-0FCC0AC0D3C2}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C82" dT="2024-11-05T01:51:48.99" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{44E7D80F-E56F-40A8-B33C-3FDD345FF69B}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C83" dT="2024-11-05T01:51:56.05" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{9AA297F3-98D6-4693-888A-B9A8181A6EB0}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C84" dT="2024-11-05T01:52:02.26" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{4E2FD8BB-0F1B-479E-AD42-835B37E52849}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C85" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{E3EA648C-E545-44AE-ADE1-75E7D901776B}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C86" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{3B9C6470-99B5-413C-82C1-20908269547E}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C87" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{2649676F-36DC-495D-B8F8-72C9E9C9436B}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C88" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{6169754F-A244-4B4B-BD7F-8977C09D75C8}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C89" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{4D50A749-1191-4DDB-967E-11DCA597292E}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C90" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{06DAD80D-D6BD-4B1C-AD90-667871D822DE}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C91" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{2BFD1A75-5C0A-461E-8E6A-6D6CDFD99D6D}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C92" dT="2024-11-05T01:52:06.68" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{41972C44-FE01-45BC-A11B-D694C1FE6398}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C93" dT="2024-11-03T18:02:13.27" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{963433DD-0475-4C8C-8F9E-C220D06B855D}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C94" dT="2024-11-03T18:02:20.11" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{329A52F7-971A-4F93-83CB-8DA5B4F9ABA6}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C95" dT="2024-11-03T18:02:25.36" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{40A6A641-6C96-468E-A79E-F63648876B61}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C96" dT="2024-11-03T18:02:29.76" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{B90AF0A9-E83A-441D-9ED1-5189A92B55C4}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C97" dT="2024-11-03T18:02:35.42" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{71C2632B-31EF-481E-9CE7-57CFD0EF21A6}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C98" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{59A1B5EF-F00E-4ADD-BCC9-E0556E8E3C25}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D110" dT="2024-10-23T01:04:50.70" personId="{20AF4B58-97EA-4B9D-BFD6-3952093D6C70}" id="{61C8B440-923A-4011-A3FC-CC20655F43C3}">
+    <text xml:space="preserve">Paper says 1.77 but that’s wrong?
+</text>
+  </threadedComment>
+  <threadedComment ref="D113" dT="2024-10-23T01:05:57.45" personId="{20AF4B58-97EA-4B9D-BFD6-3952093D6C70}" id="{8BA3BA5D-135F-4475-A0B2-C28B2B112A7C}">
+    <text>4.33</text>
+  </threadedComment>
+  <threadedComment ref="D114" dT="2024-10-23T01:06:08.42" personId="{20AF4B58-97EA-4B9D-BFD6-3952093D6C70}" id="{CD1BA07D-0837-4CBF-8C27-FAA72DEE28CA}">
+    <text>2.47</text>
+  </threadedComment>
+  <threadedComment ref="C140" dT="2024-11-25T17:56:31.41" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{E4DA6648-9A81-492A-B93A-201B490E8040}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C141" dT="2024-11-25T17:56:31.41" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{738DAAF2-78BC-41CC-9FC7-9396285D05CD}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C142" dT="2024-11-25T17:56:31.41" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{96EB6E6A-D20A-480A-9C7E-BFFC60976CD2}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C143" dT="2024-11-25T17:56:31.41" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{80986897-ECE5-4ADA-841B-733B4DABA93F}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C144" dT="2024-11-25T17:56:31.41" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{9823C03B-0640-4CFB-ACA0-8E7936D5BE9C}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C145" dT="2024-11-25T17:56:31.41" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{9A85784D-D2E0-441D-AEA4-4527AA4B7081}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C146" dT="2024-11-25T17:56:31.41" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{9E4CE488-EB8C-45BA-86CA-3CD130A667CA}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C147" dT="2024-11-25T17:56:31.41" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{366D9F51-1942-43E4-9B9E-614783768641}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C148" dT="2024-11-25T17:56:31.41" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{DE4FF794-8AAE-4D8F-A4B7-90CA99758644}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C149" dT="2024-11-25T17:56:31.41" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{B913B4F2-5DFD-4C7B-A89D-3B3DC2D08291}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C159" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{D4BB8CD0-42EE-4BC2-839D-D3EC53AA838A}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C160" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{F38D1C9E-F792-4015-9F99-DC8DD91890AA}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C161" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{C97BADC4-D9F4-4D4D-8290-599085C546C7}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C162" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{92206D71-C9C6-41D6-B90E-DFDA43C9E6BC}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C163" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{DCED5D5E-741B-4EA8-B6AF-27E3B8F7BA8F}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C164" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{A520119D-71B6-4B98-8745-189CFD283B9F}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C165" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{862493D8-EF67-40AF-8784-DB1D255F5924}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C166" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{97149970-C668-4546-924A-A3D3D287E641}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C167" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{DD9356A2-BA41-4C03-9935-0CD90F352F82}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C168" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{0E99374F-D64D-4A23-B2B0-E27F715C4FB7}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C169" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{406BF569-1FA7-4EDA-A2CF-D94305DDD9ED}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="C170" dT="2024-11-03T18:02:39.54" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{EEF30445-F98C-4C7F-AEA5-63A967603774}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D173" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{F42D19B9-78CD-4302-846C-4207F312E67B}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="E173" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{242C0B97-7E36-4FCE-8854-0B99D013BF6E}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D174" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{C0530927-AB7D-4E5B-840C-FF2350ACF042}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="E174" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{04D64426-CB77-4A33-9B87-EE8603B20038}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D175" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{67E91B7A-4C84-43B0-8739-1C646FE8F062}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="E175" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{72665AE1-D19A-4B08-9385-0CF0C4280AD4}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D176" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{AA8FCFA5-ABFC-483B-BB3E-4AC450510E9D}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="E176" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{147F4167-B1E9-407C-BF29-9508690D9F0A}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D177" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{26A008E8-706A-4F9E-B960-2CB82DFBD0A1}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="E177" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{A95D9405-4036-4D92-9801-376406393967}">
+    <text>Estimate for us</text>
+  </threadedComment>
+  <threadedComment ref="D178" dT="2024-10-26T01:33:30.59" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{27B25422-614F-4303-8C70-FFE71705D428}">
+    <text>Estimate for us</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D6" dT="2024-10-26T01:21:56.57" personId="{21C35F6D-4AC3-4CA3-B1EF-2CE2D49265A6}" id="{353D25D8-458D-4D91-B805-D8D04EB3DC60}">
     <text>Estimate for us</text>
   </threadedComment>
@@ -1203,11 +2017,3850 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A3AA7B-97F7-4483-9AE3-B4306FC62D97}">
-  <dimension ref="A1:F157"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A3AA7B-97F7-4483-9AE3-B4306FC62D97}">
+  <dimension ref="A1:F178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4">
+        <v>126</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F33" si="0">C2/(B2^2)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4">
+        <v>115</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>6.8411659726353366E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>65</v>
+      </c>
+      <c r="C4" s="6">
+        <v>238</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3.66</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6331360946745561E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4">
+        <v>217</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.66</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>5.4673721340388004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" ref="D6:D17" si="1">C6/B6</f>
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10650887573964497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14222222222222222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.308</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>2.5294117647058822</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.316</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14878892733564014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0714285714285716</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14795918367346939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14792899408284024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14792899408284024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16326530612244897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8">
+        <v>37</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16444444444444445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17159763313609466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17857142857142858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>106</v>
+      </c>
+      <c r="C18" s="4">
+        <v>261</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2.46</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3228907084371662E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11">
+        <v>107</v>
+      </c>
+      <c r="C19" s="4">
+        <v>261</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2.44</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>2.2796750807930824E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>87</v>
+      </c>
+      <c r="C20" s="4">
+        <v>238</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2.74</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1444048090897077E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6">
+        <v>85</v>
+      </c>
+      <c r="C21" s="6">
+        <v>228</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1557093425605538E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>88</v>
+      </c>
+      <c r="C22" s="4">
+        <v>274</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3.11</v>
+      </c>
+      <c r="E22" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>3.5382231404958678E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>78</v>
+      </c>
+      <c r="C23" s="4">
+        <v>234</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>27.75</v>
+      </c>
+      <c r="C24" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="D24" s="12">
+        <f>C24/B24</f>
+        <v>3.4414414414414414</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12401590779969159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>114.4</v>
+      </c>
+      <c r="D25" s="12">
+        <f>C25/B25</f>
+        <v>3.52</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10830769230769231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <v>38.75</v>
+      </c>
+      <c r="C26" s="4">
+        <v>142.25</v>
+      </c>
+      <c r="D26" s="12">
+        <f>C26/B26</f>
+        <v>3.6709677419354838</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>9.4734651404786679E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>149</v>
+      </c>
+      <c r="D27" s="12">
+        <f>C27/B27</f>
+        <v>3.6790123456790123</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>9.0839811004420054E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4">
+        <v>16</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>9.4674556213017749E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4">
+        <v>19</v>
+      </c>
+      <c r="C29" s="4">
+        <v>51</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14127423822714683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>19</v>
+      </c>
+      <c r="C30" s="4">
+        <v>67</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3.53</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.18559556786703602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="10">
+        <v>39</v>
+      </c>
+      <c r="C31" s="8">
+        <v>70</v>
+      </c>
+      <c r="D31" s="9">
+        <v>6.96</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>4.6022353714661408E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="10">
+        <v>39</v>
+      </c>
+      <c r="C32" s="8">
+        <v>62</v>
+      </c>
+      <c r="D32" s="9">
+        <v>5.07</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>4.076265614727153E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6">
+        <v>43</v>
+      </c>
+      <c r="C33" s="8">
+        <v>86</v>
+      </c>
+      <c r="D33" s="9">
+        <v>6.92</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>4.6511627906976744E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="10">
+        <v>23</v>
+      </c>
+      <c r="C34" s="8">
+        <v>34</v>
+      </c>
+      <c r="D34" s="9">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" ref="F34:F65" si="2">C34/(B34^2)</f>
+        <v>6.4272211720226846E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10">
+        <v>44</v>
+      </c>
+      <c r="C35" s="8">
+        <v>68</v>
+      </c>
+      <c r="D35" s="9">
+        <v>7.29</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="2"/>
+        <v>3.5123966942148761E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="10">
+        <v>19</v>
+      </c>
+      <c r="C36" s="8">
+        <v>32</v>
+      </c>
+      <c r="D36" s="9">
+        <v>4.96</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="2"/>
+        <v>8.8642659279778394E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="8">
+        <v>18</v>
+      </c>
+      <c r="C37" s="8">
+        <v>28</v>
+      </c>
+      <c r="D37" s="9">
+        <v>3.19</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="2"/>
+        <v>8.6419753086419748E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="8">
+        <v>15</v>
+      </c>
+      <c r="C38" s="8">
+        <v>21</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="2"/>
+        <v>9.3333333333333338E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="8">
+        <v>32</v>
+      </c>
+      <c r="C39" s="8">
+        <v>45</v>
+      </c>
+      <c r="D39" s="9">
+        <v>5.08</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="2"/>
+        <v>4.39453125E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="8">
+        <v>14</v>
+      </c>
+      <c r="C40" s="8">
+        <v>20</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2.66</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10204081632653061</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="8">
+        <v>57</v>
+      </c>
+      <c r="C41" s="8">
+        <v>114</v>
+      </c>
+      <c r="D41" s="9">
+        <v>5.77</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="2"/>
+        <v>3.5087719298245612E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="8">
+        <v>41</v>
+      </c>
+      <c r="C42" s="8">
+        <v>81</v>
+      </c>
+      <c r="D42" s="9">
+        <v>3.64</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="2"/>
+        <v>4.8185603807257588E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="8">
+        <v>48</v>
+      </c>
+      <c r="C43" s="8">
+        <v>76</v>
+      </c>
+      <c r="D43" s="9">
+        <v>4.25</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="2"/>
+        <v>3.2986111111111112E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="8">
+        <v>39</v>
+      </c>
+      <c r="C44" s="8">
+        <v>66</v>
+      </c>
+      <c r="D44" s="9">
+        <v>3</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="2"/>
+        <v>4.3392504930966469E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="8">
+        <v>30</v>
+      </c>
+      <c r="C45" s="8">
+        <v>41</v>
+      </c>
+      <c r="D45" s="9">
+        <v>2.99</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="2"/>
+        <v>4.5555555555555557E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="8">
+        <v>35</v>
+      </c>
+      <c r="C46" s="8">
+        <v>58</v>
+      </c>
+      <c r="D46" s="9">
+        <v>3.53</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="2"/>
+        <v>4.7346938775510203E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="8">
+        <v>29</v>
+      </c>
+      <c r="C47" s="8">
+        <v>37</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3.34</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="2"/>
+        <v>4.3995243757431628E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="8">
+        <v>21</v>
+      </c>
+      <c r="C48" s="8">
+        <v>21</v>
+      </c>
+      <c r="D48" s="9">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="2"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="13">
+        <v>12</v>
+      </c>
+      <c r="C49" s="13">
+        <v>9</v>
+      </c>
+      <c r="D49" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="13">
+        <v>28</v>
+      </c>
+      <c r="C50" s="13">
+        <v>34</v>
+      </c>
+      <c r="D50" s="14">
+        <v>2.64</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="2"/>
+        <v>4.336734693877551E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="13">
+        <v>96</v>
+      </c>
+      <c r="C51" s="13">
+        <v>589</v>
+      </c>
+      <c r="D51" s="14">
+        <v>6.14</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="2"/>
+        <v>6.3910590277777776E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="13">
+        <v>70</v>
+      </c>
+      <c r="C52" s="13">
+        <v>374</v>
+      </c>
+      <c r="D52" s="14">
+        <v>5.34</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="2"/>
+        <v>7.6326530612244897E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="10">
+        <v>107</v>
+      </c>
+      <c r="C53" s="10">
+        <v>967</v>
+      </c>
+      <c r="D53" s="12">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="2"/>
+        <v>8.446152502401956E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="10">
+        <v>72</v>
+      </c>
+      <c r="C54" s="10">
+        <v>524</v>
+      </c>
+      <c r="D54" s="12">
+        <v>7.28</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10108024691358025</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="10">
+        <v>28</v>
+      </c>
+      <c r="C55" s="10">
+        <v>156</v>
+      </c>
+      <c r="D55" s="12">
+        <v>5.57</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19897959183673469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="10">
+        <v>41</v>
+      </c>
+      <c r="C56" s="10">
+        <v>170</v>
+      </c>
+      <c r="D56" s="12">
+        <f>C56/B56</f>
+        <v>4.1463414634146343</v>
+      </c>
+      <c r="E56" s="12">
+        <f>C56/(B56*B56)</f>
+        <v>0.10113027959547888</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="2"/>
+        <v>0.10113027959547888</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="10">
+        <v>117</v>
+      </c>
+      <c r="C57" s="10">
+        <v>345</v>
+      </c>
+      <c r="D57" s="12">
+        <v>3</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="2"/>
+        <v>2.5202717510409818E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="10">
+        <v>15</v>
+      </c>
+      <c r="C58" s="10">
+        <v>18</v>
+      </c>
+      <c r="D58" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="10">
+        <v>10</v>
+      </c>
+      <c r="C59" s="10">
+        <v>13</v>
+      </c>
+      <c r="D59" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="10">
+        <v>21</v>
+      </c>
+      <c r="C60" s="10">
+        <v>40</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="2"/>
+        <v>9.0702947845804988E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="10">
+        <v>63</v>
+      </c>
+      <c r="C61" s="10">
+        <v>156</v>
+      </c>
+      <c r="D61" s="12">
+        <v>2.48</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="2"/>
+        <v>3.9304610733182165E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="10">
+        <v>43</v>
+      </c>
+      <c r="C62" s="10">
+        <v>88</v>
+      </c>
+      <c r="D62" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="2"/>
+        <v>4.7593293672255274E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="10">
+        <v>38</v>
+      </c>
+      <c r="C63" s="10">
+        <v>109</v>
+      </c>
+      <c r="D63" s="12">
+        <v>2.87</v>
+      </c>
+      <c r="E63" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="2"/>
+        <v>7.5484764542936289E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="10">
+        <v>38</v>
+      </c>
+      <c r="C64" s="10">
+        <v>81</v>
+      </c>
+      <c r="D64" s="12">
+        <v>2.13</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="2"/>
+        <v>5.6094182825484763E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="10">
+        <v>47</v>
+      </c>
+      <c r="C65" s="10">
+        <v>124</v>
+      </c>
+      <c r="D65" s="12">
+        <v>2.64</v>
+      </c>
+      <c r="E65" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="2"/>
+        <v>5.6133997283838839E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="10">
+        <v>48</v>
+      </c>
+      <c r="C66" s="10">
+        <v>163</v>
+      </c>
+      <c r="D66" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F66" s="5">
+        <f t="shared" ref="F66:F97" si="3">C66/(B66^2)</f>
+        <v>7.0746527777777776E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="10">
+        <v>50</v>
+      </c>
+      <c r="C67" s="10">
+        <v>230</v>
+      </c>
+      <c r="D67" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="F67" s="5">
+        <f t="shared" si="3"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="10">
+        <v>55</v>
+      </c>
+      <c r="C68" s="10">
+        <v>193</v>
+      </c>
+      <c r="D68" s="12">
+        <v>3.51</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="F68" s="5">
+        <f t="shared" si="3"/>
+        <v>6.3801652892561983E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="10">
+        <v>63</v>
+      </c>
+      <c r="C69" s="10">
+        <v>271</v>
+      </c>
+      <c r="D69" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="E69" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="F69" s="5">
+        <f t="shared" si="3"/>
+        <v>6.8279163517258754E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="10">
+        <v>44</v>
+      </c>
+      <c r="C70" s="10">
+        <v>219</v>
+      </c>
+      <c r="D70" s="12">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1131198347107438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="10">
+        <v>50</v>
+      </c>
+      <c r="C71" s="10">
+        <v>148</v>
+      </c>
+      <c r="D71" s="12">
+        <v>2.96</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F71" s="5">
+        <f t="shared" si="3"/>
+        <v>5.9200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="10">
+        <v>39</v>
+      </c>
+      <c r="C72" s="10">
+        <v>165</v>
+      </c>
+      <c r="D72" s="12">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="F72" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10848126232741617</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="10">
+        <v>63</v>
+      </c>
+      <c r="C73" s="10">
+        <v>134</v>
+      </c>
+      <c r="D73" s="12">
+        <v>2.13</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F73" s="5">
+        <f t="shared" si="3"/>
+        <v>3.3761652809271854E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="10">
+        <v>45</v>
+      </c>
+      <c r="C74" s="10">
+        <v>152</v>
+      </c>
+      <c r="D74" s="12">
+        <v>3.38</v>
+      </c>
+      <c r="E74" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" si="3"/>
+        <v>7.5061728395061728E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="10">
+        <v>59</v>
+      </c>
+      <c r="C75" s="10">
+        <v>183</v>
+      </c>
+      <c r="D75" s="12">
+        <v>3.1</v>
+      </c>
+      <c r="E75" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="F75" s="5">
+        <f t="shared" si="3"/>
+        <v>5.2571100258546395E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="10">
+        <v>52</v>
+      </c>
+      <c r="C76" s="10">
+        <v>184</v>
+      </c>
+      <c r="D76" s="12">
+        <v>3.54</v>
+      </c>
+      <c r="E76" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F76" s="5">
+        <f t="shared" si="3"/>
+        <v>6.8047337278106509E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="13">
+        <v>29</v>
+      </c>
+      <c r="C77" s="13">
+        <v>120</v>
+      </c>
+      <c r="D77" s="14">
+        <v>4.03</v>
+      </c>
+      <c r="E77" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F77" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1426872770511296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="13">
+        <v>35</v>
+      </c>
+      <c r="C78" s="6">
+        <v>130</v>
+      </c>
+      <c r="D78" s="9">
+        <v>3.71</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F78" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10612244897959183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="13">
+        <v>36</v>
+      </c>
+      <c r="C79" s="10">
+        <v>130</v>
+      </c>
+      <c r="D79" s="9">
+        <v>3.61</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F79" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10030864197530864</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="13">
+        <v>33</v>
+      </c>
+      <c r="C80" s="10">
+        <v>143</v>
+      </c>
+      <c r="D80" s="9">
+        <v>4.33</v>
+      </c>
+      <c r="E80" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="F80" s="5">
+        <f t="shared" si="3"/>
+        <v>0.13131313131313133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="13">
+        <v>31</v>
+      </c>
+      <c r="C81" s="13">
+        <f t="shared" ref="C81:C98" si="4">B81*D81</f>
+        <v>128.03</v>
+      </c>
+      <c r="D81" s="14">
+        <v>4.13</v>
+      </c>
+      <c r="E81" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F81" s="5">
+        <f t="shared" si="3"/>
+        <v>0.13322580645161292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="13">
+        <v>32</v>
+      </c>
+      <c r="C82" s="13">
+        <f t="shared" si="4"/>
+        <v>118.08</v>
+      </c>
+      <c r="D82" s="14">
+        <v>3.69</v>
+      </c>
+      <c r="E82" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="F82" s="5">
+        <f t="shared" si="3"/>
+        <v>0.1153125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="13">
+        <v>40</v>
+      </c>
+      <c r="C83" s="13">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="D83" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="E83" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="F83" s="5">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="13">
+        <v>46</v>
+      </c>
+      <c r="C84" s="13">
+        <f t="shared" si="4"/>
+        <v>253.92</v>
+      </c>
+      <c r="D84" s="14">
+        <v>5.52</v>
+      </c>
+      <c r="E84" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="F84" s="5">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="13">
+        <v>36</v>
+      </c>
+      <c r="C85" s="13">
+        <f t="shared" si="4"/>
+        <v>160.91999999999999</v>
+      </c>
+      <c r="D85" s="14">
+        <v>4.47</v>
+      </c>
+      <c r="E85" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="F85" s="5">
+        <f t="shared" si="3"/>
+        <v>0.12416666666666666</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="13">
+        <v>39</v>
+      </c>
+      <c r="C86" s="13">
+        <f t="shared" si="4"/>
+        <v>152.1</v>
+      </c>
+      <c r="D86" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="E86" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F86" s="5">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="13">
+        <v>43</v>
+      </c>
+      <c r="C87" s="13">
+        <f t="shared" si="4"/>
+        <v>206.82999999999998</v>
+      </c>
+      <c r="D87" s="14">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E87" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="F87" s="5">
+        <f t="shared" si="3"/>
+        <v>0.11186046511627906</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="13">
+        <v>45</v>
+      </c>
+      <c r="C88" s="13">
+        <f t="shared" si="4"/>
+        <v>220.95000000000002</v>
+      </c>
+      <c r="D88" s="14">
+        <v>4.91</v>
+      </c>
+      <c r="E88" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="F88" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10911111111111112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="13">
+        <v>34</v>
+      </c>
+      <c r="C89" s="13">
+        <f t="shared" si="4"/>
+        <v>146.88</v>
+      </c>
+      <c r="D89" s="14">
+        <v>4.32</v>
+      </c>
+      <c r="E89" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F89" s="5">
+        <f t="shared" si="3"/>
+        <v>0.12705882352941175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="13">
+        <v>41</v>
+      </c>
+      <c r="C90" s="13">
+        <f t="shared" si="4"/>
+        <v>184.09</v>
+      </c>
+      <c r="D90" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="E90" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="F90" s="5">
+        <f t="shared" si="3"/>
+        <v>0.10951219512195122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="13">
+        <v>40</v>
+      </c>
+      <c r="C91" s="13">
+        <f t="shared" si="4"/>
+        <v>191.20000000000002</v>
+      </c>
+      <c r="D91" s="14">
+        <v>4.78</v>
+      </c>
+      <c r="E91" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="F91" s="5">
+        <f t="shared" si="3"/>
+        <v>0.11950000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="13">
+        <v>45</v>
+      </c>
+      <c r="C92" s="13">
+        <f t="shared" si="4"/>
+        <v>226.8</v>
+      </c>
+      <c r="D92" s="14">
+        <v>5.04</v>
+      </c>
+      <c r="E92" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="F92" s="5">
+        <f t="shared" si="3"/>
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="10">
+        <v>40</v>
+      </c>
+      <c r="C93" s="13">
+        <f t="shared" si="4"/>
+        <v>206.8</v>
+      </c>
+      <c r="D93" s="9">
+        <v>5.17</v>
+      </c>
+      <c r="E93" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="F93" s="5">
+        <f t="shared" si="3"/>
+        <v>0.12925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="8">
+        <v>29</v>
+      </c>
+      <c r="C94" s="13">
+        <f t="shared" si="4"/>
+        <v>79.75</v>
+      </c>
+      <c r="D94" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="E94" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="F94" s="5">
+        <f t="shared" si="3"/>
+        <v>9.4827586206896547E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="8">
+        <v>26</v>
+      </c>
+      <c r="C95" s="13">
+        <f t="shared" si="4"/>
+        <v>83.98</v>
+      </c>
+      <c r="D95" s="9">
+        <v>3.23</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="F95" s="5">
+        <f t="shared" si="3"/>
+        <v>0.12423076923076924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="8">
+        <v>31</v>
+      </c>
+      <c r="C96" s="13">
+        <f t="shared" si="4"/>
+        <v>110.98</v>
+      </c>
+      <c r="D96" s="9">
+        <v>3.58</v>
+      </c>
+      <c r="E96" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="F96" s="5">
+        <f t="shared" si="3"/>
+        <v>0.11548387096774194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="13">
+        <v>31</v>
+      </c>
+      <c r="C97" s="13">
+        <f t="shared" si="4"/>
+        <v>141.97999999999999</v>
+      </c>
+      <c r="D97" s="14">
+        <v>4.58</v>
+      </c>
+      <c r="E97" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F97" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14774193548387096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="13">
+        <v>35</v>
+      </c>
+      <c r="C98" s="13">
+        <f t="shared" si="4"/>
+        <v>178.85000000000002</v>
+      </c>
+      <c r="D98" s="14">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E98" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F98" s="5">
+        <f t="shared" ref="F98:F129" si="5">C98/(B98^2)</f>
+        <v>0.14600000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="4">
+        <v>102</v>
+      </c>
+      <c r="C99" s="4">
+        <v>675</v>
+      </c>
+      <c r="D99" s="5">
+        <v>6.37</v>
+      </c>
+      <c r="E99" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F99" s="5">
+        <f t="shared" si="5"/>
+        <v>6.4878892733564009E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="4">
+        <v>129</v>
+      </c>
+      <c r="C100" s="4">
+        <v>879</v>
+      </c>
+      <c r="D100" s="5">
+        <v>7.53</v>
+      </c>
+      <c r="E100" s="5">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F100" s="5">
+        <f t="shared" si="5"/>
+        <v>5.2821344871101496E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="4">
+        <v>100</v>
+      </c>
+      <c r="C101" s="4">
+        <v>596</v>
+      </c>
+      <c r="D101" s="5">
+        <v>5.83</v>
+      </c>
+      <c r="E101" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F101" s="5">
+        <f t="shared" si="5"/>
+        <v>5.96E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="4">
+        <v>131</v>
+      </c>
+      <c r="C102" s="4">
+        <v>918</v>
+      </c>
+      <c r="D102" s="5">
+        <v>7.01</v>
+      </c>
+      <c r="E102" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="F102" s="5">
+        <f t="shared" si="5"/>
+        <v>5.3493386166307326E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="4">
+        <v>93</v>
+      </c>
+      <c r="C103" s="4">
+        <v>544</v>
+      </c>
+      <c r="D103" s="5">
+        <v>5.85</v>
+      </c>
+      <c r="E103" s="5">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F103" s="5">
+        <f t="shared" si="5"/>
+        <v>6.2897444791305351E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="10">
+        <v>126</v>
+      </c>
+      <c r="C104" s="10">
+        <v>854</v>
+      </c>
+      <c r="D104" s="12">
+        <v>6.78</v>
+      </c>
+      <c r="E104" s="12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F104" s="5">
+        <f t="shared" si="5"/>
+        <v>5.3791887125220456E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="13">
+        <v>113</v>
+      </c>
+      <c r="C105" s="13">
+        <v>540</v>
+      </c>
+      <c r="D105" s="14">
+        <v>4.78</v>
+      </c>
+      <c r="E105" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="F105" s="5">
+        <f t="shared" si="5"/>
+        <v>4.2289920902184981E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="13">
+        <v>133</v>
+      </c>
+      <c r="C106" s="13">
+        <v>824</v>
+      </c>
+      <c r="D106" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="E106" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F106" s="5">
+        <f t="shared" si="5"/>
+        <v>4.6582621968454974E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="13">
+        <v>89</v>
+      </c>
+      <c r="C107" s="13">
+        <v>365</v>
+      </c>
+      <c r="D107" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E107" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="F107" s="5">
+        <f t="shared" si="5"/>
+        <v>4.608004039893953E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="13">
+        <v>77</v>
+      </c>
+      <c r="C108" s="13">
+        <v>266</v>
+      </c>
+      <c r="D108" s="14">
+        <v>3.46</v>
+      </c>
+      <c r="E108" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="F108" s="5">
+        <f t="shared" si="5"/>
+        <v>4.4864226682408498E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="10">
+        <v>31</v>
+      </c>
+      <c r="C109" s="10">
+        <v>77</v>
+      </c>
+      <c r="D109" s="12">
+        <f t="shared" ref="D109:D114" si="6">C109/B109</f>
+        <v>2.4838709677419355</v>
+      </c>
+      <c r="E109" s="12">
+        <f t="shared" ref="E109:E114" si="7">C109/(B109*B109)</f>
+        <v>8.0124869927159212E-2</v>
+      </c>
+      <c r="F109" s="5">
+        <f t="shared" si="5"/>
+        <v>8.0124869927159212E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="10">
+        <v>17</v>
+      </c>
+      <c r="C110" s="10">
+        <v>39</v>
+      </c>
+      <c r="D110" s="12">
+        <f t="shared" si="6"/>
+        <v>2.2941176470588234</v>
+      </c>
+      <c r="E110" s="12">
+        <f t="shared" si="7"/>
+        <v>0.13494809688581316</v>
+      </c>
+      <c r="F110" s="5">
+        <f t="shared" si="5"/>
+        <v>0.13494809688581316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="6">
+        <v>32</v>
+      </c>
+      <c r="C111" s="6">
+        <v>87</v>
+      </c>
+      <c r="D111" s="7">
+        <f t="shared" si="6"/>
+        <v>2.71875</v>
+      </c>
+      <c r="E111" s="7">
+        <f t="shared" si="7"/>
+        <v>8.49609375E-2</v>
+      </c>
+      <c r="F111" s="5">
+        <f t="shared" si="5"/>
+        <v>8.49609375E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="10">
+        <v>24</v>
+      </c>
+      <c r="C112" s="10">
+        <v>75</v>
+      </c>
+      <c r="D112" s="12">
+        <f t="shared" si="6"/>
+        <v>3.125</v>
+      </c>
+      <c r="E112" s="12">
+        <f t="shared" si="7"/>
+        <v>0.13020833333333334</v>
+      </c>
+      <c r="F112" s="5">
+        <f t="shared" si="5"/>
+        <v>0.13020833333333334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="10">
+        <v>33</v>
+      </c>
+      <c r="C113" s="10">
+        <v>123</v>
+      </c>
+      <c r="D113" s="12">
+        <f t="shared" si="6"/>
+        <v>3.7272727272727271</v>
+      </c>
+      <c r="E113" s="12">
+        <f t="shared" si="7"/>
+        <v>0.11294765840220386</v>
+      </c>
+      <c r="F113" s="5">
+        <f t="shared" si="5"/>
+        <v>0.11294765840220386</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="10">
+        <v>22</v>
+      </c>
+      <c r="C114" s="10">
+        <v>42</v>
+      </c>
+      <c r="D114" s="12">
+        <f t="shared" si="6"/>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="E114" s="12">
+        <f t="shared" si="7"/>
+        <v>8.6776859504132234E-2</v>
+      </c>
+      <c r="F114" s="5">
+        <f t="shared" si="5"/>
+        <v>8.6776859504132234E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="8">
+        <v>39</v>
+      </c>
+      <c r="C115" s="8">
+        <v>146</v>
+      </c>
+      <c r="D115" s="9">
+        <v>3.74</v>
+      </c>
+      <c r="E115" s="9">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F115" s="5">
+        <f t="shared" si="5"/>
+        <v>9.5989480604865215E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="8">
+        <v>35</v>
+      </c>
+      <c r="C116" s="8">
+        <v>110</v>
+      </c>
+      <c r="D116" s="9">
+        <v>3.14</v>
+      </c>
+      <c r="E116" s="9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F116" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9795918367346933E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="8">
+        <v>32</v>
+      </c>
+      <c r="C117" s="8">
+        <v>107</v>
+      </c>
+      <c r="D117" s="9">
+        <v>3.34</v>
+      </c>
+      <c r="E117" s="9">
+        <v>0.108</v>
+      </c>
+      <c r="F117" s="5">
+        <f t="shared" si="5"/>
+        <v>0.1044921875</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="8">
+        <v>31</v>
+      </c>
+      <c r="C118" s="8">
+        <v>102</v>
+      </c>
+      <c r="D118" s="9">
+        <v>3.29</v>
+      </c>
+      <c r="E118" s="9">
+        <v>0.109</v>
+      </c>
+      <c r="F118" s="5">
+        <f t="shared" si="5"/>
+        <v>0.10613943808532779</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="8">
+        <v>37</v>
+      </c>
+      <c r="C119" s="8">
+        <v>120</v>
+      </c>
+      <c r="D119" s="9">
+        <v>3.24</v>
+      </c>
+      <c r="E119" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="F119" s="5">
+        <f t="shared" si="5"/>
+        <v>8.7655222790357923E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="8">
+        <v>32</v>
+      </c>
+      <c r="C120" s="8">
+        <v>101</v>
+      </c>
+      <c r="D120" s="9">
+        <v>3.16</v>
+      </c>
+      <c r="E120" s="9">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F120" s="5">
+        <f t="shared" si="5"/>
+        <v>9.86328125E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="8">
+        <v>33</v>
+      </c>
+      <c r="C121" s="8">
+        <v>104</v>
+      </c>
+      <c r="D121" s="9">
+        <v>3.15</v>
+      </c>
+      <c r="E121" s="9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F121" s="5">
+        <f t="shared" si="5"/>
+        <v>9.5500459136822771E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="15">
+        <v>87</v>
+      </c>
+      <c r="C122" s="15">
+        <v>375</v>
+      </c>
+      <c r="D122" s="15">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E122" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="F122" s="5">
+        <f t="shared" si="5"/>
+        <v>4.9544193420531117E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="15">
+        <v>95</v>
+      </c>
+      <c r="C123" s="15">
+        <v>565</v>
+      </c>
+      <c r="D123" s="15">
+        <v>5.95</v>
+      </c>
+      <c r="E123" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="F123" s="5">
+        <f t="shared" si="5"/>
+        <v>6.2603878116343492E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="15">
+        <v>109</v>
+      </c>
+      <c r="C124" s="15">
+        <v>708</v>
+      </c>
+      <c r="D124" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="E124" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F124" s="5">
+        <f t="shared" si="5"/>
+        <v>5.9590943523272454E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="15">
+        <v>78</v>
+      </c>
+      <c r="C125" s="15">
+        <v>421</v>
+      </c>
+      <c r="D125" s="15">
+        <v>5.4</v>
+      </c>
+      <c r="E125" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="F125" s="5">
+        <f t="shared" si="5"/>
+        <v>6.9197896120973046E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="15">
+        <v>78</v>
+      </c>
+      <c r="C126" s="15">
+        <v>268</v>
+      </c>
+      <c r="D126" s="15">
+        <v>3.44</v>
+      </c>
+      <c r="E126" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="F126" s="5">
+        <f t="shared" si="5"/>
+        <v>4.4049967126890202E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="15">
+        <v>84</v>
+      </c>
+      <c r="C127" s="15">
+        <v>224</v>
+      </c>
+      <c r="D127" s="15">
+        <v>2.67</v>
+      </c>
+      <c r="E127" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F127" s="5">
+        <f t="shared" si="5"/>
+        <v>3.1746031746031744E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="15">
+        <v>58</v>
+      </c>
+      <c r="C128" s="15">
+        <v>117</v>
+      </c>
+      <c r="D128" s="15">
+        <v>2.02</v>
+      </c>
+      <c r="E128" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="F128" s="5">
+        <f t="shared" si="5"/>
+        <v>3.4780023781212845E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="15">
+        <v>79</v>
+      </c>
+      <c r="C129" s="15">
+        <v>240</v>
+      </c>
+      <c r="D129" s="15">
+        <v>3.04</v>
+      </c>
+      <c r="E129" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="F129" s="5">
+        <f t="shared" si="5"/>
+        <v>3.8455375741067138E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="15">
+        <v>49</v>
+      </c>
+      <c r="C130" s="15">
+        <v>110</v>
+      </c>
+      <c r="D130" s="15">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E130" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F130" s="5">
+        <f t="shared" ref="F130:F161" si="8">C130/(B130^2)</f>
+        <v>4.5814244064972927E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="15">
+        <v>71</v>
+      </c>
+      <c r="C131" s="15">
+        <v>155</v>
+      </c>
+      <c r="D131" s="15">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E131" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="F131" s="5">
+        <f t="shared" si="8"/>
+        <v>3.0747867486609799E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="15">
+        <v>69</v>
+      </c>
+      <c r="C132" s="15">
+        <v>187</v>
+      </c>
+      <c r="D132" s="15">
+        <v>2.71</v>
+      </c>
+      <c r="E132" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="F132" s="5">
+        <f t="shared" si="8"/>
+        <v>3.9277462717916406E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="15">
+        <v>107</v>
+      </c>
+      <c r="C133" s="15">
+        <v>966</v>
+      </c>
+      <c r="D133" s="15">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="E133" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="F133" s="5">
+        <f t="shared" si="8"/>
+        <v>8.4374181151192246E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="15">
+        <v>86</v>
+      </c>
+      <c r="C134" s="15">
+        <v>353</v>
+      </c>
+      <c r="D134" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E134" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="F134" s="5">
+        <f t="shared" si="8"/>
+        <v>4.7728501892915089E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="15">
+        <v>96</v>
+      </c>
+      <c r="C135" s="15">
+        <v>589</v>
+      </c>
+      <c r="D135" s="15">
+        <v>6.14</v>
+      </c>
+      <c r="E135" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F135" s="5">
+        <f t="shared" si="8"/>
+        <v>6.3910590277777776E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="15">
+        <v>98</v>
+      </c>
+      <c r="C136" s="15">
+        <v>629</v>
+      </c>
+      <c r="D136" s="15">
+        <v>6.42</v>
+      </c>
+      <c r="E136" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="F136" s="5">
+        <f t="shared" si="8"/>
+        <v>6.5493544356518121E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="15">
+        <v>78</v>
+      </c>
+      <c r="C137" s="15">
+        <v>375</v>
+      </c>
+      <c r="D137" s="15">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E137" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="F137" s="5">
+        <f t="shared" si="8"/>
+        <v>6.1637080867850101E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="15">
+        <v>113</v>
+      </c>
+      <c r="C138" s="15">
+        <v>832</v>
+      </c>
+      <c r="D138" s="15">
+        <v>7.36</v>
+      </c>
+      <c r="E138" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="F138" s="5">
+        <f t="shared" si="8"/>
+        <v>6.5157804056699825E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="15">
+        <v>92</v>
+      </c>
+      <c r="C139" s="15">
+        <v>423</v>
+      </c>
+      <c r="D139" s="15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E139" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="F139" s="5">
+        <f t="shared" si="8"/>
+        <v>4.9976370510396974E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="15">
+        <v>87</v>
+      </c>
+      <c r="C140" s="10">
+        <f t="shared" ref="C140:C149" si="9">D140*B140</f>
+        <v>858.68999999999994</v>
+      </c>
+      <c r="D140">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="E140" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F140" s="5">
+        <f t="shared" si="8"/>
+        <v>0.11344827586206896</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="15">
+        <v>95</v>
+      </c>
+      <c r="C141" s="10">
+        <f t="shared" si="9"/>
+        <v>1277.75</v>
+      </c>
+      <c r="D141">
+        <v>13.45</v>
+      </c>
+      <c r="E141" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="F141" s="5">
+        <f t="shared" si="8"/>
+        <v>0.14157894736842105</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="15">
+        <v>109</v>
+      </c>
+      <c r="C142" s="10">
+        <f t="shared" si="9"/>
+        <v>1455.1499999999999</v>
+      </c>
+      <c r="D142">
+        <v>13.35</v>
+      </c>
+      <c r="E142" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F142" s="5">
+        <f t="shared" si="8"/>
+        <v>0.12247706422018348</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="15">
+        <v>107</v>
+      </c>
+      <c r="C143" s="10">
+        <f t="shared" si="9"/>
+        <v>1782.6200000000001</v>
+      </c>
+      <c r="D143">
+        <v>16.66</v>
+      </c>
+      <c r="E143" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="F143" s="5">
+        <f t="shared" si="8"/>
+        <v>0.15570093457943926</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="15">
+        <v>86</v>
+      </c>
+      <c r="C144" s="10">
+        <f t="shared" si="9"/>
+        <v>820.43999999999994</v>
+      </c>
+      <c r="D144">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="E144" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F144" s="5">
+        <f t="shared" si="8"/>
+        <v>0.11093023255813952</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="15">
+        <v>96</v>
+      </c>
+      <c r="C145" s="10">
+        <f t="shared" si="9"/>
+        <v>1130.8799999999999</v>
+      </c>
+      <c r="D145">
+        <v>11.78</v>
+      </c>
+      <c r="E145" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="F145" s="5">
+        <f t="shared" si="8"/>
+        <v>0.12270833333333332</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="15">
+        <v>98</v>
+      </c>
+      <c r="C146" s="10">
+        <f t="shared" si="9"/>
+        <v>1503.32</v>
+      </c>
+      <c r="D146">
+        <v>15.34</v>
+      </c>
+      <c r="E146" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="F146" s="5">
+        <f t="shared" si="8"/>
+        <v>0.15653061224489795</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="15">
+        <v>78</v>
+      </c>
+      <c r="C147" s="10">
+        <f t="shared" si="9"/>
+        <v>769.8599999999999</v>
+      </c>
+      <c r="D147">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="E147" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="F147" s="5">
+        <f t="shared" si="8"/>
+        <v>0.12653846153846152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="15">
+        <v>113</v>
+      </c>
+      <c r="C148" s="10">
+        <f t="shared" si="9"/>
+        <v>1880.3200000000002</v>
+      </c>
+      <c r="D148">
+        <v>16.64</v>
+      </c>
+      <c r="E148" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="F148" s="5">
+        <f t="shared" si="8"/>
+        <v>0.14725663716814161</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="15">
+        <v>92</v>
+      </c>
+      <c r="C149" s="10">
+        <f t="shared" si="9"/>
+        <v>1144.48</v>
+      </c>
+      <c r="D149">
+        <v>12.44</v>
+      </c>
+      <c r="E149" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="F149" s="5">
+        <f t="shared" si="8"/>
+        <v>0.13521739130434782</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="10">
+        <v>11</v>
+      </c>
+      <c r="C150" s="10">
+        <v>42</v>
+      </c>
+      <c r="D150" s="12">
+        <v>3.8181818181818183</v>
+      </c>
+      <c r="E150" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F150" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34710743801652894</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="10">
+        <v>7</v>
+      </c>
+      <c r="C151" s="10">
+        <v>29</v>
+      </c>
+      <c r="D151" s="12">
+        <v>4.1428571428571432</v>
+      </c>
+      <c r="E151" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F151" s="5">
+        <f t="shared" si="8"/>
+        <v>0.59183673469387754</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="10">
+        <v>13</v>
+      </c>
+      <c r="C152" s="10">
+        <v>41</v>
+      </c>
+      <c r="D152" s="12">
+        <v>3.1538461538461537</v>
+      </c>
+      <c r="E152" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="F152" s="5">
+        <f t="shared" si="8"/>
+        <v>0.24260355029585798</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="10">
+        <v>12</v>
+      </c>
+      <c r="C153" s="10">
+        <v>44</v>
+      </c>
+      <c r="D153" s="12">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="E153" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="F153" s="5">
+        <f t="shared" si="8"/>
+        <v>0.30555555555555558</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="10">
+        <v>10</v>
+      </c>
+      <c r="C154" s="10">
+        <v>35</v>
+      </c>
+      <c r="D154" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="E154" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F154" s="5">
+        <f t="shared" si="8"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="10">
+        <v>10</v>
+      </c>
+      <c r="C155" s="10">
+        <v>30</v>
+      </c>
+      <c r="D155" s="12">
+        <v>3</v>
+      </c>
+      <c r="E155" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F155" s="5">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="10">
+        <v>9</v>
+      </c>
+      <c r="C156" s="10">
+        <v>26</v>
+      </c>
+      <c r="D156" s="12">
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="E156" s="12">
+        <v>0.32</v>
+      </c>
+      <c r="F156" s="5">
+        <f t="shared" si="8"/>
+        <v>0.32098765432098764</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="10">
+        <v>12</v>
+      </c>
+      <c r="C157" s="10">
+        <v>38</v>
+      </c>
+      <c r="D157" s="12">
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="E157" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="F157" s="5">
+        <f t="shared" si="8"/>
+        <v>0.2638888888888889</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="10">
+        <v>9</v>
+      </c>
+      <c r="C158" s="10">
+        <v>23</v>
+      </c>
+      <c r="D158" s="12">
+        <v>2.5555555555555554</v>
+      </c>
+      <c r="E158" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F158" s="5">
+        <f t="shared" si="8"/>
+        <v>0.2839506172839506</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="13">
+        <v>27</v>
+      </c>
+      <c r="C159" s="13">
+        <f t="shared" ref="C159:C170" si="10">B159*D159</f>
+        <v>63.99</v>
+      </c>
+      <c r="D159" s="14">
+        <v>2.37</v>
+      </c>
+      <c r="E159" s="14">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F159" s="5">
+        <f t="shared" si="8"/>
+        <v>8.7777777777777774E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="13">
+        <v>23</v>
+      </c>
+      <c r="C160" s="13">
+        <f t="shared" si="10"/>
+        <v>64.009</v>
+      </c>
+      <c r="D160" s="14">
+        <v>2.7829999999999999</v>
+      </c>
+      <c r="E160" s="14">
+        <v>0.121</v>
+      </c>
+      <c r="F160" s="5">
+        <f t="shared" si="8"/>
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="13">
+        <v>19</v>
+      </c>
+      <c r="C161" s="13">
+        <f t="shared" si="10"/>
+        <v>52.003</v>
+      </c>
+      <c r="D161" s="14">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="E161" s="14">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F161" s="5">
+        <f t="shared" si="8"/>
+        <v>0.14405263157894738</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="13">
+        <v>20</v>
+      </c>
+      <c r="C162" s="13">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="D162" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="E162" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F162" s="5">
+        <f t="shared" ref="F162:F178" si="11">C162/(B162^2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="13">
+        <v>24</v>
+      </c>
+      <c r="C163" s="13">
+        <f t="shared" si="10"/>
+        <v>73.007999999999996</v>
+      </c>
+      <c r="D163" s="14">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="E163" s="14">
+        <v>0.127</v>
+      </c>
+      <c r="F163" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12675</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="13">
+        <v>16</v>
+      </c>
+      <c r="C164" s="13">
+        <f t="shared" si="10"/>
+        <v>47.008000000000003</v>
+      </c>
+      <c r="D164" s="14">
+        <v>2.9380000000000002</v>
+      </c>
+      <c r="E164" s="14">
+        <v>0.184</v>
+      </c>
+      <c r="F164" s="5">
+        <f t="shared" si="11"/>
+        <v>0.18362500000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="13">
+        <v>26</v>
+      </c>
+      <c r="C165" s="13">
+        <f t="shared" si="10"/>
+        <v>82.992000000000004</v>
+      </c>
+      <c r="D165" s="14">
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="E165" s="14">
+        <v>0.123</v>
+      </c>
+      <c r="F165" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12276923076923077</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="13">
+        <v>23</v>
+      </c>
+      <c r="C166" s="13">
+        <f t="shared" si="10"/>
+        <v>68.010999999999996</v>
+      </c>
+      <c r="D166" s="14">
+        <v>2.9569999999999999</v>
+      </c>
+      <c r="E166" s="14">
+        <v>0.129</v>
+      </c>
+      <c r="F166" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12856521739130433</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="13">
+        <v>25</v>
+      </c>
+      <c r="C167" s="13">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="D167" s="14">
+        <v>3</v>
+      </c>
+      <c r="E167" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="F167" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="13">
+        <v>18</v>
+      </c>
+      <c r="C168" s="13">
+        <f t="shared" si="10"/>
+        <v>52.001999999999995</v>
+      </c>
+      <c r="D168" s="14">
+        <v>2.8889999999999998</v>
+      </c>
+      <c r="E168" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="F168" s="5">
+        <f t="shared" si="11"/>
+        <v>0.16049999999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="13">
+        <v>27</v>
+      </c>
+      <c r="C169" s="13">
+        <f t="shared" si="10"/>
+        <v>77.003999999999991</v>
+      </c>
+      <c r="D169" s="14">
+        <v>2.8519999999999999</v>
+      </c>
+      <c r="E169" s="14">
+        <v>0.106</v>
+      </c>
+      <c r="F169" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10562962962962961</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="13">
+        <v>26</v>
+      </c>
+      <c r="C170" s="13">
+        <f t="shared" si="10"/>
+        <v>73.996000000000009</v>
+      </c>
+      <c r="D170" s="14">
+        <v>2.8460000000000001</v>
+      </c>
+      <c r="E170" s="14">
+        <v>0.109</v>
+      </c>
+      <c r="F170" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10946153846153847</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="4">
+        <v>36</v>
+      </c>
+      <c r="C171" s="4">
+        <v>152</v>
+      </c>
+      <c r="D171" s="5">
+        <v>4.22</v>
+      </c>
+      <c r="E171" s="12">
+        <f>152/(36*(36))</f>
+        <v>0.11728395061728394</v>
+      </c>
+      <c r="F171" s="5">
+        <f t="shared" si="11"/>
+        <v>0.11728395061728394</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="10">
+        <v>142</v>
+      </c>
+      <c r="C172" s="10">
+        <v>1383</v>
+      </c>
+      <c r="D172" s="12">
+        <f t="shared" ref="D172:D178" si="12">C172/B172</f>
+        <v>9.73943661971831</v>
+      </c>
+      <c r="E172" s="12">
+        <f>C172/(B172*B172)</f>
+        <v>6.8587581829002181E-2</v>
+      </c>
+      <c r="F172" s="5">
+        <f t="shared" si="11"/>
+        <v>6.8587581829002181E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="15">
+        <v>74</v>
+      </c>
+      <c r="C173" s="15">
+        <v>837</v>
+      </c>
+      <c r="D173" s="5">
+        <f t="shared" si="12"/>
+        <v>11.310810810810811</v>
+      </c>
+      <c r="E173" s="5">
+        <f t="shared" ref="E173:E178" si="13">C173/(B173)^2</f>
+        <v>0.15284879474068663</v>
+      </c>
+      <c r="F173" s="5">
+        <f t="shared" si="11"/>
+        <v>0.15284879474068663</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="15">
+        <v>79</v>
+      </c>
+      <c r="C174" s="15">
+        <v>1003</v>
+      </c>
+      <c r="D174" s="5">
+        <f t="shared" si="12"/>
+        <v>12.69620253164557</v>
+      </c>
+      <c r="E174" s="5">
+        <f t="shared" si="13"/>
+        <v>0.16071142445120976</v>
+      </c>
+      <c r="F174" s="5">
+        <f t="shared" si="11"/>
+        <v>0.16071142445120976</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="15">
+        <v>76</v>
+      </c>
+      <c r="C175" s="15">
+        <v>924</v>
+      </c>
+      <c r="D175" s="5">
+        <f t="shared" si="12"/>
+        <v>12.157894736842104</v>
+      </c>
+      <c r="E175" s="5">
+        <f t="shared" si="13"/>
+        <v>0.15997229916897507</v>
+      </c>
+      <c r="F175" s="5">
+        <f t="shared" si="11"/>
+        <v>0.15997229916897507</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" s="15">
+        <v>44</v>
+      </c>
+      <c r="C176" s="15">
+        <v>402</v>
+      </c>
+      <c r="D176" s="5">
+        <f t="shared" si="12"/>
+        <v>9.1363636363636367</v>
+      </c>
+      <c r="E176" s="5">
+        <f t="shared" si="13"/>
+        <v>0.20764462809917356</v>
+      </c>
+      <c r="F176" s="5">
+        <f t="shared" si="11"/>
+        <v>0.20764462809917356</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" s="15">
+        <v>58</v>
+      </c>
+      <c r="C177" s="15">
+        <v>506</v>
+      </c>
+      <c r="D177" s="5">
+        <f t="shared" si="12"/>
+        <v>8.7241379310344822</v>
+      </c>
+      <c r="E177" s="5">
+        <f t="shared" si="13"/>
+        <v>0.15041617122473247</v>
+      </c>
+      <c r="F177" s="5">
+        <f t="shared" si="11"/>
+        <v>0.15041617122473247</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="15">
+        <v>25</v>
+      </c>
+      <c r="C178" s="15">
+        <v>129</v>
+      </c>
+      <c r="D178" s="5">
+        <f t="shared" si="12"/>
+        <v>5.16</v>
+      </c>
+      <c r="E178" s="5">
+        <f t="shared" si="13"/>
+        <v>0.2064</v>
+      </c>
+      <c r="F178" s="5">
+        <f t="shared" si="11"/>
+        <v>0.2064</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15592AEE-C863-429D-AF74-6168818CDC2E}">
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,2693 +5889,6 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>42</v>
-      </c>
-      <c r="C2">
-        <v>126</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>115</v>
-      </c>
-      <c r="D3">
-        <v>2.8</v>
-      </c>
-      <c r="E3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>65</v>
-      </c>
-      <c r="C4">
-        <v>238</v>
-      </c>
-      <c r="D4">
-        <v>3.66</v>
-      </c>
-      <c r="E4">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>63</v>
-      </c>
-      <c r="C5">
-        <v>217</v>
-      </c>
-      <c r="D5">
-        <v>3.66</v>
-      </c>
-      <c r="E5">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>1.3846153846153846</v>
-      </c>
-      <c r="E6">
-        <v>0.23100000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>1.8</v>
-      </c>
-      <c r="E7">
-        <v>0.25700000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>2.1333333333333333</v>
-      </c>
-      <c r="E8">
-        <v>0.30499999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0.308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>43</v>
-      </c>
-      <c r="D10">
-        <v>2.5294117647058822</v>
-      </c>
-      <c r="E10">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>29</v>
-      </c>
-      <c r="D11">
-        <v>2.0714285714285716</v>
-      </c>
-      <c r="E11">
-        <v>0.31900000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>1.9230769230769231</v>
-      </c>
-      <c r="E12">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>1.9230769230769231</v>
-      </c>
-      <c r="E13">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>2.2857142857142856</v>
-      </c>
-      <c r="E14">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>37</v>
-      </c>
-      <c r="D15">
-        <v>2.4666666666666668</v>
-      </c>
-      <c r="E15">
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>2.2307692307692308</v>
-      </c>
-      <c r="E16">
-        <v>0.372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>35</v>
-      </c>
-      <c r="D17">
-        <v>2.5</v>
-      </c>
-      <c r="E17">
-        <v>0.38500000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>87</v>
-      </c>
-      <c r="C18">
-        <v>238</v>
-      </c>
-      <c r="D18">
-        <v>2.74</v>
-      </c>
-      <c r="E18">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>85</v>
-      </c>
-      <c r="C19">
-        <v>228</v>
-      </c>
-      <c r="D19">
-        <v>2.68</v>
-      </c>
-      <c r="E19">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>88</v>
-      </c>
-      <c r="C20">
-        <v>274</v>
-      </c>
-      <c r="D20">
-        <v>3.11</v>
-      </c>
-      <c r="E20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>78</v>
-      </c>
-      <c r="C21">
-        <v>234</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>106</v>
-      </c>
-      <c r="C22">
-        <v>261</v>
-      </c>
-      <c r="D22">
-        <v>2.46</v>
-      </c>
-      <c r="E22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>107</v>
-      </c>
-      <c r="C23">
-        <v>261</v>
-      </c>
-      <c r="D23">
-        <v>2.44</v>
-      </c>
-      <c r="E23">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>27.75</v>
-      </c>
-      <c r="C24">
-        <v>95.5</v>
-      </c>
-      <c r="D24">
-        <v>3.4414414414414414</v>
-      </c>
-      <c r="E24">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>32.5</v>
-      </c>
-      <c r="C25">
-        <v>114.4</v>
-      </c>
-      <c r="D25">
-        <v>3.52</v>
-      </c>
-      <c r="E25">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>38.75</v>
-      </c>
-      <c r="C26">
-        <v>142.25</v>
-      </c>
-      <c r="D26">
-        <v>3.6709677419354838</v>
-      </c>
-      <c r="E26">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>40.5</v>
-      </c>
-      <c r="C27">
-        <v>149</v>
-      </c>
-      <c r="D27">
-        <v>3.6790123456790123</v>
-      </c>
-      <c r="E27">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>13</v>
-      </c>
-      <c r="C28">
-        <v>16</v>
-      </c>
-      <c r="D28">
-        <v>1.23</v>
-      </c>
-      <c r="E28">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>19</v>
-      </c>
-      <c r="C29">
-        <v>51</v>
-      </c>
-      <c r="D29">
-        <v>2.68</v>
-      </c>
-      <c r="E29">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>19</v>
-      </c>
-      <c r="C30">
-        <v>67</v>
-      </c>
-      <c r="D30">
-        <v>3.53</v>
-      </c>
-      <c r="E30">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>39</v>
-      </c>
-      <c r="C31">
-        <v>70</v>
-      </c>
-      <c r="D31">
-        <v>6.96</v>
-      </c>
-      <c r="E31">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>39</v>
-      </c>
-      <c r="C32">
-        <v>62</v>
-      </c>
-      <c r="D32">
-        <v>5.07</v>
-      </c>
-      <c r="E32">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <v>86</v>
-      </c>
-      <c r="D33">
-        <v>6.92</v>
-      </c>
-      <c r="E33">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>23</v>
-      </c>
-      <c r="C34">
-        <v>34</v>
-      </c>
-      <c r="D34">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="E34">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>44</v>
-      </c>
-      <c r="C35">
-        <v>68</v>
-      </c>
-      <c r="D35">
-        <v>7.29</v>
-      </c>
-      <c r="E35">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>19</v>
-      </c>
-      <c r="C36">
-        <v>32</v>
-      </c>
-      <c r="D36">
-        <v>4.96</v>
-      </c>
-      <c r="E36">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>18</v>
-      </c>
-      <c r="C37">
-        <v>28</v>
-      </c>
-      <c r="D37">
-        <v>3.19</v>
-      </c>
-      <c r="E37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>15</v>
-      </c>
-      <c r="C38">
-        <v>21</v>
-      </c>
-      <c r="D38">
-        <v>2.5</v>
-      </c>
-      <c r="E38">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>32</v>
-      </c>
-      <c r="C39">
-        <v>45</v>
-      </c>
-      <c r="D39">
-        <v>5.08</v>
-      </c>
-      <c r="E39">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>14</v>
-      </c>
-      <c r="C40">
-        <v>20</v>
-      </c>
-      <c r="D40">
-        <v>2.66</v>
-      </c>
-      <c r="E40">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>57</v>
-      </c>
-      <c r="C41">
-        <v>114</v>
-      </c>
-      <c r="D41">
-        <v>5.77</v>
-      </c>
-      <c r="E41">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>81</v>
-      </c>
-      <c r="D42">
-        <v>3.64</v>
-      </c>
-      <c r="E42">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>48</v>
-      </c>
-      <c r="C43">
-        <v>76</v>
-      </c>
-      <c r="D43">
-        <v>4.25</v>
-      </c>
-      <c r="E43">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>39</v>
-      </c>
-      <c r="C44">
-        <v>66</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>30</v>
-      </c>
-      <c r="C45">
-        <v>41</v>
-      </c>
-      <c r="D45">
-        <v>2.99</v>
-      </c>
-      <c r="E45">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>35</v>
-      </c>
-      <c r="C46">
-        <v>58</v>
-      </c>
-      <c r="D46">
-        <v>3.53</v>
-      </c>
-      <c r="E46">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>29</v>
-      </c>
-      <c r="C47">
-        <v>37</v>
-      </c>
-      <c r="D47">
-        <v>3.34</v>
-      </c>
-      <c r="E47">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>21</v>
-      </c>
-      <c r="C48">
-        <v>21</v>
-      </c>
-      <c r="D48">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E48">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49">
-        <v>12</v>
-      </c>
-      <c r="C49">
-        <v>9</v>
-      </c>
-      <c r="D49">
-        <v>1.08</v>
-      </c>
-      <c r="E49">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>28</v>
-      </c>
-      <c r="C50">
-        <v>34</v>
-      </c>
-      <c r="D50">
-        <v>2.64</v>
-      </c>
-      <c r="E50">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51">
-        <v>96</v>
-      </c>
-      <c r="C51">
-        <v>589</v>
-      </c>
-      <c r="D51">
-        <v>6.14</v>
-      </c>
-      <c r="E51">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52">
-        <v>70</v>
-      </c>
-      <c r="C52">
-        <v>374</v>
-      </c>
-      <c r="D52">
-        <v>5.34</v>
-      </c>
-      <c r="E52">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <v>107</v>
-      </c>
-      <c r="C53">
-        <v>967</v>
-      </c>
-      <c r="D53">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="E53">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>72</v>
-      </c>
-      <c r="C54">
-        <v>524</v>
-      </c>
-      <c r="D54">
-        <v>7.28</v>
-      </c>
-      <c r="E54">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>28</v>
-      </c>
-      <c r="C55">
-        <v>156</v>
-      </c>
-      <c r="D55">
-        <v>5.57</v>
-      </c>
-      <c r="E55">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>41</v>
-      </c>
-      <c r="C56">
-        <v>170</v>
-      </c>
-      <c r="D56">
-        <v>4.1463414634146343</v>
-      </c>
-      <c r="E56">
-        <v>0.10113027959547888</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57">
-        <v>117</v>
-      </c>
-      <c r="C57">
-        <v>345</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>15</v>
-      </c>
-      <c r="C58">
-        <v>18</v>
-      </c>
-      <c r="D58">
-        <v>1.2</v>
-      </c>
-      <c r="E58">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59">
-        <v>10</v>
-      </c>
-      <c r="C59">
-        <v>13</v>
-      </c>
-      <c r="D59">
-        <v>1.3</v>
-      </c>
-      <c r="E59">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60">
-        <v>21</v>
-      </c>
-      <c r="C60">
-        <v>40</v>
-      </c>
-      <c r="D60">
-        <v>1.9</v>
-      </c>
-      <c r="E60">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61">
-        <v>63</v>
-      </c>
-      <c r="C61">
-        <v>156</v>
-      </c>
-      <c r="D61">
-        <v>2.48</v>
-      </c>
-      <c r="E61">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62">
-        <v>43</v>
-      </c>
-      <c r="C62">
-        <v>88</v>
-      </c>
-      <c r="D62">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E62">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63">
-        <v>38</v>
-      </c>
-      <c r="C63">
-        <v>109</v>
-      </c>
-      <c r="D63">
-        <v>2.87</v>
-      </c>
-      <c r="E63">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64">
-        <v>38</v>
-      </c>
-      <c r="C64">
-        <v>81</v>
-      </c>
-      <c r="D64">
-        <v>2.13</v>
-      </c>
-      <c r="E64">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65">
-        <v>47</v>
-      </c>
-      <c r="C65">
-        <v>124</v>
-      </c>
-      <c r="D65">
-        <v>2.64</v>
-      </c>
-      <c r="E65">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66">
-        <v>48</v>
-      </c>
-      <c r="C66">
-        <v>163</v>
-      </c>
-      <c r="D66">
-        <v>3.4</v>
-      </c>
-      <c r="E66">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67">
-        <v>50</v>
-      </c>
-      <c r="C67">
-        <v>230</v>
-      </c>
-      <c r="D67">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E67">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68">
-        <v>55</v>
-      </c>
-      <c r="C68">
-        <v>193</v>
-      </c>
-      <c r="D68">
-        <v>3.51</v>
-      </c>
-      <c r="E68">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69">
-        <v>63</v>
-      </c>
-      <c r="C69">
-        <v>271</v>
-      </c>
-      <c r="D69">
-        <v>4.3</v>
-      </c>
-      <c r="E69">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70">
-        <v>44</v>
-      </c>
-      <c r="C70">
-        <v>219</v>
-      </c>
-      <c r="D70">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="E70">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71">
-        <v>50</v>
-      </c>
-      <c r="C71">
-        <v>148</v>
-      </c>
-      <c r="D71">
-        <v>2.96</v>
-      </c>
-      <c r="E71">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72">
-        <v>39</v>
-      </c>
-      <c r="C72">
-        <v>165</v>
-      </c>
-      <c r="D72">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="E72">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73">
-        <v>63</v>
-      </c>
-      <c r="C73">
-        <v>134</v>
-      </c>
-      <c r="D73">
-        <v>2.13</v>
-      </c>
-      <c r="E73">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74">
-        <v>45</v>
-      </c>
-      <c r="C74">
-        <v>152</v>
-      </c>
-      <c r="D74">
-        <v>3.38</v>
-      </c>
-      <c r="E74">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75">
-        <v>59</v>
-      </c>
-      <c r="C75">
-        <v>183</v>
-      </c>
-      <c r="D75">
-        <v>3.1</v>
-      </c>
-      <c r="E75">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76">
-        <v>52</v>
-      </c>
-      <c r="C76">
-        <v>184</v>
-      </c>
-      <c r="D76">
-        <v>3.54</v>
-      </c>
-      <c r="E76">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77">
-        <v>29</v>
-      </c>
-      <c r="C77">
-        <v>120</v>
-      </c>
-      <c r="D77">
-        <v>4.03</v>
-      </c>
-      <c r="E77">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78">
-        <v>35</v>
-      </c>
-      <c r="C78">
-        <v>130</v>
-      </c>
-      <c r="D78">
-        <v>3.71</v>
-      </c>
-      <c r="E78">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79">
-        <v>36</v>
-      </c>
-      <c r="C79">
-        <v>130</v>
-      </c>
-      <c r="D79">
-        <v>3.61</v>
-      </c>
-      <c r="E79">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80">
-        <v>33</v>
-      </c>
-      <c r="C80">
-        <v>143</v>
-      </c>
-      <c r="D80">
-        <v>4.33</v>
-      </c>
-      <c r="E80">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81">
-        <v>31</v>
-      </c>
-      <c r="C81">
-        <v>128.03</v>
-      </c>
-      <c r="D81">
-        <v>4.13</v>
-      </c>
-      <c r="E81">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82">
-        <v>32</v>
-      </c>
-      <c r="C82">
-        <v>118.08</v>
-      </c>
-      <c r="D82">
-        <v>3.69</v>
-      </c>
-      <c r="E82">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83">
-        <v>40</v>
-      </c>
-      <c r="C83">
-        <v>192</v>
-      </c>
-      <c r="D83">
-        <v>4.8</v>
-      </c>
-      <c r="E83">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84">
-        <v>46</v>
-      </c>
-      <c r="C84">
-        <v>253.92</v>
-      </c>
-      <c r="D84">
-        <v>5.52</v>
-      </c>
-      <c r="E84">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85">
-        <v>36</v>
-      </c>
-      <c r="C85">
-        <v>160.91999999999999</v>
-      </c>
-      <c r="D85">
-        <v>4.47</v>
-      </c>
-      <c r="E85">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86">
-        <v>39</v>
-      </c>
-      <c r="C86">
-        <v>152.1</v>
-      </c>
-      <c r="D86">
-        <v>3.9</v>
-      </c>
-      <c r="E86">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87">
-        <v>43</v>
-      </c>
-      <c r="C87">
-        <v>206.82999999999998</v>
-      </c>
-      <c r="D87">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="E87">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88">
-        <v>45</v>
-      </c>
-      <c r="C88">
-        <v>220.95000000000002</v>
-      </c>
-      <c r="D88">
-        <v>4.91</v>
-      </c>
-      <c r="E88">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89">
-        <v>34</v>
-      </c>
-      <c r="C89">
-        <v>146.88</v>
-      </c>
-      <c r="D89">
-        <v>4.32</v>
-      </c>
-      <c r="E89">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90">
-        <v>41</v>
-      </c>
-      <c r="C90">
-        <v>184.09</v>
-      </c>
-      <c r="D90">
-        <v>4.49</v>
-      </c>
-      <c r="E90">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91">
-        <v>40</v>
-      </c>
-      <c r="C91">
-        <v>191.20000000000002</v>
-      </c>
-      <c r="D91">
-        <v>4.78</v>
-      </c>
-      <c r="E91">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92">
-        <v>45</v>
-      </c>
-      <c r="C92">
-        <v>226.8</v>
-      </c>
-      <c r="D92">
-        <v>5.04</v>
-      </c>
-      <c r="E92">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93">
-        <v>40</v>
-      </c>
-      <c r="C93">
-        <v>206.8</v>
-      </c>
-      <c r="D93">
-        <v>5.17</v>
-      </c>
-      <c r="E93">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94">
-        <v>29</v>
-      </c>
-      <c r="C94">
-        <v>79.75</v>
-      </c>
-      <c r="D94">
-        <v>2.75</v>
-      </c>
-      <c r="E94">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95">
-        <v>26</v>
-      </c>
-      <c r="C95">
-        <v>83.98</v>
-      </c>
-      <c r="D95">
-        <v>3.23</v>
-      </c>
-      <c r="E95">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96">
-        <v>31</v>
-      </c>
-      <c r="C96">
-        <v>110.98</v>
-      </c>
-      <c r="D96">
-        <v>3.58</v>
-      </c>
-      <c r="E96">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97">
-        <v>31</v>
-      </c>
-      <c r="C97">
-        <v>141.97999999999999</v>
-      </c>
-      <c r="D97">
-        <v>4.58</v>
-      </c>
-      <c r="E97">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98">
-        <v>35</v>
-      </c>
-      <c r="C98">
-        <v>178.85000000000002</v>
-      </c>
-      <c r="D98">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="E98">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99">
-        <v>102</v>
-      </c>
-      <c r="C99">
-        <v>675</v>
-      </c>
-      <c r="D99">
-        <v>6.37</v>
-      </c>
-      <c r="E99">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100">
-        <v>129</v>
-      </c>
-      <c r="C100">
-        <v>879</v>
-      </c>
-      <c r="D100">
-        <v>7.53</v>
-      </c>
-      <c r="E100">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101">
-        <v>100</v>
-      </c>
-      <c r="C101">
-        <v>596</v>
-      </c>
-      <c r="D101">
-        <v>5.83</v>
-      </c>
-      <c r="E101">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102">
-        <v>131</v>
-      </c>
-      <c r="C102">
-        <v>918</v>
-      </c>
-      <c r="D102">
-        <v>7.01</v>
-      </c>
-      <c r="E102">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103">
-        <v>93</v>
-      </c>
-      <c r="C103">
-        <v>544</v>
-      </c>
-      <c r="D103">
-        <v>5.85</v>
-      </c>
-      <c r="E103">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104">
-        <v>126</v>
-      </c>
-      <c r="C104">
-        <v>854</v>
-      </c>
-      <c r="D104">
-        <v>6.78</v>
-      </c>
-      <c r="E104">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105">
-        <v>113</v>
-      </c>
-      <c r="C105">
-        <v>540</v>
-      </c>
-      <c r="D105">
-        <v>4.78</v>
-      </c>
-      <c r="E105">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106">
-        <v>133</v>
-      </c>
-      <c r="C106">
-        <v>824</v>
-      </c>
-      <c r="D106">
-        <v>6.2</v>
-      </c>
-      <c r="E106">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107">
-        <v>89</v>
-      </c>
-      <c r="C107">
-        <v>365</v>
-      </c>
-      <c r="D107">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E107">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108">
-        <v>77</v>
-      </c>
-      <c r="C108">
-        <v>266</v>
-      </c>
-      <c r="D108">
-        <v>3.46</v>
-      </c>
-      <c r="E108">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109">
-        <v>31</v>
-      </c>
-      <c r="C109">
-        <v>77</v>
-      </c>
-      <c r="D109">
-        <v>2.4838709677419355</v>
-      </c>
-      <c r="E109">
-        <v>8.0124869927159212E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110">
-        <v>17</v>
-      </c>
-      <c r="C110">
-        <v>39</v>
-      </c>
-      <c r="D110">
-        <v>2.2941176470588234</v>
-      </c>
-      <c r="E110">
-        <v>0.13494809688581316</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B111">
-        <v>32</v>
-      </c>
-      <c r="C111">
-        <v>87</v>
-      </c>
-      <c r="D111">
-        <v>2.71875</v>
-      </c>
-      <c r="E111">
-        <v>8.49609375E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112">
-        <v>24</v>
-      </c>
-      <c r="C112">
-        <v>75</v>
-      </c>
-      <c r="D112">
-        <v>3.125</v>
-      </c>
-      <c r="E112">
-        <v>0.13020833333333334</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113">
-        <v>33</v>
-      </c>
-      <c r="C113">
-        <v>123</v>
-      </c>
-      <c r="D113">
-        <v>3.7272727272727271</v>
-      </c>
-      <c r="E113">
-        <v>0.11294765840220386</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B114">
-        <v>22</v>
-      </c>
-      <c r="C114">
-        <v>42</v>
-      </c>
-      <c r="D114">
-        <v>1.9090909090909092</v>
-      </c>
-      <c r="E114">
-        <v>8.6776859504132234E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115">
-        <v>39</v>
-      </c>
-      <c r="C115">
-        <v>146</v>
-      </c>
-      <c r="D115">
-        <v>3.74</v>
-      </c>
-      <c r="E115">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116">
-        <v>35</v>
-      </c>
-      <c r="C116">
-        <v>110</v>
-      </c>
-      <c r="D116">
-        <v>3.14</v>
-      </c>
-      <c r="E116">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117">
-        <v>32</v>
-      </c>
-      <c r="C117">
-        <v>107</v>
-      </c>
-      <c r="D117">
-        <v>3.34</v>
-      </c>
-      <c r="E117">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118">
-        <v>31</v>
-      </c>
-      <c r="C118">
-        <v>102</v>
-      </c>
-      <c r="D118">
-        <v>3.29</v>
-      </c>
-      <c r="E118">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119">
-        <v>37</v>
-      </c>
-      <c r="C119">
-        <v>120</v>
-      </c>
-      <c r="D119">
-        <v>3.24</v>
-      </c>
-      <c r="E119">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120">
-        <v>32</v>
-      </c>
-      <c r="C120">
-        <v>101</v>
-      </c>
-      <c r="D120">
-        <v>3.16</v>
-      </c>
-      <c r="E120">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121">
-        <v>33</v>
-      </c>
-      <c r="C121">
-        <v>104</v>
-      </c>
-      <c r="D121">
-        <v>3.15</v>
-      </c>
-      <c r="E121">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122">
-        <v>36</v>
-      </c>
-      <c r="C122">
-        <v>152</v>
-      </c>
-      <c r="D122">
-        <v>4.22</v>
-      </c>
-      <c r="E122">
-        <v>0.11728395061728394</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123">
-        <v>11</v>
-      </c>
-      <c r="C123">
-        <v>42</v>
-      </c>
-      <c r="D123">
-        <v>3.8181818181818183</v>
-      </c>
-      <c r="E123">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124">
-        <v>7</v>
-      </c>
-      <c r="C124">
-        <v>29</v>
-      </c>
-      <c r="D124">
-        <v>4.1428571428571432</v>
-      </c>
-      <c r="E124">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125">
-        <v>13</v>
-      </c>
-      <c r="C125">
-        <v>41</v>
-      </c>
-      <c r="D125">
-        <v>3.1538461538461537</v>
-      </c>
-      <c r="E125">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126">
-        <v>12</v>
-      </c>
-      <c r="C126">
-        <v>44</v>
-      </c>
-      <c r="D126">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="E126">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127">
-        <v>10</v>
-      </c>
-      <c r="C127">
-        <v>35</v>
-      </c>
-      <c r="D127">
-        <v>3.5</v>
-      </c>
-      <c r="E127">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128">
-        <v>10</v>
-      </c>
-      <c r="C128">
-        <v>30</v>
-      </c>
-      <c r="D128">
-        <v>3</v>
-      </c>
-      <c r="E128">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129">
-        <v>9</v>
-      </c>
-      <c r="C129">
-        <v>26</v>
-      </c>
-      <c r="D129">
-        <v>2.8888888888888888</v>
-      </c>
-      <c r="E129">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130">
-        <v>12</v>
-      </c>
-      <c r="C130">
-        <v>38</v>
-      </c>
-      <c r="D130">
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="E130">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131">
-        <v>9</v>
-      </c>
-      <c r="C131">
-        <v>23</v>
-      </c>
-      <c r="D131">
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="E131">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132">
-        <v>27</v>
-      </c>
-      <c r="C132">
-        <v>63.99</v>
-      </c>
-      <c r="D132">
-        <v>2.37</v>
-      </c>
-      <c r="E132">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133">
-        <v>23</v>
-      </c>
-      <c r="C133">
-        <v>64.009</v>
-      </c>
-      <c r="D133">
-        <v>2.7829999999999999</v>
-      </c>
-      <c r="E133">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134">
-        <v>19</v>
-      </c>
-      <c r="C134">
-        <v>52.003</v>
-      </c>
-      <c r="D134">
-        <v>2.7370000000000001</v>
-      </c>
-      <c r="E134">
-        <v>0.14399999999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135">
-        <v>20</v>
-      </c>
-      <c r="C135">
-        <v>56</v>
-      </c>
-      <c r="D135">
-        <v>2.8</v>
-      </c>
-      <c r="E135">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136">
-        <v>24</v>
-      </c>
-      <c r="C136">
-        <v>73.007999999999996</v>
-      </c>
-      <c r="D136">
-        <v>3.0419999999999998</v>
-      </c>
-      <c r="E136">
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137">
-        <v>16</v>
-      </c>
-      <c r="C137">
-        <v>47.008000000000003</v>
-      </c>
-      <c r="D137">
-        <v>2.9380000000000002</v>
-      </c>
-      <c r="E137">
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138">
-        <v>26</v>
-      </c>
-      <c r="C138">
-        <v>82.992000000000004</v>
-      </c>
-      <c r="D138">
-        <v>3.1920000000000002</v>
-      </c>
-      <c r="E138">
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139">
-        <v>23</v>
-      </c>
-      <c r="C139">
-        <v>68.010999999999996</v>
-      </c>
-      <c r="D139">
-        <v>2.9569999999999999</v>
-      </c>
-      <c r="E139">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140">
-        <v>25</v>
-      </c>
-      <c r="C140">
-        <v>75</v>
-      </c>
-      <c r="D140">
-        <v>3</v>
-      </c>
-      <c r="E140">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141">
-        <v>18</v>
-      </c>
-      <c r="C141">
-        <v>52.001999999999995</v>
-      </c>
-      <c r="D141">
-        <v>2.8889999999999998</v>
-      </c>
-      <c r="E141">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142">
-        <v>27</v>
-      </c>
-      <c r="C142">
-        <v>77.003999999999991</v>
-      </c>
-      <c r="D142">
-        <v>2.8519999999999999</v>
-      </c>
-      <c r="E142">
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143">
-        <v>26</v>
-      </c>
-      <c r="C143">
-        <v>73.996000000000009</v>
-      </c>
-      <c r="D143">
-        <v>2.8460000000000001</v>
-      </c>
-      <c r="E143">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144">
-        <v>83</v>
-      </c>
-      <c r="C144">
-        <v>375</v>
-      </c>
-      <c r="D144">
-        <v>4.5180722891566267</v>
-      </c>
-      <c r="E144">
-        <v>5.4434605893453329E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145">
-        <v>89</v>
-      </c>
-      <c r="C145">
-        <v>565</v>
-      </c>
-      <c r="D145">
-        <v>6.3483146067415728</v>
-      </c>
-      <c r="E145">
-        <v>7.1329377603837896E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146">
-        <v>100</v>
-      </c>
-      <c r="C146">
-        <v>708</v>
-      </c>
-      <c r="D146">
-        <v>7.08</v>
-      </c>
-      <c r="E146">
-        <v>7.0800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147">
-        <v>70</v>
-      </c>
-      <c r="C147">
-        <v>421</v>
-      </c>
-      <c r="D147">
-        <v>6.0142857142857142</v>
-      </c>
-      <c r="E147">
-        <v>8.5918367346938779E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148">
-        <v>77</v>
-      </c>
-      <c r="C148">
-        <v>268</v>
-      </c>
-      <c r="D148">
-        <v>3.4805194805194803</v>
-      </c>
-      <c r="E148">
-        <v>4.5201551695058191E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149">
-        <v>75</v>
-      </c>
-      <c r="C149">
-        <v>240</v>
-      </c>
-      <c r="D149">
-        <v>3.2</v>
-      </c>
-      <c r="E149">
-        <v>4.2666666666666665E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150">
-        <v>66</v>
-      </c>
-      <c r="C150">
-        <v>187</v>
-      </c>
-      <c r="D150">
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="E150">
-        <v>4.2929292929292928E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151">
-        <v>82</v>
-      </c>
-      <c r="C151">
-        <v>224</v>
-      </c>
-      <c r="D151">
-        <v>2.7317073170731709</v>
-      </c>
-      <c r="E151">
-        <v>3.3313503866745982E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152">
-        <v>58</v>
-      </c>
-      <c r="C152">
-        <v>117</v>
-      </c>
-      <c r="D152">
-        <v>2.0172413793103448</v>
-      </c>
-      <c r="E152">
-        <v>3.4780023781212845E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153">
-        <v>45</v>
-      </c>
-      <c r="C153">
-        <v>110</v>
-      </c>
-      <c r="D153">
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="E153">
-        <v>5.4320987654320987E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154">
-        <v>76</v>
-      </c>
-      <c r="C154">
-        <v>155</v>
-      </c>
-      <c r="D154">
-        <v>2.0394736842105261</v>
-      </c>
-      <c r="E154">
-        <v>2.6835180055401663E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155">
-        <v>142</v>
-      </c>
-      <c r="C155">
-        <v>1383</v>
-      </c>
-      <c r="D155">
-        <v>9.73943661971831</v>
-      </c>
-      <c r="E155">
-        <v>6.8587581829002181E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156">
-        <v>102</v>
-      </c>
-      <c r="C156">
-        <v>697</v>
-      </c>
-      <c r="D156">
-        <v>6.83</v>
-      </c>
-      <c r="E156">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157">
-        <v>109</v>
-      </c>
-      <c r="C157">
-        <v>830</v>
-      </c>
-      <c r="D157">
-        <v>7.61</v>
-      </c>
-      <c r="E157">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15592AEE-C863-429D-AF74-6168818CDC2E}">
-  <dimension ref="A1:F163"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C163"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" s="4">
         <v>42</v>
       </c>

--- a/2024 Reilly Connelly/data.xlsx
+++ b/2024 Reilly Connelly/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Students/uvm_students/2024 Reilly Connelly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07D7BE60-24AE-47FF-832E-07D9CD43E3A3}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72E82823-6D52-4134-A40A-B9B3E0B3D738}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
   </bookViews>
@@ -156,6 +156,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,8 +188,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,10 +206,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,13 +527,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1446A25-B0D6-43ED-B1CA-32929B6BDD1D}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,7 +553,7 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
@@ -575,7 +576,7 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="G2" t="s">
@@ -598,7 +599,7 @@
       <c r="E3">
         <v>2.8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>6.8411659726353366E-2</v>
       </c>
       <c r="G3" t="s">
@@ -621,7 +622,7 @@
       <c r="E4">
         <v>3.66</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>5.6331360946745561E-2</v>
       </c>
       <c r="G4" t="s">
@@ -644,7 +645,7 @@
       <c r="E5">
         <v>3.66</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>5.4673721340388004E-2</v>
       </c>
       <c r="G5" t="s">
@@ -667,7 +668,7 @@
       <c r="E6">
         <v>1.3846153846153846</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.10650887573964497</v>
       </c>
       <c r="G6" t="s">
@@ -690,7 +691,7 @@
       <c r="E7">
         <v>1.8</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.12</v>
       </c>
       <c r="G7" t="s">
@@ -713,7 +714,7 @@
       <c r="E8">
         <v>2.1333333333333333</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.14222222222222222</v>
       </c>
       <c r="G8" t="s">
@@ -736,7 +737,7 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.14285714285714285</v>
       </c>
       <c r="G9" t="s">
@@ -759,7 +760,7 @@
       <c r="E10">
         <v>2.5294117647058822</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.14878892733564014</v>
       </c>
       <c r="G10" t="s">
@@ -782,7 +783,7 @@
       <c r="E11">
         <v>2.0714285714285716</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.14795918367346939</v>
       </c>
       <c r="G11" t="s">
@@ -805,7 +806,7 @@
       <c r="E12">
         <v>1.9230769230769231</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.14792899408284024</v>
       </c>
       <c r="G12" t="s">
@@ -828,7 +829,7 @@
       <c r="E13">
         <v>1.9230769230769231</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0.14792899408284024</v>
       </c>
       <c r="G13" t="s">
@@ -851,7 +852,7 @@
       <c r="E14">
         <v>2.2857142857142856</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>0.16326530612244897</v>
       </c>
       <c r="G14" t="s">
@@ -874,7 +875,7 @@
       <c r="E15">
         <v>2.4666666666666668</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>0.16444444444444445</v>
       </c>
       <c r="G15" t="s">
@@ -897,7 +898,7 @@
       <c r="E16">
         <v>2.2307692307692308</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>0.17159763313609466</v>
       </c>
       <c r="G16" t="s">
@@ -920,7 +921,7 @@
       <c r="E17">
         <v>2.5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>0.17857142857142858</v>
       </c>
       <c r="G17" t="s">
@@ -943,7 +944,7 @@
       <c r="E18">
         <v>2.46</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>2.3228907084371662E-2</v>
       </c>
       <c r="G18" t="s">
@@ -967,7 +968,7 @@
         <f>D19/C19</f>
         <v>3.5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>0.11616180005369195</v>
       </c>
       <c r="G19" t="s">
@@ -991,7 +992,7 @@
         <f>D20/C20</f>
         <v>3.6375000000000002</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>9.278723120460336E-2</v>
       </c>
       <c r="G20" t="s">
@@ -1014,7 +1015,7 @@
       <c r="E21">
         <v>3.53</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>0.18559556786703602</v>
       </c>
       <c r="G21" t="s">
@@ -1037,7 +1038,7 @@
       <c r="E22">
         <v>6.96</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>4.6022353714661408E-2</v>
       </c>
       <c r="G22" t="s">
@@ -1060,7 +1061,7 @@
       <c r="E23">
         <v>5.07</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>4.076265614727153E-2</v>
       </c>
       <c r="G23" t="s">
@@ -1083,7 +1084,7 @@
       <c r="E24">
         <v>6.92</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="G24" t="s">
@@ -1106,7 +1107,7 @@
       <c r="E25">
         <v>4.1399999999999997</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>6.4272211720226846E-2</v>
       </c>
       <c r="G25" t="s">
@@ -1129,7 +1130,7 @@
       <c r="E26">
         <v>7.29</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>3.5123966942148761E-2</v>
       </c>
       <c r="G26" t="s">
@@ -1152,7 +1153,7 @@
       <c r="E27">
         <v>4.96</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>8.8642659279778394E-2</v>
       </c>
       <c r="G27" t="s">
@@ -1175,7 +1176,7 @@
       <c r="E28">
         <v>3.19</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>8.6419753086419748E-2</v>
       </c>
       <c r="G28" t="s">
@@ -1198,7 +1199,7 @@
       <c r="E29">
         <v>2.5</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>9.3333333333333338E-2</v>
       </c>
       <c r="G29" t="s">
@@ -1221,7 +1222,7 @@
       <c r="E30">
         <v>5.08</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>4.39453125E-2</v>
       </c>
       <c r="G30" t="s">
@@ -1244,7 +1245,7 @@
       <c r="E31">
         <v>2.66</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>0.10204081632653061</v>
       </c>
       <c r="G31" t="s">
@@ -1267,7 +1268,7 @@
       <c r="E32">
         <v>5.77</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>3.5087719298245612E-2</v>
       </c>
       <c r="G32" t="s">
@@ -1290,7 +1291,7 @@
       <c r="E33">
         <v>3.64</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>4.8185603807257588E-2</v>
       </c>
       <c r="G33" t="s">
@@ -1313,7 +1314,7 @@
       <c r="E34">
         <v>4.25</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>3.2986111111111112E-2</v>
       </c>
       <c r="G34" t="s">
@@ -1336,7 +1337,7 @@
       <c r="E35">
         <v>3</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>4.3392504930966469E-2</v>
       </c>
       <c r="G35" t="s">
@@ -1359,7 +1360,7 @@
       <c r="E36">
         <v>2.99</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>4.5555555555555557E-2</v>
       </c>
       <c r="G36" t="s">
@@ -1382,7 +1383,7 @@
       <c r="E37">
         <v>3.53</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>4.7346938775510203E-2</v>
       </c>
       <c r="G37" t="s">
@@ -1405,7 +1406,7 @@
       <c r="E38">
         <v>3.34</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>4.3995243757431628E-2</v>
       </c>
       <c r="G38" t="s">
@@ -1428,7 +1429,7 @@
       <c r="E39">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="G39" t="s">
@@ -1451,7 +1452,7 @@
       <c r="E40">
         <v>1.08</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>6.25E-2</v>
       </c>
       <c r="G40" t="s">
@@ -1474,7 +1475,7 @@
       <c r="E41">
         <v>2.64</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>4.336734693877551E-2</v>
       </c>
       <c r="G41" t="s">
@@ -1497,7 +1498,7 @@
       <c r="E42">
         <v>5.57</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>0.19897959183673469</v>
       </c>
       <c r="G42" t="s">
@@ -1520,7 +1521,7 @@
       <c r="E43">
         <v>4.1463414634146343</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>0.10113027959547888</v>
       </c>
       <c r="G43" t="s">
@@ -1543,7 +1544,7 @@
       <c r="E44">
         <v>3</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>2.5202717510409818E-2</v>
       </c>
       <c r="G44" t="s">
@@ -1567,7 +1568,7 @@
         <f>D45/C45</f>
         <v>2.96</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>3.9466666666666664E-2</v>
       </c>
       <c r="G45" t="s">
@@ -1591,7 +1592,7 @@
         <f>D46/C46</f>
         <v>2.3571428571428572</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>0.1683673469387755</v>
       </c>
       <c r="G46" t="s">
@@ -1614,7 +1615,7 @@
       <c r="E47">
         <v>1.2</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>0.08</v>
       </c>
       <c r="G47" t="s">
@@ -1637,7 +1638,7 @@
       <c r="E48">
         <v>1.3</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>0.13</v>
       </c>
       <c r="G48" t="s">
@@ -1660,7 +1661,7 @@
       <c r="E49">
         <v>1.9</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>9.0702947845804988E-2</v>
       </c>
       <c r="G49" t="s">
@@ -1683,7 +1684,7 @@
       <c r="E50">
         <v>2.48</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>3.9304610733182165E-2</v>
       </c>
       <c r="G50" t="s">
@@ -1706,7 +1707,7 @@
       <c r="E51">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>4.7593293672255274E-2</v>
       </c>
       <c r="G51" t="s">
@@ -1729,7 +1730,7 @@
       <c r="E52">
         <v>2.87</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>7.5484764542936289E-2</v>
       </c>
       <c r="G52" t="s">
@@ -1752,7 +1753,7 @@
       <c r="E53">
         <v>2.13</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>5.6094182825484763E-2</v>
       </c>
       <c r="G53" t="s">
@@ -1775,7 +1776,7 @@
       <c r="E54">
         <v>2.64</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>5.6133997283838839E-2</v>
       </c>
       <c r="G54" t="s">
@@ -1798,7 +1799,7 @@
       <c r="E55">
         <v>3.4</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>7.0746527777777776E-2</v>
       </c>
       <c r="G55" t="s">
@@ -1821,7 +1822,7 @@
       <c r="E56">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="G56" t="s">
@@ -1844,7 +1845,7 @@
       <c r="E57">
         <v>3.51</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>6.3801652892561983E-2</v>
       </c>
       <c r="G57" t="s">
@@ -1867,7 +1868,7 @@
       <c r="E58">
         <v>4.3</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>6.8279163517258754E-2</v>
       </c>
       <c r="G58" t="s">
@@ -1890,7 +1891,7 @@
       <c r="E59">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>0.1131198347107438</v>
       </c>
       <c r="G59" t="s">
@@ -1913,7 +1914,7 @@
       <c r="E60">
         <v>2.96</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>5.9200000000000003E-2</v>
       </c>
       <c r="G60" t="s">
@@ -1936,7 +1937,7 @@
       <c r="E61">
         <v>4.2300000000000004</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>0.10848126232741617</v>
       </c>
       <c r="G61" t="s">
@@ -1959,7 +1960,7 @@
       <c r="E62">
         <v>2.13</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>3.3761652809271854E-2</v>
       </c>
       <c r="G62" t="s">
@@ -1982,7 +1983,7 @@
       <c r="E63">
         <v>3.38</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>7.5061728395061728E-2</v>
       </c>
       <c r="G63" t="s">
@@ -2005,7 +2006,7 @@
       <c r="E64">
         <v>3.1</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>5.2571100258546395E-2</v>
       </c>
       <c r="G64" t="s">
@@ -2028,7 +2029,7 @@
       <c r="E65">
         <v>3.54</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>6.8047337278106509E-2</v>
       </c>
       <c r="G65" t="s">
@@ -2052,7 +2053,7 @@
         <f>D66/C66</f>
         <v>3.6573426573426575</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>0.12</v>
       </c>
       <c r="G66" t="s">
@@ -2075,7 +2076,7 @@
       <c r="E67">
         <v>5.52</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>0.12</v>
       </c>
       <c r="G67" t="s">
@@ -2098,7 +2099,7 @@
       <c r="E68">
         <v>4.91</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>0.10911111111111112</v>
       </c>
       <c r="G68" t="s">
@@ -2121,7 +2122,7 @@
       <c r="E69">
         <v>5.04</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <v>0.112</v>
       </c>
       <c r="G69" t="s">
@@ -2144,7 +2145,7 @@
       <c r="E70">
         <v>5.17</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <v>0.12925</v>
       </c>
       <c r="G70" t="s">
@@ -2167,7 +2168,7 @@
       <c r="E71">
         <v>2.75</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>9.4827586206896547E-2</v>
       </c>
       <c r="G71" t="s">
@@ -2190,7 +2191,7 @@
       <c r="E72">
         <v>3.23</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>0.12423076923076924</v>
       </c>
       <c r="G72" t="s">
@@ -2213,7 +2214,7 @@
       <c r="E73">
         <v>3.58</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>0.11548387096774194</v>
       </c>
       <c r="G73" t="s">
@@ -2236,7 +2237,7 @@
       <c r="E74">
         <v>4.58</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>0.14774193548387096</v>
       </c>
       <c r="G74" t="s">
@@ -2259,7 +2260,7 @@
       <c r="E75">
         <v>5.1100000000000003</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>0.14600000000000002</v>
       </c>
       <c r="G75" t="s">
@@ -2283,7 +2284,7 @@
         <f t="shared" ref="E76:E83" si="0">D76/C76</f>
         <v>6.6982758620689653</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <v>5.8850118802332749E-2</v>
       </c>
       <c r="G76" t="s">
@@ -2307,7 +2308,7 @@
         <f t="shared" si="0"/>
         <v>6.5258620689655169</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="1">
         <v>5.654669308315366E-2</v>
       </c>
       <c r="G77" t="s">
@@ -2331,7 +2332,7 @@
         <f t="shared" si="0"/>
         <v>6.3545454545454545</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
         <v>5.8344665958262903E-2</v>
       </c>
       <c r="G78" t="s">
@@ -2355,7 +2356,7 @@
         <f t="shared" si="0"/>
         <v>4.842233009708738</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G79" t="s">
@@ -2379,7 +2380,7 @@
         <f t="shared" si="0"/>
         <v>2.4166666666666665</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>0.10753648340648619</v>
       </c>
       <c r="G80" t="s">
@@ -2403,7 +2404,7 @@
         <f t="shared" si="0"/>
         <v>2.8928571428571428</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="1">
         <v>0.10758463541666667</v>
       </c>
       <c r="G81" t="s">
@@ -2427,7 +2428,7 @@
         <f t="shared" si="0"/>
         <v>2.9464285714285716</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="1">
         <v>9.9862258953168054E-2</v>
       </c>
       <c r="G82" t="s">
@@ -2451,7 +2452,7 @@
         <f t="shared" si="0"/>
         <v>3.1515151515151514</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G83" t="s">
@@ -2474,7 +2475,7 @@
       <c r="E84">
         <v>5.4</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="1">
         <v>6.9197896120973046E-2</v>
       </c>
       <c r="G84" t="s">
@@ -2497,7 +2498,7 @@
       <c r="E85">
         <v>3.44</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="1">
         <v>4.4049967126890202E-2</v>
       </c>
       <c r="G85" t="s">
@@ -2520,7 +2521,7 @@
       <c r="E86">
         <v>2.67</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>3.1746031746031744E-2</v>
       </c>
       <c r="G86" t="s">
@@ -2543,7 +2544,7 @@
       <c r="E87">
         <v>2.02</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>3.4780023781212845E-2</v>
       </c>
       <c r="G87" t="s">
@@ -2566,7 +2567,7 @@
       <c r="E88">
         <v>3.04</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="1">
         <v>3.8455375741067138E-2</v>
       </c>
       <c r="G88" t="s">
@@ -2589,7 +2590,7 @@
       <c r="E89">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
         <v>4.5814244064972927E-2</v>
       </c>
       <c r="G89" t="s">
@@ -2612,7 +2613,7 @@
       <c r="E90">
         <v>2.1800000000000002</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="1">
         <v>3.0747867486609799E-2</v>
       </c>
       <c r="G90" t="s">
@@ -2635,7 +2636,7 @@
       <c r="E91">
         <v>2.71</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="1">
         <v>3.9277462717916406E-2</v>
       </c>
       <c r="G91" t="s">
@@ -2658,7 +2659,7 @@
       <c r="E92">
         <v>9.8699999999999992</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="1">
         <v>0.11344827586206896</v>
       </c>
       <c r="G92" t="s">
@@ -2681,7 +2682,7 @@
       <c r="E93">
         <v>13.45</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="1">
         <v>0.14157894736842105</v>
       </c>
       <c r="G93" t="s">
@@ -2704,7 +2705,7 @@
       <c r="E94">
         <v>13.35</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="1">
         <v>0.12247706422018348</v>
       </c>
       <c r="G94" t="s">
@@ -2727,7 +2728,7 @@
       <c r="E95">
         <v>16.66</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
         <v>0.15570093457943926</v>
       </c>
       <c r="G95" t="s">
@@ -2750,7 +2751,7 @@
       <c r="E96">
         <v>9.5399999999999991</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="1">
         <v>0.11093023255813952</v>
       </c>
       <c r="G96" t="s">
@@ -2773,7 +2774,7 @@
       <c r="E97">
         <v>11.78</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="1">
         <v>0.12270833333333332</v>
       </c>
       <c r="G97" t="s">
@@ -2796,7 +2797,7 @@
       <c r="E98">
         <v>15.34</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="1">
         <v>0.15653061224489795</v>
       </c>
       <c r="G98" t="s">
@@ -2819,7 +2820,7 @@
       <c r="E99">
         <v>9.8699999999999992</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="1">
         <v>0.12653846153846152</v>
       </c>
       <c r="G99" t="s">
@@ -2842,7 +2843,7 @@
       <c r="E100">
         <v>16.64</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="1">
         <v>0.14725663716814161</v>
       </c>
       <c r="G100" t="s">
@@ -2865,7 +2866,7 @@
       <c r="E101">
         <v>12.44</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="1">
         <v>0.13521739130434782</v>
       </c>
       <c r="G101" t="s">
@@ -2889,7 +2890,7 @@
         <f>D102/C102</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="1">
         <v>0.30599999999999999</v>
       </c>
       <c r="G102" t="s">
@@ -2913,7 +2914,7 @@
         <f>D103/C103</f>
         <v>3.0416666666666665</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="1">
         <v>0.127</v>
       </c>
       <c r="G103" t="s">
@@ -2936,7 +2937,7 @@
       <c r="E104">
         <v>4.22</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="1">
         <v>0.11728395061728394</v>
       </c>
       <c r="G104" t="s">
@@ -2959,7 +2960,7 @@
       <c r="E105">
         <v>9.73943661971831</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="1">
         <v>6.8587581829002181E-2</v>
       </c>
       <c r="G105" t="s">
@@ -2983,7 +2984,7 @@
         <f>D106/C106</f>
         <v>12.432258064516128</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="1">
         <v>0.16034186180000001</v>
       </c>
       <c r="G106" t="s">

--- a/2024 Reilly Connelly/data.xlsx
+++ b/2024 Reilly Connelly/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Students/uvm_students/2024 Reilly Connelly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72E82823-6D52-4134-A40A-B9B3E0B3D738}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{2FC6A61F-3552-46FB-BD37-D840F9191651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C26418D-4886-4BF6-8F91-C9DAC7854607}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09EC1A8A-DB82-4BF4-A886-F86B4BDD717E}"/>
   </bookViews>
   <sheets>
     <sheet name="final_data" sheetId="6" r:id="rId1"/>
@@ -131,25 +131,25 @@
     <t>Woodward et al.</t>
   </si>
   <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
     <t>Yule et al.</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>five</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -580,7 +580,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>6.8411659726353366E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>5.6331360946745561E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -649,7 +649,7 @@
         <v>5.4673721340388004E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>0.10650887573964497</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>0.12</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>0.14222222222222222</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>0.14878892733564014</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>0.14795918367346939</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
         <v>0.14792899408284024</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>0.14792899408284024</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>0.16326530612244897</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>0.16444444444444445</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>0.17159763313609466</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>0.17857142857142858</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>2.3228907084371662E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
         <v>0.11616180005369195</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
         <v>9.278723120460336E-2</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1019,7 +1019,7 @@
         <v>0.18559556786703602</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>4.6022353714661408E-2</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>4.076265614727153E-2</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>6.4272211720226846E-2</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
         <v>3.5123966942148761E-2</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>8.8642659279778394E-2</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
         <v>8.6419753086419748E-2</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
         <v>9.3333333333333338E-2</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>4.39453125E-2</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>0.10204081632653061</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
         <v>3.5087719298245612E-2</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>4.8185603807257588E-2</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>3.2986111111111112E-2</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>4.3392504930966469E-2</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
         <v>4.5555555555555557E-2</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
         <v>4.7346938775510203E-2</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>4.3995243757431628E-2</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>4.336734693877551E-2</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
         <v>0.19897959183673469</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>0.10113027959547888</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
         <v>2.5202717510409818E-2</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>3.9466666666666664E-2</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1596,7 +1596,7 @@
         <v>0.1683673469387755</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1619,7 +1619,7 @@
         <v>0.08</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>0.13</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
         <v>9.0702947845804988E-2</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>3.9304610733182165E-2</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>4.7593293672255274E-2</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
         <v>7.5484764542936289E-2</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>5.6094182825484763E-2</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1780,7 +1780,7 @@
         <v>5.6133997283838839E-2</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1803,7 +1803,7 @@
         <v>7.0746527777777776E-2</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1826,7 +1826,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
         <v>6.3801652892561983E-2</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
         <v>6.8279163517258754E-2</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1895,7 +1895,7 @@
         <v>0.1131198347107438</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>5.9200000000000003E-2</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1941,7 +1941,7 @@
         <v>0.10848126232741617</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1964,7 +1964,7 @@
         <v>3.3761652809271854E-2</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1987,7 +1987,7 @@
         <v>7.5061728395061728E-2</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2010,7 +2010,7 @@
         <v>5.2571100258546395E-2</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
         <v>6.8047337278106509E-2</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2057,7 +2057,7 @@
         <v>0.12</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>0.12</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>0.10911111111111112</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
         <v>0.112</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2149,7 +2149,7 @@
         <v>0.12925</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
         <v>9.4827586206896547E-2</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2195,7 +2195,7 @@
         <v>0.12423076923076924</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
         <v>0.11548387096774194</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2241,7 +2241,7 @@
         <v>0.14774193548387096</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>0.14600000000000002</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
         <v>5.8850118802332749E-2</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2312,7 +2312,7 @@
         <v>5.654669308315366E-2</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
         <v>5.8344665958262903E-2</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>0.10753648340648619</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
         <v>0.10758463541666667</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>9.9862258953168054E-2</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2479,7 +2479,7 @@
         <v>6.9197896120973046E-2</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2502,7 +2502,7 @@
         <v>4.4049967126890202E-2</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2525,7 +2525,7 @@
         <v>3.1746031746031744E-2</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2548,7 +2548,7 @@
         <v>3.4780023781212845E-2</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2571,7 +2571,7 @@
         <v>3.8455375741067138E-2</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2594,7 +2594,7 @@
         <v>4.5814244064972927E-2</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2617,7 +2617,7 @@
         <v>3.0747867486609799E-2</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>3.9277462717916406E-2</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2663,7 +2663,7 @@
         <v>0.11344827586206896</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2686,7 +2686,7 @@
         <v>0.14157894736842105</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2709,7 +2709,7 @@
         <v>0.12247706422018348</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2732,7 +2732,7 @@
         <v>0.15570093457943926</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,7 +2755,7 @@
         <v>0.11093023255813952</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2778,7 +2778,7 @@
         <v>0.12270833333333332</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2801,7 +2801,7 @@
         <v>0.15653061224489795</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2824,7 +2824,7 @@
         <v>0.12653846153846152</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2847,7 +2847,7 @@
         <v>0.14725663716814161</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2870,7 +2870,7 @@
         <v>0.13521739130434782</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2894,7 +2894,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
         <v>0.127</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2941,7 +2941,7 @@
         <v>0.11728395061728394</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2964,12 +2964,12 @@
         <v>6.8587581829002181E-2</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B106" t="s">
         <v>1</v>
@@ -2981,14 +2981,14 @@
         <v>963.5</v>
       </c>
       <c r="E106">
-        <f>D106/C106</f>
+        <f t="shared" ref="E106" si="1">D106/C106</f>
         <v>12.432258064516128</v>
       </c>
       <c r="F106" s="1">
         <v>0.16034186180000001</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
